--- a/BackTest/2020-01-13 BackTest RDN.xlsx
+++ b/BackTest/2020-01-13 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>133.8</v>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>133.7</v>
       </c>
       <c r="D2" t="n">
         <v>133.8</v>
       </c>
       <c r="E2" t="n">
-        <v>133</v>
+        <v>133.7</v>
       </c>
       <c r="F2" t="n">
-        <v>15722.2715</v>
+        <v>5190.4834</v>
       </c>
       <c r="G2" t="n">
-        <v>137.2566666666666</v>
+        <v>137.325</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>134.5</v>
+        <v>133.8</v>
       </c>
       <c r="C3" t="n">
         <v>133</v>
       </c>
       <c r="D3" t="n">
-        <v>134.5</v>
+        <v>133.8</v>
       </c>
       <c r="E3" t="n">
         <v>133</v>
       </c>
       <c r="F3" t="n">
-        <v>9399.4221</v>
+        <v>15722.2715</v>
       </c>
       <c r="G3" t="n">
-        <v>137.1566666666666</v>
+        <v>137.2566666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>133.1</v>
+        <v>134.5</v>
       </c>
       <c r="C4" t="n">
-        <v>132.8</v>
+        <v>133</v>
       </c>
       <c r="D4" t="n">
-        <v>137</v>
+        <v>134.5</v>
       </c>
       <c r="E4" t="n">
-        <v>132.8</v>
+        <v>133</v>
       </c>
       <c r="F4" t="n">
-        <v>11971.2</v>
+        <v>9399.4221</v>
       </c>
       <c r="G4" t="n">
-        <v>137.0533333333333</v>
+        <v>137.1566666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,32 +538,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>134</v>
+        <v>133.1</v>
       </c>
       <c r="C5" t="n">
-        <v>135</v>
+        <v>132.8</v>
       </c>
       <c r="D5" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E5" t="n">
-        <v>134</v>
+        <v>132.8</v>
       </c>
       <c r="F5" t="n">
-        <v>177.5103</v>
+        <v>11971.2</v>
       </c>
       <c r="G5" t="n">
-        <v>136.9866666666666</v>
+        <v>137.0533333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>133</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -576,29 +582,35 @@
         <v>134</v>
       </c>
       <c r="C6" t="n">
-        <v>133.5</v>
+        <v>135</v>
       </c>
       <c r="D6" t="n">
+        <v>135</v>
+      </c>
+      <c r="E6" t="n">
         <v>134</v>
       </c>
-      <c r="E6" t="n">
-        <v>132.7</v>
-      </c>
       <c r="F6" t="n">
-        <v>14884.0074</v>
+        <v>177.5103</v>
       </c>
       <c r="G6" t="n">
-        <v>136.895</v>
+        <v>136.9866666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>132.8</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,36 +620,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>134</v>
+      </c>
+      <c r="C7" t="n">
         <v>133.5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>134</v>
       </c>
       <c r="D7" t="n">
         <v>134</v>
       </c>
       <c r="E7" t="n">
-        <v>133.5</v>
+        <v>132.7</v>
       </c>
       <c r="F7" t="n">
-        <v>941.9544</v>
+        <v>14884.0074</v>
       </c>
       <c r="G7" t="n">
-        <v>136.8716666666666</v>
+        <v>136.895</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>133.5</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -652,29 +662,27 @@
         <v>133.5</v>
       </c>
       <c r="C8" t="n">
-        <v>133.5</v>
+        <v>134</v>
       </c>
       <c r="D8" t="n">
-        <v>133.5</v>
+        <v>134</v>
       </c>
       <c r="E8" t="n">
         <v>133.5</v>
       </c>
       <c r="F8" t="n">
-        <v>361</v>
+        <v>941.9544</v>
       </c>
       <c r="G8" t="n">
-        <v>136.8316666666666</v>
+        <v>136.8716666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>134</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -690,22 +698,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>134.1</v>
+        <v>133.5</v>
       </c>
       <c r="C9" t="n">
-        <v>134.1</v>
+        <v>133.5</v>
       </c>
       <c r="D9" t="n">
-        <v>134.1</v>
+        <v>133.5</v>
       </c>
       <c r="E9" t="n">
-        <v>134.1</v>
+        <v>133.5</v>
       </c>
       <c r="F9" t="n">
-        <v>425.1275</v>
+        <v>361</v>
       </c>
       <c r="G9" t="n">
-        <v>136.785</v>
+        <v>136.8316666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -729,22 +737,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>132.6</v>
+        <v>134.1</v>
       </c>
       <c r="C10" t="n">
-        <v>132.6</v>
+        <v>134.1</v>
       </c>
       <c r="D10" t="n">
-        <v>132.6</v>
+        <v>134.1</v>
       </c>
       <c r="E10" t="n">
-        <v>132.6</v>
+        <v>134.1</v>
       </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>425.1275</v>
       </c>
       <c r="G10" t="n">
-        <v>136.7316666666667</v>
+        <v>136.785</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -768,32 +776,30 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133.8</v>
+        <v>132.6</v>
       </c>
       <c r="C11" t="n">
-        <v>133.5</v>
+        <v>132.6</v>
       </c>
       <c r="D11" t="n">
-        <v>133.8</v>
+        <v>132.6</v>
       </c>
       <c r="E11" t="n">
-        <v>133.5</v>
+        <v>132.6</v>
       </c>
       <c r="F11" t="n">
-        <v>2737.137</v>
+        <v>3.8</v>
       </c>
       <c r="G11" t="n">
-        <v>136.5933333333333</v>
+        <v>136.7316666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>132.6</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -809,32 +815,30 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133.7</v>
+        <v>133.8</v>
       </c>
       <c r="C12" t="n">
-        <v>133.7</v>
+        <v>133.5</v>
       </c>
       <c r="D12" t="n">
-        <v>133.7</v>
+        <v>133.8</v>
       </c>
       <c r="E12" t="n">
-        <v>133.7</v>
+        <v>133.5</v>
       </c>
       <c r="F12" t="n">
-        <v>2088</v>
+        <v>2737.137</v>
       </c>
       <c r="G12" t="n">
-        <v>136.4766666666667</v>
+        <v>136.5933333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>133.5</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -850,22 +854,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133.4</v>
+        <v>133.7</v>
       </c>
       <c r="C13" t="n">
-        <v>133.4</v>
+        <v>133.7</v>
       </c>
       <c r="D13" t="n">
-        <v>133.4</v>
+        <v>133.7</v>
       </c>
       <c r="E13" t="n">
-        <v>133.4</v>
+        <v>133.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1316.5301</v>
+        <v>2088</v>
       </c>
       <c r="G13" t="n">
-        <v>136.3366666666667</v>
+        <v>136.4766666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -889,32 +893,30 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>135.6</v>
+        <v>133.4</v>
       </c>
       <c r="C14" t="n">
-        <v>135.6</v>
+        <v>133.4</v>
       </c>
       <c r="D14" t="n">
-        <v>135.6</v>
+        <v>133.4</v>
       </c>
       <c r="E14" t="n">
-        <v>135.6</v>
+        <v>133.4</v>
       </c>
       <c r="F14" t="n">
-        <v>3.5715</v>
+        <v>1316.5301</v>
       </c>
       <c r="G14" t="n">
-        <v>136.28</v>
+        <v>136.3366666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>133.4</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -942,20 +944,18 @@
         <v>135.6</v>
       </c>
       <c r="F15" t="n">
-        <v>10.9463</v>
+        <v>3.5715</v>
       </c>
       <c r="G15" t="n">
-        <v>136.2066666666667</v>
+        <v>136.28</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>135.6</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -974,29 +974,27 @@
         <v>135.6</v>
       </c>
       <c r="C16" t="n">
-        <v>134</v>
+        <v>135.6</v>
       </c>
       <c r="D16" t="n">
         <v>135.6</v>
       </c>
       <c r="E16" t="n">
-        <v>134</v>
+        <v>135.6</v>
       </c>
       <c r="F16" t="n">
-        <v>10.5339</v>
+        <v>10.9463</v>
       </c>
       <c r="G16" t="n">
-        <v>136.1066666666667</v>
+        <v>136.2066666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>135.6</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1012,32 +1010,30 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>133.5</v>
+        <v>135.6</v>
       </c>
       <c r="C17" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D17" t="n">
-        <v>133.5</v>
+        <v>135.6</v>
       </c>
       <c r="E17" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F17" t="n">
-        <v>6366.369</v>
+        <v>10.5339</v>
       </c>
       <c r="G17" t="n">
-        <v>136.0233333333334</v>
+        <v>136.1066666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>134</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1053,32 +1049,30 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>135.3</v>
+        <v>133.5</v>
       </c>
       <c r="C18" t="n">
-        <v>135.3</v>
+        <v>133</v>
       </c>
       <c r="D18" t="n">
-        <v>135.3</v>
+        <v>133.5</v>
       </c>
       <c r="E18" t="n">
-        <v>135.3</v>
+        <v>133</v>
       </c>
       <c r="F18" t="n">
-        <v>6637.4609</v>
+        <v>6366.369</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9166666666667</v>
+        <v>136.0233333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>133</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1097,19 +1091,19 @@
         <v>135.3</v>
       </c>
       <c r="C19" t="n">
-        <v>134.2</v>
+        <v>135.3</v>
       </c>
       <c r="D19" t="n">
         <v>135.3</v>
       </c>
       <c r="E19" t="n">
-        <v>134.2</v>
+        <v>135.3</v>
       </c>
       <c r="F19" t="n">
-        <v>8929.6867</v>
+        <v>6637.4609</v>
       </c>
       <c r="G19" t="n">
-        <v>135.82</v>
+        <v>135.9166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1136,19 +1130,19 @@
         <v>135.3</v>
       </c>
       <c r="C20" t="n">
-        <v>135</v>
+        <v>134.2</v>
       </c>
       <c r="D20" t="n">
-        <v>136.6</v>
+        <v>135.3</v>
       </c>
       <c r="E20" t="n">
-        <v>135</v>
+        <v>134.2</v>
       </c>
       <c r="F20" t="n">
-        <v>39.5031</v>
+        <v>8929.6867</v>
       </c>
       <c r="G20" t="n">
-        <v>135.7083333333333</v>
+        <v>135.82</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1172,22 +1166,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>135</v>
+        <v>135.3</v>
       </c>
       <c r="C21" t="n">
         <v>135</v>
       </c>
       <c r="D21" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="E21" t="n">
         <v>135</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>39.5031</v>
       </c>
       <c r="G21" t="n">
-        <v>135.64</v>
+        <v>135.7083333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1211,22 +1205,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>133.6</v>
+        <v>135</v>
       </c>
       <c r="C22" t="n">
-        <v>132.5</v>
+        <v>135</v>
       </c>
       <c r="D22" t="n">
-        <v>133.6</v>
+        <v>135</v>
       </c>
       <c r="E22" t="n">
-        <v>132.5</v>
+        <v>135</v>
       </c>
       <c r="F22" t="n">
-        <v>4043.1982</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>135.485</v>
+        <v>135.64</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1250,22 +1244,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>133.5</v>
+        <v>133.6</v>
       </c>
       <c r="C23" t="n">
-        <v>133.5</v>
+        <v>132.5</v>
       </c>
       <c r="D23" t="n">
-        <v>133.5</v>
+        <v>133.6</v>
       </c>
       <c r="E23" t="n">
-        <v>133.5</v>
+        <v>132.5</v>
       </c>
       <c r="F23" t="n">
-        <v>192.3996</v>
+        <v>4043.1982</v>
       </c>
       <c r="G23" t="n">
-        <v>135.3466666666666</v>
+        <v>135.485</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1292,19 +1286,19 @@
         <v>133.5</v>
       </c>
       <c r="C24" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="D24" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="E24" t="n">
         <v>133.5</v>
       </c>
       <c r="F24" t="n">
-        <v>6076.1797</v>
+        <v>192.3996</v>
       </c>
       <c r="G24" t="n">
-        <v>135.2766666666667</v>
+        <v>135.3466666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1328,22 +1322,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="C25" t="n">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="D25" t="n">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="E25" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1277.0985</v>
+        <v>6076.1797</v>
       </c>
       <c r="G25" t="n">
-        <v>135.21</v>
+        <v>135.2766666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1367,10 +1361,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>135</v>
+      </c>
+      <c r="C26" t="n">
         <v>135.1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>135</v>
       </c>
       <c r="D26" t="n">
         <v>135.1</v>
@@ -1379,10 +1373,10 @@
         <v>135</v>
       </c>
       <c r="F26" t="n">
-        <v>6004.9808</v>
+        <v>1277.0985</v>
       </c>
       <c r="G26" t="n">
-        <v>135.1266666666666</v>
+        <v>135.21</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1406,22 +1400,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>136</v>
+        <v>135.1</v>
       </c>
       <c r="C27" t="n">
-        <v>136.6</v>
+        <v>135</v>
       </c>
       <c r="D27" t="n">
-        <v>136.6</v>
+        <v>135.1</v>
       </c>
       <c r="E27" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" t="n">
-        <v>40.2335</v>
+        <v>6004.9808</v>
       </c>
       <c r="G27" t="n">
-        <v>135.07</v>
+        <v>135.1266666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1445,22 +1439,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="D28" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="E28" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F28" t="n">
-        <v>328.4607</v>
+        <v>40.2335</v>
       </c>
       <c r="G28" t="n">
-        <v>135.0033333333333</v>
+        <v>135.07</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1487,19 +1481,19 @@
         <v>135</v>
       </c>
       <c r="C29" t="n">
-        <v>136.6</v>
+        <v>135</v>
       </c>
       <c r="D29" t="n">
-        <v>136.6</v>
+        <v>135</v>
       </c>
       <c r="E29" t="n">
         <v>135</v>
       </c>
       <c r="F29" t="n">
-        <v>19.8336</v>
+        <v>328.4607</v>
       </c>
       <c r="G29" t="n">
-        <v>134.9633333333333</v>
+        <v>135.0033333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1523,7 +1517,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>136.6</v>
+        <v>135</v>
       </c>
       <c r="C30" t="n">
         <v>136.6</v>
@@ -1532,13 +1526,13 @@
         <v>136.6</v>
       </c>
       <c r="E30" t="n">
-        <v>136.6</v>
+        <v>135</v>
       </c>
       <c r="F30" t="n">
-        <v>13.5668</v>
+        <v>19.8336</v>
       </c>
       <c r="G30" t="n">
-        <v>134.965</v>
+        <v>134.9633333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1565,19 +1559,19 @@
         <v>136.6</v>
       </c>
       <c r="C31" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="D31" t="n">
         <v>136.6</v>
       </c>
       <c r="E31" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="F31" t="n">
-        <v>713.62</v>
+        <v>13.5668</v>
       </c>
       <c r="G31" t="n">
-        <v>134.9</v>
+        <v>134.965</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1601,22 +1595,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="C32" t="n">
         <v>135</v>
       </c>
       <c r="D32" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="E32" t="n">
         <v>135</v>
       </c>
       <c r="F32" t="n">
-        <v>727</v>
+        <v>713.62</v>
       </c>
       <c r="G32" t="n">
-        <v>134.835</v>
+        <v>134.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1652,10 +1646,10 @@
         <v>135</v>
       </c>
       <c r="F33" t="n">
-        <v>1019.9999</v>
+        <v>727</v>
       </c>
       <c r="G33" t="n">
-        <v>134.77</v>
+        <v>134.835</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1691,10 +1685,10 @@
         <v>135</v>
       </c>
       <c r="F34" t="n">
-        <v>3913.3787</v>
+        <v>1019.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>134.705</v>
+        <v>134.77</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1730,10 +1724,10 @@
         <v>135</v>
       </c>
       <c r="F35" t="n">
-        <v>389.3591</v>
+        <v>3913.3787</v>
       </c>
       <c r="G35" t="n">
-        <v>134.6883333333334</v>
+        <v>134.705</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1769,7 +1763,7 @@
         <v>135</v>
       </c>
       <c r="F36" t="n">
-        <v>1194.9999</v>
+        <v>389.3591</v>
       </c>
       <c r="G36" t="n">
         <v>134.6883333333334</v>
@@ -1808,7 +1802,7 @@
         <v>135</v>
       </c>
       <c r="F37" t="n">
-        <v>502.9999</v>
+        <v>1194.9999</v>
       </c>
       <c r="G37" t="n">
         <v>134.6883333333334</v>
@@ -1835,22 +1829,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>135.9</v>
+        <v>135</v>
       </c>
       <c r="C38" t="n">
         <v>135</v>
       </c>
       <c r="D38" t="n">
-        <v>135.9</v>
+        <v>135</v>
       </c>
       <c r="E38" t="n">
         <v>135</v>
       </c>
       <c r="F38" t="n">
-        <v>4264.8339</v>
+        <v>502.9999</v>
       </c>
       <c r="G38" t="n">
-        <v>134.7033333333333</v>
+        <v>134.6883333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1874,22 +1868,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>134.5</v>
+        <v>135.9</v>
       </c>
       <c r="C39" t="n">
-        <v>134.5</v>
+        <v>135</v>
       </c>
       <c r="D39" t="n">
-        <v>134.5</v>
+        <v>135.9</v>
       </c>
       <c r="E39" t="n">
-        <v>134.5</v>
+        <v>135</v>
       </c>
       <c r="F39" t="n">
-        <v>1427.5898</v>
+        <v>4264.8339</v>
       </c>
       <c r="G39" t="n">
-        <v>134.6816666666667</v>
+        <v>134.7033333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1913,22 +1907,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>134</v>
+        <v>134.5</v>
       </c>
       <c r="C40" t="n">
-        <v>134</v>
+        <v>134.5</v>
       </c>
       <c r="D40" t="n">
-        <v>134</v>
+        <v>134.5</v>
       </c>
       <c r="E40" t="n">
-        <v>134</v>
+        <v>134.5</v>
       </c>
       <c r="F40" t="n">
-        <v>67</v>
+        <v>1427.5898</v>
       </c>
       <c r="G40" t="n">
-        <v>134.665</v>
+        <v>134.6816666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1952,19 +1946,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F41" t="n">
-        <v>469.6645</v>
+        <v>67</v>
       </c>
       <c r="G41" t="n">
         <v>134.665</v>
@@ -2003,10 +1997,10 @@
         <v>135</v>
       </c>
       <c r="F42" t="n">
-        <v>778.1663</v>
+        <v>469.6645</v>
       </c>
       <c r="G42" t="n">
-        <v>134.6983333333334</v>
+        <v>134.665</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2042,7 +2036,7 @@
         <v>135</v>
       </c>
       <c r="F43" t="n">
-        <v>1005.9998</v>
+        <v>778.1663</v>
       </c>
       <c r="G43" t="n">
         <v>134.6983333333334</v>
@@ -2081,7 +2075,7 @@
         <v>135</v>
       </c>
       <c r="F44" t="n">
-        <v>241</v>
+        <v>1005.9998</v>
       </c>
       <c r="G44" t="n">
         <v>134.6983333333334</v>
@@ -2120,7 +2114,7 @@
         <v>135</v>
       </c>
       <c r="F45" t="n">
-        <v>4073.6893</v>
+        <v>241</v>
       </c>
       <c r="G45" t="n">
         <v>134.6983333333334</v>
@@ -2147,19 +2141,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F46" t="n">
-        <v>6549.5881</v>
+        <v>4073.6893</v>
       </c>
       <c r="G46" t="n">
         <v>134.6983333333334</v>
@@ -2189,19 +2183,19 @@
         <v>136</v>
       </c>
       <c r="C47" t="n">
-        <v>138.5</v>
+        <v>136</v>
       </c>
       <c r="D47" t="n">
-        <v>138.5</v>
+        <v>136</v>
       </c>
       <c r="E47" t="n">
         <v>136</v>
       </c>
       <c r="F47" t="n">
-        <v>25541.5443</v>
+        <v>6549.5881</v>
       </c>
       <c r="G47" t="n">
-        <v>134.7666666666667</v>
+        <v>134.6983333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2225,22 +2219,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>136</v>
+      </c>
+      <c r="C48" t="n">
         <v>138.5</v>
       </c>
-      <c r="C48" t="n">
-        <v>136.7</v>
-      </c>
       <c r="D48" t="n">
-        <v>142</v>
+        <v>138.5</v>
       </c>
       <c r="E48" t="n">
         <v>136</v>
       </c>
       <c r="F48" t="n">
-        <v>7847.653</v>
+        <v>25541.5443</v>
       </c>
       <c r="G48" t="n">
-        <v>134.7883333333334</v>
+        <v>134.7666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2264,22 +2258,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>138.9</v>
+        <v>138.5</v>
       </c>
       <c r="C49" t="n">
-        <v>142</v>
+        <v>136.7</v>
       </c>
       <c r="D49" t="n">
         <v>142</v>
       </c>
       <c r="E49" t="n">
-        <v>136.7</v>
+        <v>136</v>
       </c>
       <c r="F49" t="n">
-        <v>824.8200000000001</v>
+        <v>7847.653</v>
       </c>
       <c r="G49" t="n">
-        <v>134.8966666666667</v>
+        <v>134.7883333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2303,22 +2297,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="C50" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D50" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E50" t="n">
         <v>136.7</v>
       </c>
       <c r="F50" t="n">
-        <v>2721.9759</v>
+        <v>824.8200000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>134.8833333333334</v>
+        <v>134.8966666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2342,22 +2336,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>138.5</v>
+        <v>138</v>
       </c>
       <c r="C51" t="n">
-        <v>138.5</v>
+        <v>137</v>
       </c>
       <c r="D51" t="n">
-        <v>138.5</v>
+        <v>138</v>
       </c>
       <c r="E51" t="n">
-        <v>138.5</v>
+        <v>136.7</v>
       </c>
       <c r="F51" t="n">
-        <v>466.9489</v>
+        <v>2721.9759</v>
       </c>
       <c r="G51" t="n">
-        <v>134.915</v>
+        <v>134.8833333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2379,28 +2373,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>138.8</v>
+        <v>138.5</v>
       </c>
       <c r="C52" t="n">
-        <v>137</v>
+        <v>138.5</v>
       </c>
       <c r="D52" t="n">
-        <v>138.8</v>
+        <v>138.5</v>
       </c>
       <c r="E52" t="n">
-        <v>137</v>
+        <v>138.5</v>
       </c>
       <c r="F52" t="n">
-        <v>4234.7532</v>
+        <v>466.9489</v>
       </c>
       <c r="G52" t="n">
-        <v>134.9483333333334</v>
+        <v>134.915</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2414,28 +2408,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>139.8</v>
+        <v>138.8</v>
       </c>
       <c r="C53" t="n">
+        <v>137</v>
+      </c>
+      <c r="D53" t="n">
         <v>138.8</v>
       </c>
-      <c r="D53" t="n">
-        <v>139.8</v>
-      </c>
       <c r="E53" t="n">
-        <v>138.8</v>
+        <v>137</v>
       </c>
       <c r="F53" t="n">
-        <v>5700.4969</v>
+        <v>4234.7532</v>
       </c>
       <c r="G53" t="n">
-        <v>135.0216666666667</v>
+        <v>134.9483333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2449,28 +2443,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>139</v>
+        <v>139.8</v>
       </c>
       <c r="C54" t="n">
         <v>138.8</v>
       </c>
       <c r="D54" t="n">
-        <v>139</v>
+        <v>139.8</v>
       </c>
       <c r="E54" t="n">
         <v>138.8</v>
       </c>
       <c r="F54" t="n">
-        <v>2691.2842</v>
+        <v>5700.4969</v>
       </c>
       <c r="G54" t="n">
-        <v>135.085</v>
+        <v>135.0216666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2484,28 +2478,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>137.8</v>
+        <v>139</v>
       </c>
       <c r="C55" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="D55" t="n">
         <v>139</v>
       </c>
-      <c r="D55" t="n">
-        <v>143</v>
-      </c>
       <c r="E55" t="n">
-        <v>137.8</v>
+        <v>138.8</v>
       </c>
       <c r="F55" t="n">
-        <v>17327.6993</v>
+        <v>2691.2842</v>
       </c>
       <c r="G55" t="n">
-        <v>135.1516666666667</v>
+        <v>135.085</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2519,22 +2513,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>140.2</v>
+        <v>137.8</v>
       </c>
       <c r="C56" t="n">
-        <v>142.2</v>
+        <v>139</v>
       </c>
       <c r="D56" t="n">
-        <v>142.2</v>
+        <v>143</v>
       </c>
       <c r="E56" t="n">
-        <v>139</v>
+        <v>137.8</v>
       </c>
       <c r="F56" t="n">
-        <v>10093.8232</v>
+        <v>17327.6993</v>
       </c>
       <c r="G56" t="n">
-        <v>135.2716666666667</v>
+        <v>135.1516666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2554,22 +2548,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>137.2</v>
+        <v>140.2</v>
       </c>
       <c r="C57" t="n">
-        <v>138</v>
+        <v>142.2</v>
       </c>
       <c r="D57" t="n">
-        <v>140</v>
+        <v>142.2</v>
       </c>
       <c r="E57" t="n">
-        <v>137.2</v>
+        <v>139</v>
       </c>
       <c r="F57" t="n">
-        <v>5749.1417</v>
+        <v>10093.8232</v>
       </c>
       <c r="G57" t="n">
-        <v>135.3216666666667</v>
+        <v>135.2716666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2589,28 +2583,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>140</v>
+        <v>137.2</v>
       </c>
       <c r="C58" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D58" t="n">
         <v>140</v>
       </c>
       <c r="E58" t="n">
-        <v>140</v>
+        <v>137.2</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>5749.1417</v>
       </c>
       <c r="G58" t="n">
-        <v>135.3816666666667</v>
+        <v>135.3216666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2636,10 +2630,10 @@
         <v>140</v>
       </c>
       <c r="F59" t="n">
-        <v>1776.9814</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>135.4866666666667</v>
+        <v>135.3816666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2662,19 +2656,19 @@
         <v>140</v>
       </c>
       <c r="C60" t="n">
-        <v>141.2</v>
+        <v>140</v>
       </c>
       <c r="D60" t="n">
-        <v>141.2</v>
+        <v>140</v>
       </c>
       <c r="E60" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F60" t="n">
-        <v>3388.318</v>
+        <v>1776.9814</v>
       </c>
       <c r="G60" t="n">
-        <v>135.61</v>
+        <v>135.4866666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2694,22 +2688,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C61" t="n">
-        <v>138</v>
+        <v>141.2</v>
       </c>
       <c r="D61" t="n">
-        <v>139</v>
+        <v>141.2</v>
       </c>
       <c r="E61" t="n">
         <v>138</v>
       </c>
       <c r="F61" t="n">
-        <v>168.2731</v>
+        <v>3388.318</v>
       </c>
       <c r="G61" t="n">
-        <v>135.6816666666667</v>
+        <v>135.61</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2735,16 +2729,16 @@
         <v>138</v>
       </c>
       <c r="D62" t="n">
-        <v>141.2</v>
+        <v>139</v>
       </c>
       <c r="E62" t="n">
         <v>138</v>
       </c>
       <c r="F62" t="n">
-        <v>424.1089</v>
+        <v>168.2731</v>
       </c>
       <c r="G62" t="n">
-        <v>135.765</v>
+        <v>135.6816666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2764,22 +2758,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>141.2</v>
+        <v>139</v>
       </c>
       <c r="C63" t="n">
-        <v>141.2</v>
+        <v>138</v>
       </c>
       <c r="D63" t="n">
         <v>141.2</v>
       </c>
       <c r="E63" t="n">
-        <v>141.2</v>
+        <v>138</v>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>424.1089</v>
       </c>
       <c r="G63" t="n">
-        <v>135.9016666666667</v>
+        <v>135.765</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2799,22 +2793,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>142</v>
+        <v>141.2</v>
       </c>
       <c r="C64" t="n">
-        <v>142</v>
+        <v>141.2</v>
       </c>
       <c r="D64" t="n">
-        <v>142</v>
+        <v>141.2</v>
       </c>
       <c r="E64" t="n">
-        <v>142</v>
+        <v>141.2</v>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>136.055</v>
+        <v>135.9016666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2834,28 +2828,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>138.2</v>
+        <v>142</v>
       </c>
       <c r="C65" t="n">
-        <v>138.2</v>
+        <v>142</v>
       </c>
       <c r="D65" t="n">
-        <v>138.2</v>
+        <v>142</v>
       </c>
       <c r="E65" t="n">
-        <v>138.2</v>
+        <v>142</v>
       </c>
       <c r="F65" t="n">
-        <v>21435.0691</v>
+        <v>6</v>
       </c>
       <c r="G65" t="n">
-        <v>136.1083333333334</v>
+        <v>136.055</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2869,22 +2863,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>139.9</v>
+        <v>138.2</v>
       </c>
       <c r="C66" t="n">
-        <v>139.9</v>
+        <v>138.2</v>
       </c>
       <c r="D66" t="n">
-        <v>139.9</v>
+        <v>138.2</v>
       </c>
       <c r="E66" t="n">
-        <v>139.9</v>
+        <v>138.2</v>
       </c>
       <c r="F66" t="n">
-        <v>4704.6138</v>
+        <v>21435.0691</v>
       </c>
       <c r="G66" t="n">
-        <v>136.215</v>
+        <v>136.1083333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2916,10 +2910,10 @@
         <v>139.9</v>
       </c>
       <c r="F67" t="n">
-        <v>20559.1735</v>
+        <v>4704.6138</v>
       </c>
       <c r="G67" t="n">
-        <v>136.3133333333334</v>
+        <v>136.215</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2951,10 +2945,10 @@
         <v>139.9</v>
       </c>
       <c r="F68" t="n">
-        <v>120.265</v>
+        <v>20559.1735</v>
       </c>
       <c r="G68" t="n">
-        <v>136.42</v>
+        <v>136.3133333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2977,19 +2971,19 @@
         <v>139.9</v>
       </c>
       <c r="C69" t="n">
-        <v>138.2</v>
+        <v>139.9</v>
       </c>
       <c r="D69" t="n">
         <v>139.9</v>
       </c>
       <c r="E69" t="n">
-        <v>138.2</v>
+        <v>139.9</v>
       </c>
       <c r="F69" t="n">
-        <v>600</v>
+        <v>120.265</v>
       </c>
       <c r="G69" t="n">
-        <v>136.4883333333333</v>
+        <v>136.42</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3009,22 +3003,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="C70" t="n">
-        <v>141</v>
+        <v>138.2</v>
       </c>
       <c r="D70" t="n">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="E70" t="n">
-        <v>141</v>
+        <v>138.2</v>
       </c>
       <c r="F70" t="n">
-        <v>3.6</v>
+        <v>600</v>
       </c>
       <c r="G70" t="n">
-        <v>136.6283333333334</v>
+        <v>136.4883333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3047,19 +3041,19 @@
         <v>141</v>
       </c>
       <c r="C71" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D71" t="n">
         <v>141</v>
       </c>
       <c r="E71" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F71" t="n">
-        <v>694.2381</v>
+        <v>3.6</v>
       </c>
       <c r="G71" t="n">
-        <v>136.7366666666667</v>
+        <v>136.6283333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3079,22 +3073,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>142.2</v>
+        <v>141</v>
       </c>
       <c r="C72" t="n">
-        <v>142.2</v>
+        <v>140</v>
       </c>
       <c r="D72" t="n">
-        <v>142.2</v>
+        <v>141</v>
       </c>
       <c r="E72" t="n">
-        <v>142.2</v>
+        <v>140</v>
       </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>694.2381</v>
       </c>
       <c r="G72" t="n">
-        <v>136.8783333333334</v>
+        <v>136.7366666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3114,22 +3108,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="C73" t="n">
-        <v>139</v>
+        <v>142.2</v>
       </c>
       <c r="D73" t="n">
-        <v>142</v>
+        <v>142.2</v>
       </c>
       <c r="E73" t="n">
-        <v>139</v>
+        <v>142.2</v>
       </c>
       <c r="F73" t="n">
-        <v>32.706</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>136.9716666666667</v>
+        <v>136.8783333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3149,22 +3143,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C74" t="n">
         <v>139</v>
       </c>
       <c r="D74" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E74" t="n">
         <v>139</v>
       </c>
       <c r="F74" t="n">
-        <v>177.875</v>
+        <v>32.706</v>
       </c>
       <c r="G74" t="n">
-        <v>137.0283333333333</v>
+        <v>136.9716666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3196,10 +3190,10 @@
         <v>139</v>
       </c>
       <c r="F75" t="n">
-        <v>164.045</v>
+        <v>177.875</v>
       </c>
       <c r="G75" t="n">
-        <v>137.085</v>
+        <v>137.0283333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3219,22 +3213,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>138.3</v>
+        <v>139</v>
       </c>
       <c r="C76" t="n">
-        <v>137.4</v>
+        <v>139</v>
       </c>
       <c r="D76" t="n">
-        <v>138.3</v>
+        <v>139</v>
       </c>
       <c r="E76" t="n">
-        <v>137.4</v>
+        <v>139</v>
       </c>
       <c r="F76" t="n">
-        <v>11592.8208</v>
+        <v>164.045</v>
       </c>
       <c r="G76" t="n">
-        <v>137.1416666666667</v>
+        <v>137.085</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3254,22 +3248,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>141</v>
+        <v>138.3</v>
       </c>
       <c r="C77" t="n">
-        <v>141</v>
+        <v>137.4</v>
       </c>
       <c r="D77" t="n">
-        <v>141</v>
+        <v>138.3</v>
       </c>
       <c r="E77" t="n">
-        <v>141</v>
+        <v>137.4</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>11592.8208</v>
       </c>
       <c r="G77" t="n">
-        <v>137.275</v>
+        <v>137.1416666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3289,22 +3283,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C78" t="n">
-        <v>137.4</v>
+        <v>141</v>
       </c>
       <c r="D78" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E78" t="n">
-        <v>137.4</v>
+        <v>141</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>137.31</v>
+        <v>137.275</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3324,22 +3318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>138</v>
+      </c>
+      <c r="C79" t="n">
         <v>137.4</v>
       </c>
-      <c r="C79" t="n">
-        <v>137.2</v>
-      </c>
       <c r="D79" t="n">
+        <v>138</v>
+      </c>
+      <c r="E79" t="n">
         <v>137.4</v>
       </c>
-      <c r="E79" t="n">
-        <v>137.2</v>
-      </c>
       <c r="F79" t="n">
-        <v>5692.8916</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>137.36</v>
+        <v>137.31</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3359,22 +3353,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>137.2</v>
+        <v>137.4</v>
       </c>
       <c r="C80" t="n">
         <v>137.2</v>
       </c>
       <c r="D80" t="n">
-        <v>137.2</v>
+        <v>137.4</v>
       </c>
       <c r="E80" t="n">
         <v>137.2</v>
       </c>
       <c r="F80" t="n">
-        <v>3778.1309</v>
+        <v>5692.8916</v>
       </c>
       <c r="G80" t="n">
-        <v>137.3966666666667</v>
+        <v>137.36</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3406,19 +3400,23 @@
         <v>137.2</v>
       </c>
       <c r="F81" t="n">
-        <v>2886.3769</v>
+        <v>3778.1309</v>
       </c>
       <c r="G81" t="n">
-        <v>137.4333333333334</v>
+        <v>137.3966666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>137.2</v>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
@@ -3441,20 +3439,28 @@
         <v>137.2</v>
       </c>
       <c r="F82" t="n">
-        <v>19.1089</v>
+        <v>2886.3769</v>
       </c>
       <c r="G82" t="n">
-        <v>137.5116666666667</v>
+        <v>137.4333333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3464,22 +3470,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>137.5</v>
+        <v>137.2</v>
       </c>
       <c r="C83" t="n">
         <v>137.2</v>
       </c>
       <c r="D83" t="n">
-        <v>137.5</v>
+        <v>137.2</v>
       </c>
       <c r="E83" t="n">
         <v>137.2</v>
       </c>
       <c r="F83" t="n">
-        <v>5077.6317</v>
+        <v>19.1089</v>
       </c>
       <c r="G83" t="n">
-        <v>137.5733333333334</v>
+        <v>137.5116666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3488,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3499,22 +3511,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>137</v>
+        <v>137.5</v>
       </c>
       <c r="C84" t="n">
-        <v>135.9</v>
+        <v>137.2</v>
       </c>
       <c r="D84" t="n">
-        <v>137</v>
+        <v>137.5</v>
       </c>
       <c r="E84" t="n">
-        <v>135.9</v>
+        <v>137.2</v>
       </c>
       <c r="F84" t="n">
-        <v>9485.1289</v>
+        <v>5077.6317</v>
       </c>
       <c r="G84" t="n">
-        <v>137.5883333333334</v>
+        <v>137.5733333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3534,22 +3546,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>137.9</v>
+        <v>137</v>
       </c>
       <c r="C85" t="n">
-        <v>136.5</v>
+        <v>135.9</v>
       </c>
       <c r="D85" t="n">
-        <v>137.9</v>
+        <v>137</v>
       </c>
       <c r="E85" t="n">
-        <v>136.5</v>
+        <v>135.9</v>
       </c>
       <c r="F85" t="n">
-        <v>1070.3198</v>
+        <v>9485.1289</v>
       </c>
       <c r="G85" t="n">
-        <v>137.6116666666667</v>
+        <v>137.5883333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3569,22 +3581,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>138.9</v>
+        <v>137.9</v>
       </c>
       <c r="C86" t="n">
-        <v>138.9</v>
+        <v>136.5</v>
       </c>
       <c r="D86" t="n">
-        <v>138.9</v>
+        <v>137.9</v>
       </c>
       <c r="E86" t="n">
-        <v>138.9</v>
+        <v>136.5</v>
       </c>
       <c r="F86" t="n">
-        <v>3.9041</v>
+        <v>1070.3198</v>
       </c>
       <c r="G86" t="n">
-        <v>137.6766666666667</v>
+        <v>137.6116666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3604,22 +3616,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="C87" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="D87" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="E87" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="F87" t="n">
-        <v>701.2103</v>
+        <v>3.9041</v>
       </c>
       <c r="G87" t="n">
-        <v>137.6950000000001</v>
+        <v>137.6766666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3639,22 +3651,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>139</v>
+        <v>137.7</v>
       </c>
       <c r="C88" t="n">
-        <v>139.7</v>
+        <v>137.7</v>
       </c>
       <c r="D88" t="n">
-        <v>139.7</v>
+        <v>137.7</v>
       </c>
       <c r="E88" t="n">
-        <v>138.9</v>
+        <v>137.7</v>
       </c>
       <c r="F88" t="n">
-        <v>1726.5207</v>
+        <v>701.2103</v>
       </c>
       <c r="G88" t="n">
-        <v>137.7733333333334</v>
+        <v>137.6950000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3674,22 +3686,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>139.9</v>
+        <v>139</v>
       </c>
       <c r="C89" t="n">
-        <v>138.6</v>
+        <v>139.7</v>
       </c>
       <c r="D89" t="n">
-        <v>140</v>
+        <v>139.7</v>
       </c>
       <c r="E89" t="n">
-        <v>138.6</v>
+        <v>138.9</v>
       </c>
       <c r="F89" t="n">
-        <v>4530.5569</v>
+        <v>1726.5207</v>
       </c>
       <c r="G89" t="n">
-        <v>137.8066666666667</v>
+        <v>137.7733333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3709,22 +3721,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>139.6</v>
+        <v>139.9</v>
       </c>
       <c r="C90" t="n">
-        <v>139.6</v>
+        <v>138.6</v>
       </c>
       <c r="D90" t="n">
-        <v>140.7</v>
+        <v>140</v>
       </c>
       <c r="E90" t="n">
-        <v>138.7</v>
+        <v>138.6</v>
       </c>
       <c r="F90" t="n">
-        <v>20518.8403</v>
+        <v>4530.5569</v>
       </c>
       <c r="G90" t="n">
-        <v>137.8566666666667</v>
+        <v>137.8066666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3744,22 +3756,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>139.8</v>
+        <v>139.6</v>
       </c>
       <c r="C91" t="n">
-        <v>139.8</v>
+        <v>139.6</v>
       </c>
       <c r="D91" t="n">
-        <v>139.8</v>
+        <v>140.7</v>
       </c>
       <c r="E91" t="n">
-        <v>139.8</v>
+        <v>138.7</v>
       </c>
       <c r="F91" t="n">
-        <v>353</v>
+        <v>20518.8403</v>
       </c>
       <c r="G91" t="n">
-        <v>137.9366666666667</v>
+        <v>137.8566666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3791,10 +3803,10 @@
         <v>139.8</v>
       </c>
       <c r="F92" t="n">
-        <v>20.36</v>
+        <v>353</v>
       </c>
       <c r="G92" t="n">
-        <v>138.0166666666667</v>
+        <v>137.9366666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3814,22 +3826,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>140.7</v>
+        <v>139.8</v>
       </c>
       <c r="C93" t="n">
-        <v>141</v>
+        <v>139.8</v>
       </c>
       <c r="D93" t="n">
-        <v>141</v>
+        <v>139.8</v>
       </c>
       <c r="E93" t="n">
-        <v>140.7</v>
+        <v>139.8</v>
       </c>
       <c r="F93" t="n">
-        <v>28744.0278</v>
+        <v>20.36</v>
       </c>
       <c r="G93" t="n">
-        <v>138.1166666666667</v>
+        <v>138.0166666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3849,22 +3861,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="C94" t="n">
         <v>141</v>
       </c>
-      <c r="C94" t="n">
-        <v>139.8</v>
-      </c>
       <c r="D94" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E94" t="n">
-        <v>139.8</v>
+        <v>140.7</v>
       </c>
       <c r="F94" t="n">
-        <v>28970.0823</v>
+        <v>28744.0278</v>
       </c>
       <c r="G94" t="n">
-        <v>138.1966666666667</v>
+        <v>138.1166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3884,22 +3896,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>139.8</v>
+        <v>141</v>
       </c>
       <c r="C95" t="n">
         <v>139.8</v>
       </c>
       <c r="D95" t="n">
-        <v>139.8</v>
+        <v>144</v>
       </c>
       <c r="E95" t="n">
         <v>139.8</v>
       </c>
       <c r="F95" t="n">
-        <v>150</v>
+        <v>28970.0823</v>
       </c>
       <c r="G95" t="n">
-        <v>138.2766666666667</v>
+        <v>138.1966666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3919,22 +3931,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>141</v>
+        <v>139.8</v>
       </c>
       <c r="C96" t="n">
-        <v>142.1</v>
+        <v>139.8</v>
       </c>
       <c r="D96" t="n">
-        <v>142.1</v>
+        <v>139.8</v>
       </c>
       <c r="E96" t="n">
-        <v>139</v>
+        <v>139.8</v>
       </c>
       <c r="F96" t="n">
-        <v>245.3521</v>
+        <v>150</v>
       </c>
       <c r="G96" t="n">
-        <v>138.395</v>
+        <v>138.2766666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3957,19 +3969,19 @@
         <v>141</v>
       </c>
       <c r="C97" t="n">
-        <v>141</v>
+        <v>142.1</v>
       </c>
       <c r="D97" t="n">
-        <v>141</v>
+        <v>142.1</v>
       </c>
       <c r="E97" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F97" t="n">
-        <v>92.5515</v>
+        <v>245.3521</v>
       </c>
       <c r="G97" t="n">
-        <v>138.495</v>
+        <v>138.395</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3989,22 +4001,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C98" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D98" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E98" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>92.5515</v>
       </c>
       <c r="G98" t="n">
-        <v>138.5616666666667</v>
+        <v>138.495</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4036,10 +4048,10 @@
         <v>139</v>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="G99" t="n">
-        <v>138.6366666666667</v>
+        <v>138.5616666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4059,22 +4071,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>138.2</v>
+        <v>139</v>
       </c>
       <c r="C100" t="n">
-        <v>137.7</v>
+        <v>139</v>
       </c>
       <c r="D100" t="n">
-        <v>138.2</v>
+        <v>139</v>
       </c>
       <c r="E100" t="n">
-        <v>137.7</v>
+        <v>139</v>
       </c>
       <c r="F100" t="n">
-        <v>1847.5964</v>
+        <v>250</v>
       </c>
       <c r="G100" t="n">
-        <v>138.6983333333334</v>
+        <v>138.6366666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4094,22 +4106,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>139</v>
+        <v>138.2</v>
       </c>
       <c r="C101" t="n">
-        <v>139</v>
+        <v>137.7</v>
       </c>
       <c r="D101" t="n">
-        <v>139</v>
+        <v>138.2</v>
       </c>
       <c r="E101" t="n">
-        <v>139</v>
+        <v>137.7</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>1847.5964</v>
       </c>
       <c r="G101" t="n">
-        <v>138.765</v>
+        <v>138.6983333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4138,13 +4150,13 @@
         <v>139</v>
       </c>
       <c r="E102" t="n">
-        <v>136.2</v>
+        <v>139</v>
       </c>
       <c r="F102" t="n">
-        <v>5350.608</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>138.8316666666667</v>
+        <v>138.765</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4164,22 +4176,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C103" t="n">
-        <v>138.8</v>
+        <v>139</v>
       </c>
       <c r="D103" t="n">
-        <v>138.8</v>
+        <v>139</v>
       </c>
       <c r="E103" t="n">
         <v>136.2</v>
       </c>
       <c r="F103" t="n">
-        <v>3150.7088</v>
+        <v>5350.608</v>
       </c>
       <c r="G103" t="n">
-        <v>138.895</v>
+        <v>138.8316666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4199,22 +4211,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>136.4</v>
+        <v>137</v>
       </c>
       <c r="C104" t="n">
-        <v>136.4</v>
+        <v>138.8</v>
       </c>
       <c r="D104" t="n">
-        <v>136.4</v>
+        <v>138.8</v>
       </c>
       <c r="E104" t="n">
-        <v>136.4</v>
+        <v>136.2</v>
       </c>
       <c r="F104" t="n">
-        <v>1335</v>
+        <v>3150.7088</v>
       </c>
       <c r="G104" t="n">
-        <v>138.9183333333334</v>
+        <v>138.895</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4246,10 +4258,10 @@
         <v>136.4</v>
       </c>
       <c r="F105" t="n">
-        <v>5577.3215</v>
+        <v>1335</v>
       </c>
       <c r="G105" t="n">
-        <v>138.9416666666667</v>
+        <v>138.9183333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4264,6 +4276,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C106" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D106" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E106" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5577.3215</v>
+      </c>
+      <c r="G106" t="n">
+        <v>138.9416666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-13 BackTest RDN.xlsx
+++ b/BackTest/2020-01-13 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>133.8</v>
+        <v>138.9</v>
       </c>
       <c r="C2" t="n">
-        <v>133.7</v>
+        <v>138.9</v>
       </c>
       <c r="D2" t="n">
-        <v>133.8</v>
+        <v>138.9</v>
       </c>
       <c r="E2" t="n">
-        <v>133.7</v>
+        <v>138.9</v>
       </c>
       <c r="F2" t="n">
-        <v>5190.4834</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>135.1133333333334</v>
+        <v>157675.0976827338</v>
       </c>
       <c r="H2" t="n">
-        <v>137.325</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>133.8</v>
+        <v>137.2</v>
       </c>
       <c r="C3" t="n">
-        <v>133</v>
+        <v>138.9</v>
       </c>
       <c r="D3" t="n">
-        <v>133.8</v>
+        <v>138.9</v>
       </c>
       <c r="E3" t="n">
-        <v>133</v>
+        <v>137.2</v>
       </c>
       <c r="F3" t="n">
-        <v>15722.2715</v>
+        <v>148.5283</v>
       </c>
       <c r="G3" t="n">
-        <v>135.0200000000001</v>
+        <v>157675.0976827338</v>
       </c>
       <c r="H3" t="n">
-        <v>137.2566666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>134.5</v>
+        <v>137.2</v>
       </c>
       <c r="C4" t="n">
-        <v>133</v>
+        <v>138.9</v>
       </c>
       <c r="D4" t="n">
-        <v>134.5</v>
+        <v>138.9</v>
       </c>
       <c r="E4" t="n">
-        <v>133</v>
+        <v>137.2</v>
       </c>
       <c r="F4" t="n">
-        <v>9399.4221</v>
+        <v>1836.6092</v>
       </c>
       <c r="G4" t="n">
-        <v>134.8600000000001</v>
+        <v>157675.0976827338</v>
       </c>
       <c r="H4" t="n">
-        <v>137.1566666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>133.1</v>
+        <v>137.2</v>
       </c>
       <c r="C5" t="n">
-        <v>132.8</v>
+        <v>136</v>
       </c>
       <c r="D5" t="n">
-        <v>137</v>
+        <v>137.2</v>
       </c>
       <c r="E5" t="n">
-        <v>132.8</v>
+        <v>136</v>
       </c>
       <c r="F5" t="n">
-        <v>11971.2</v>
+        <v>55747.2115</v>
       </c>
       <c r="G5" t="n">
-        <v>134.6800000000001</v>
+        <v>101927.8861827338</v>
       </c>
       <c r="H5" t="n">
-        <v>137.0533333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>134</v>
+        <v>135.1</v>
       </c>
       <c r="C6" t="n">
         <v>135</v>
       </c>
       <c r="D6" t="n">
-        <v>135</v>
+        <v>135.1</v>
       </c>
       <c r="E6" t="n">
-        <v>134</v>
+        <v>134.1</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5103</v>
+        <v>16254.5898</v>
       </c>
       <c r="G6" t="n">
-        <v>134.4933333333334</v>
+        <v>85673.29638273378</v>
       </c>
       <c r="H6" t="n">
-        <v>136.9866666666666</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C7" t="n">
-        <v>133.5</v>
+        <v>135</v>
       </c>
       <c r="D7" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E7" t="n">
-        <v>132.7</v>
+        <v>135</v>
       </c>
       <c r="F7" t="n">
-        <v>14884.0074</v>
+        <v>123</v>
       </c>
       <c r="G7" t="n">
-        <v>134.2866666666668</v>
+        <v>85673.29638273378</v>
       </c>
       <c r="H7" t="n">
-        <v>136.895</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>133.5</v>
+        <v>134.8</v>
       </c>
       <c r="C8" t="n">
-        <v>134</v>
+        <v>134.1</v>
       </c>
       <c r="D8" t="n">
-        <v>134</v>
+        <v>137.9</v>
       </c>
       <c r="E8" t="n">
-        <v>133.5</v>
+        <v>134.1</v>
       </c>
       <c r="F8" t="n">
-        <v>941.9544</v>
+        <v>5401</v>
       </c>
       <c r="G8" t="n">
-        <v>134.2200000000001</v>
+        <v>80272.29638273378</v>
       </c>
       <c r="H8" t="n">
-        <v>136.8716666666666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>133.5</v>
+        <v>135.8</v>
       </c>
       <c r="C9" t="n">
-        <v>133.5</v>
+        <v>135.8</v>
       </c>
       <c r="D9" t="n">
-        <v>133.5</v>
+        <v>135.8</v>
       </c>
       <c r="E9" t="n">
-        <v>133.5</v>
+        <v>135.8</v>
       </c>
       <c r="F9" t="n">
-        <v>361</v>
+        <v>8459.4923</v>
       </c>
       <c r="G9" t="n">
-        <v>134.1600000000001</v>
+        <v>88731.78868273378</v>
       </c>
       <c r="H9" t="n">
-        <v>136.8316666666666</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>134.1</v>
+        <v>136.6</v>
       </c>
       <c r="C10" t="n">
-        <v>134.1</v>
+        <v>135</v>
       </c>
       <c r="D10" t="n">
-        <v>134.1</v>
+        <v>136.6</v>
       </c>
       <c r="E10" t="n">
-        <v>134.1</v>
+        <v>135</v>
       </c>
       <c r="F10" t="n">
-        <v>425.1275</v>
+        <v>3376.5466</v>
       </c>
       <c r="G10" t="n">
-        <v>134.1000000000001</v>
+        <v>85355.24208273378</v>
       </c>
       <c r="H10" t="n">
-        <v>136.785</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>132.6</v>
+        <v>135</v>
       </c>
       <c r="C11" t="n">
-        <v>132.6</v>
+        <v>135</v>
       </c>
       <c r="D11" t="n">
-        <v>132.6</v>
+        <v>135</v>
       </c>
       <c r="E11" t="n">
-        <v>132.6</v>
+        <v>135</v>
       </c>
       <c r="F11" t="n">
-        <v>3.8</v>
+        <v>12.3305</v>
       </c>
       <c r="G11" t="n">
-        <v>133.9400000000001</v>
+        <v>85355.24208273378</v>
       </c>
       <c r="H11" t="n">
-        <v>136.7316666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133.8</v>
+        <v>133.1</v>
       </c>
       <c r="C12" t="n">
-        <v>133.5</v>
+        <v>133</v>
       </c>
       <c r="D12" t="n">
-        <v>133.8</v>
+        <v>133.1</v>
       </c>
       <c r="E12" t="n">
-        <v>133.5</v>
+        <v>133</v>
       </c>
       <c r="F12" t="n">
-        <v>2737.137</v>
+        <v>3482.2644</v>
       </c>
       <c r="G12" t="n">
-        <v>133.8400000000001</v>
+        <v>81872.97768273378</v>
       </c>
       <c r="H12" t="n">
-        <v>136.5933333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,40 +818,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133.7</v>
+        <v>133</v>
       </c>
       <c r="C13" t="n">
-        <v>133.7</v>
+        <v>135</v>
       </c>
       <c r="D13" t="n">
-        <v>133.7</v>
+        <v>135</v>
       </c>
       <c r="E13" t="n">
-        <v>133.7</v>
+        <v>133</v>
       </c>
       <c r="F13" t="n">
-        <v>2088</v>
+        <v>3925.6815</v>
       </c>
       <c r="G13" t="n">
-        <v>133.7533333333334</v>
+        <v>85798.65918273378</v>
       </c>
       <c r="H13" t="n">
-        <v>136.4766666666667</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>133</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -898,42 +859,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133.4</v>
+        <v>133.2</v>
       </c>
       <c r="C14" t="n">
-        <v>133.4</v>
+        <v>135</v>
       </c>
       <c r="D14" t="n">
-        <v>133.4</v>
+        <v>135</v>
       </c>
       <c r="E14" t="n">
-        <v>133.4</v>
+        <v>133.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1316.5301</v>
+        <v>1081.717</v>
       </c>
       <c r="G14" t="n">
-        <v>133.5533333333334</v>
+        <v>85798.65918273378</v>
       </c>
       <c r="H14" t="n">
-        <v>136.3366666666667</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -942,44 +900,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135.6</v>
+        <v>135</v>
       </c>
       <c r="C15" t="n">
-        <v>135.6</v>
+        <v>135</v>
       </c>
       <c r="D15" t="n">
-        <v>135.6</v>
+        <v>135</v>
       </c>
       <c r="E15" t="n">
-        <v>135.6</v>
+        <v>135</v>
       </c>
       <c r="F15" t="n">
-        <v>3.5715</v>
+        <v>1988.2682</v>
       </c>
       <c r="G15" t="n">
-        <v>133.6800000000001</v>
+        <v>85798.65918273378</v>
       </c>
       <c r="H15" t="n">
-        <v>136.28</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>133.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,36 +939,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>135.6</v>
+        <v>135</v>
       </c>
       <c r="C16" t="n">
-        <v>135.6</v>
+        <v>136</v>
       </c>
       <c r="D16" t="n">
-        <v>135.6</v>
+        <v>137.8</v>
       </c>
       <c r="E16" t="n">
-        <v>135.6</v>
+        <v>135</v>
       </c>
       <c r="F16" t="n">
-        <v>10.9463</v>
+        <v>4168.6659</v>
       </c>
       <c r="G16" t="n">
-        <v>133.8000000000001</v>
+        <v>89967.32508273379</v>
       </c>
       <c r="H16" t="n">
-        <v>136.2066666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,36 +978,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>135.6</v>
+        <v>133.5</v>
       </c>
       <c r="C17" t="n">
-        <v>134</v>
+        <v>134.4</v>
       </c>
       <c r="D17" t="n">
-        <v>135.6</v>
+        <v>134.4</v>
       </c>
       <c r="E17" t="n">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="F17" t="n">
-        <v>10.5339</v>
+        <v>1781.6332</v>
       </c>
       <c r="G17" t="n">
-        <v>133.8200000000001</v>
+        <v>88185.69188273379</v>
       </c>
       <c r="H17" t="n">
-        <v>136.1066666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1064,36 +1017,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>133.5</v>
+        <v>135.4</v>
       </c>
       <c r="C18" t="n">
-        <v>133</v>
+        <v>135.4</v>
       </c>
       <c r="D18" t="n">
-        <v>133.5</v>
+        <v>135.4</v>
       </c>
       <c r="E18" t="n">
-        <v>133</v>
+        <v>134.4</v>
       </c>
       <c r="F18" t="n">
-        <v>6366.369</v>
+        <v>4876.911</v>
       </c>
       <c r="G18" t="n">
-        <v>133.8200000000001</v>
+        <v>93062.6028827338</v>
       </c>
       <c r="H18" t="n">
-        <v>136.0233333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1102,36 +1056,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>135.3</v>
+        <v>135.4</v>
       </c>
       <c r="C19" t="n">
-        <v>135.3</v>
+        <v>135.5</v>
       </c>
       <c r="D19" t="n">
-        <v>135.3</v>
+        <v>135.5</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3</v>
+        <v>135.4</v>
       </c>
       <c r="F19" t="n">
-        <v>6637.4609</v>
+        <v>6769.4839</v>
       </c>
       <c r="G19" t="n">
-        <v>133.9733333333334</v>
+        <v>99832.08678273381</v>
       </c>
       <c r="H19" t="n">
-        <v>135.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1140,36 +1095,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>135.3</v>
+        <v>135.5</v>
       </c>
       <c r="C20" t="n">
-        <v>134.2</v>
+        <v>137.8</v>
       </c>
       <c r="D20" t="n">
-        <v>135.3</v>
+        <v>137.8</v>
       </c>
       <c r="E20" t="n">
-        <v>134.2</v>
+        <v>135.5</v>
       </c>
       <c r="F20" t="n">
-        <v>8929.6867</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>134.0666666666667</v>
+        <v>99842.08678273381</v>
       </c>
       <c r="H20" t="n">
-        <v>135.82</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1178,36 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>135.3</v>
+        <v>136.5</v>
       </c>
       <c r="C21" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="D21" t="n">
         <v>136.6</v>
       </c>
       <c r="E21" t="n">
-        <v>135</v>
+        <v>136.5</v>
       </c>
       <c r="F21" t="n">
-        <v>39.5031</v>
+        <v>11288.6263</v>
       </c>
       <c r="G21" t="n">
-        <v>134.0666666666667</v>
+        <v>88553.4604827338</v>
       </c>
       <c r="H21" t="n">
-        <v>135.7083333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1216,36 +1173,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" t="n">
         <v>135</v>
       </c>
       <c r="D22" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" t="n">
         <v>135</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>619.5599999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>134.1666666666667</v>
+        <v>87933.90048273381</v>
       </c>
       <c r="H22" t="n">
-        <v>135.64</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,36 +1212,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>133.6</v>
+        <v>135</v>
       </c>
       <c r="C23" t="n">
-        <v>132.5</v>
+        <v>134.4</v>
       </c>
       <c r="D23" t="n">
-        <v>133.6</v>
+        <v>135</v>
       </c>
       <c r="E23" t="n">
-        <v>132.5</v>
+        <v>134.4</v>
       </c>
       <c r="F23" t="n">
-        <v>4043.1982</v>
+        <v>4206.8869</v>
       </c>
       <c r="G23" t="n">
-        <v>134.0666666666667</v>
+        <v>83727.01358273381</v>
       </c>
       <c r="H23" t="n">
-        <v>135.485</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,36 +1251,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>133.5</v>
+        <v>135</v>
       </c>
       <c r="C24" t="n">
-        <v>133.5</v>
+        <v>135</v>
       </c>
       <c r="D24" t="n">
-        <v>133.5</v>
+        <v>135</v>
       </c>
       <c r="E24" t="n">
-        <v>133.5</v>
+        <v>135</v>
       </c>
       <c r="F24" t="n">
-        <v>192.3996</v>
+        <v>66.2641</v>
       </c>
       <c r="G24" t="n">
-        <v>134.0666666666667</v>
+        <v>83793.27768273381</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3466666666666</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1342,24 +1302,25 @@
         <v>133.5</v>
       </c>
       <c r="F25" t="n">
-        <v>6076.1797</v>
+        <v>6217.7623</v>
       </c>
       <c r="G25" t="n">
-        <v>134.1266666666667</v>
+        <v>83793.27768273381</v>
       </c>
       <c r="H25" t="n">
-        <v>135.2766666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1371,33 +1332,34 @@
         <v>135</v>
       </c>
       <c r="C26" t="n">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="D26" t="n">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="E26" t="n">
         <v>135</v>
       </c>
       <c r="F26" t="n">
-        <v>1277.0985</v>
+        <v>0.0003</v>
       </c>
       <c r="G26" t="n">
-        <v>134.2933333333334</v>
+        <v>83793.27768273381</v>
       </c>
       <c r="H26" t="n">
-        <v>135.21</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,36 +1368,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="C27" t="n">
         <v>135</v>
       </c>
       <c r="D27" t="n">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="E27" t="n">
         <v>135</v>
       </c>
       <c r="F27" t="n">
-        <v>6004.9808</v>
+        <v>271.7429</v>
       </c>
       <c r="G27" t="n">
-        <v>134.3933333333334</v>
+        <v>83793.27768273381</v>
       </c>
       <c r="H27" t="n">
-        <v>135.1266666666666</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,36 +1407,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>136</v>
+        <v>136.4</v>
       </c>
       <c r="C28" t="n">
-        <v>136.6</v>
+        <v>136.4</v>
       </c>
       <c r="D28" t="n">
-        <v>136.6</v>
+        <v>136.4</v>
       </c>
       <c r="E28" t="n">
-        <v>136</v>
+        <v>136.4</v>
       </c>
       <c r="F28" t="n">
-        <v>40.2335</v>
+        <v>2882.1618</v>
       </c>
       <c r="G28" t="n">
-        <v>134.5866666666667</v>
+        <v>86675.43948273381</v>
       </c>
       <c r="H28" t="n">
-        <v>135.07</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,36 +1446,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>135</v>
+        <v>133.8</v>
       </c>
       <c r="C29" t="n">
-        <v>135</v>
+        <v>133.7</v>
       </c>
       <c r="D29" t="n">
-        <v>135</v>
+        <v>133.8</v>
       </c>
       <c r="E29" t="n">
-        <v>135</v>
+        <v>133.7</v>
       </c>
       <c r="F29" t="n">
-        <v>328.4607</v>
+        <v>117.5066</v>
       </c>
       <c r="G29" t="n">
-        <v>134.6933333333334</v>
+        <v>86557.93288273382</v>
       </c>
       <c r="H29" t="n">
-        <v>135.0033333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1520,36 +1485,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>135</v>
+        <v>134.9</v>
       </c>
       <c r="C30" t="n">
-        <v>136.6</v>
+        <v>133.8</v>
       </c>
       <c r="D30" t="n">
-        <v>136.6</v>
+        <v>134.9</v>
       </c>
       <c r="E30" t="n">
-        <v>135</v>
+        <v>133.8</v>
       </c>
       <c r="F30" t="n">
-        <v>19.8336</v>
+        <v>2516.028</v>
       </c>
       <c r="G30" t="n">
-        <v>134.7600000000001</v>
+        <v>89073.96088273382</v>
       </c>
       <c r="H30" t="n">
-        <v>134.9633333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,36 +1524,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>136.6</v>
+        <v>133.8</v>
       </c>
       <c r="C31" t="n">
-        <v>136.6</v>
+        <v>133.7</v>
       </c>
       <c r="D31" t="n">
-        <v>136.6</v>
+        <v>133.8</v>
       </c>
       <c r="E31" t="n">
-        <v>136.6</v>
+        <v>133.7</v>
       </c>
       <c r="F31" t="n">
-        <v>13.5668</v>
+        <v>5190.4834</v>
       </c>
       <c r="G31" t="n">
-        <v>134.8266666666667</v>
+        <v>83883.47748273383</v>
       </c>
       <c r="H31" t="n">
-        <v>134.965</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1596,36 +1563,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>136.6</v>
+        <v>133.8</v>
       </c>
       <c r="C32" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D32" t="n">
-        <v>136.6</v>
+        <v>133.8</v>
       </c>
       <c r="E32" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F32" t="n">
-        <v>713.62</v>
+        <v>15722.2715</v>
       </c>
       <c r="G32" t="n">
-        <v>134.8933333333334</v>
+        <v>68161.20598273382</v>
       </c>
       <c r="H32" t="n">
-        <v>134.9</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1634,36 +1602,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>135</v>
+        <v>134.5</v>
       </c>
       <c r="C33" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D33" t="n">
-        <v>135</v>
+        <v>134.5</v>
       </c>
       <c r="E33" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F33" t="n">
-        <v>727</v>
+        <v>9399.4221</v>
       </c>
       <c r="G33" t="n">
-        <v>135.0266666666667</v>
+        <v>68161.20598273382</v>
       </c>
       <c r="H33" t="n">
-        <v>134.835</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,36 +1641,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>135</v>
+        <v>133.1</v>
       </c>
       <c r="C34" t="n">
-        <v>135</v>
+        <v>132.8</v>
       </c>
       <c r="D34" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E34" t="n">
-        <v>135</v>
+        <v>132.8</v>
       </c>
       <c r="F34" t="n">
-        <v>1019.9999</v>
+        <v>11971.2</v>
       </c>
       <c r="G34" t="n">
-        <v>135.0066666666667</v>
+        <v>56190.00598273383</v>
       </c>
       <c r="H34" t="n">
-        <v>134.77</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,7 +1680,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" t="n">
         <v>135</v>
@@ -1719,27 +1689,28 @@
         <v>135</v>
       </c>
       <c r="E35" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" t="n">
-        <v>3913.3787</v>
+        <v>177.5103</v>
       </c>
       <c r="G35" t="n">
-        <v>135.0600000000001</v>
+        <v>56367.51628273383</v>
       </c>
       <c r="H35" t="n">
-        <v>134.705</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1748,36 +1719,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="D36" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36" t="n">
-        <v>135</v>
+        <v>132.7</v>
       </c>
       <c r="F36" t="n">
-        <v>389.3591</v>
+        <v>14884.0074</v>
       </c>
       <c r="G36" t="n">
-        <v>135.0600000000001</v>
+        <v>41483.50888273383</v>
       </c>
       <c r="H36" t="n">
-        <v>134.6883333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,36 +1758,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="C37" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="F37" t="n">
-        <v>1194.9999</v>
+        <v>941.9544</v>
       </c>
       <c r="G37" t="n">
-        <v>135.0600000000001</v>
+        <v>42425.46328273383</v>
       </c>
       <c r="H37" t="n">
-        <v>134.6883333333334</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,40 +1797,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="C38" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="D38" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="E38" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="F38" t="n">
-        <v>502.9999</v>
+        <v>361</v>
       </c>
       <c r="G38" t="n">
-        <v>135.2266666666668</v>
+        <v>42064.46328273383</v>
       </c>
       <c r="H38" t="n">
-        <v>134.6883333333334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>135</v>
-      </c>
-      <c r="L38" t="n">
-        <v>135</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,42 +1836,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>135.9</v>
+        <v>134.1</v>
       </c>
       <c r="C39" t="n">
-        <v>135</v>
+        <v>134.1</v>
       </c>
       <c r="D39" t="n">
-        <v>135.9</v>
+        <v>134.1</v>
       </c>
       <c r="E39" t="n">
-        <v>135</v>
+        <v>134.1</v>
       </c>
       <c r="F39" t="n">
-        <v>4264.8339</v>
+        <v>425.1275</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3266666666668</v>
+        <v>42489.59078273383</v>
       </c>
       <c r="H39" t="n">
-        <v>134.7033333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>135</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,42 +1875,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>134.5</v>
+        <v>132.6</v>
       </c>
       <c r="C40" t="n">
-        <v>134.5</v>
+        <v>132.6</v>
       </c>
       <c r="D40" t="n">
-        <v>134.5</v>
+        <v>132.6</v>
       </c>
       <c r="E40" t="n">
-        <v>134.5</v>
+        <v>132.6</v>
       </c>
       <c r="F40" t="n">
-        <v>1427.5898</v>
+        <v>3.8</v>
       </c>
       <c r="G40" t="n">
-        <v>135.2933333333334</v>
+        <v>42485.79078273383</v>
       </c>
       <c r="H40" t="n">
-        <v>134.6816666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>135</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1954,44 +1914,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>134</v>
+        <v>133.8</v>
       </c>
       <c r="C41" t="n">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="D41" t="n">
-        <v>134</v>
+        <v>133.8</v>
       </c>
       <c r="E41" t="n">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="F41" t="n">
-        <v>67</v>
+        <v>2737.137</v>
       </c>
       <c r="G41" t="n">
-        <v>135.2200000000001</v>
+        <v>45222.92778273383</v>
       </c>
       <c r="H41" t="n">
-        <v>134.665</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>135</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2000,44 +1953,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>135</v>
+        <v>133.7</v>
       </c>
       <c r="C42" t="n">
-        <v>135</v>
+        <v>133.7</v>
       </c>
       <c r="D42" t="n">
-        <v>135</v>
+        <v>133.7</v>
       </c>
       <c r="E42" t="n">
-        <v>135</v>
+        <v>133.7</v>
       </c>
       <c r="F42" t="n">
-        <v>469.6645</v>
+        <v>2088</v>
       </c>
       <c r="G42" t="n">
-        <v>135.2200000000001</v>
+        <v>47310.92778273383</v>
       </c>
       <c r="H42" t="n">
-        <v>134.665</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>134</v>
-      </c>
-      <c r="L42" t="n">
-        <v>135</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2046,44 +1992,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>135</v>
+        <v>133.4</v>
       </c>
       <c r="C43" t="n">
-        <v>135</v>
+        <v>133.4</v>
       </c>
       <c r="D43" t="n">
-        <v>135</v>
+        <v>133.4</v>
       </c>
       <c r="E43" t="n">
-        <v>135</v>
+        <v>133.4</v>
       </c>
       <c r="F43" t="n">
-        <v>778.1663</v>
+        <v>1316.5301</v>
       </c>
       <c r="G43" t="n">
-        <v>135.1133333333334</v>
+        <v>45994.39768273383</v>
       </c>
       <c r="H43" t="n">
-        <v>134.6983333333334</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>135</v>
-      </c>
-      <c r="L43" t="n">
-        <v>135</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2092,44 +2031,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="C44" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="D44" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="E44" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="F44" t="n">
-        <v>1005.9998</v>
+        <v>3.5715</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1133333333334</v>
+        <v>45997.96918273383</v>
       </c>
       <c r="H44" t="n">
-        <v>134.6983333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>135</v>
-      </c>
-      <c r="L44" t="n">
-        <v>135</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,44 +2070,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="C45" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="D45" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="E45" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="F45" t="n">
-        <v>241</v>
+        <v>10.9463</v>
       </c>
       <c r="G45" t="n">
-        <v>135.0066666666668</v>
+        <v>45997.96918273383</v>
       </c>
       <c r="H45" t="n">
-        <v>134.6983333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>135</v>
-      </c>
-      <c r="L45" t="n">
-        <v>135</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,42 +2109,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="C46" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="E46" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F46" t="n">
-        <v>4073.6893</v>
+        <v>10.5339</v>
       </c>
       <c r="G46" t="n">
-        <v>134.9000000000001</v>
+        <v>45987.43528273383</v>
       </c>
       <c r="H46" t="n">
-        <v>134.6983333333334</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>135</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2228,42 +2148,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>136</v>
+        <v>133.5</v>
       </c>
       <c r="C47" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D47" t="n">
-        <v>136</v>
+        <v>133.5</v>
       </c>
       <c r="E47" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F47" t="n">
-        <v>6549.5881</v>
+        <v>6366.369</v>
       </c>
       <c r="G47" t="n">
-        <v>134.9666666666668</v>
+        <v>39621.06628273383</v>
       </c>
       <c r="H47" t="n">
-        <v>134.6983333333334</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>135</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2272,42 +2189,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>136</v>
+        <v>135.3</v>
       </c>
       <c r="C48" t="n">
-        <v>138.5</v>
+        <v>135.3</v>
       </c>
       <c r="D48" t="n">
-        <v>138.5</v>
+        <v>135.3</v>
       </c>
       <c r="E48" t="n">
-        <v>136</v>
+        <v>135.3</v>
       </c>
       <c r="F48" t="n">
-        <v>25541.5443</v>
+        <v>6637.4609</v>
       </c>
       <c r="G48" t="n">
-        <v>135.2000000000001</v>
+        <v>46258.52718273383</v>
       </c>
       <c r="H48" t="n">
-        <v>134.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>135</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,42 +2228,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>138.5</v>
+        <v>135.3</v>
       </c>
       <c r="C49" t="n">
-        <v>136.7</v>
+        <v>134.2</v>
       </c>
       <c r="D49" t="n">
-        <v>142</v>
+        <v>135.3</v>
       </c>
       <c r="E49" t="n">
-        <v>136</v>
+        <v>134.2</v>
       </c>
       <c r="F49" t="n">
-        <v>7847.653</v>
+        <v>8929.6867</v>
       </c>
       <c r="G49" t="n">
-        <v>135.3133333333334</v>
+        <v>37328.84048273383</v>
       </c>
       <c r="H49" t="n">
-        <v>134.7883333333334</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>135.3</v>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>135</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2360,42 +2269,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>138.9</v>
+        <v>135.3</v>
       </c>
       <c r="C50" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D50" t="n">
-        <v>142</v>
+        <v>136.6</v>
       </c>
       <c r="E50" t="n">
-        <v>136.7</v>
+        <v>135</v>
       </c>
       <c r="F50" t="n">
-        <v>824.8200000000001</v>
+        <v>39.5031</v>
       </c>
       <c r="G50" t="n">
-        <v>135.7800000000001</v>
+        <v>37368.34358273383</v>
       </c>
       <c r="H50" t="n">
-        <v>134.8966666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>135</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2404,42 +2308,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C51" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E51" t="n">
-        <v>136.7</v>
+        <v>135</v>
       </c>
       <c r="F51" t="n">
-        <v>2721.9759</v>
+        <v>15</v>
       </c>
       <c r="G51" t="n">
-        <v>135.9133333333334</v>
+        <v>37368.34358273383</v>
       </c>
       <c r="H51" t="n">
-        <v>134.8833333333334</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>135</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2448,42 +2347,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>138.5</v>
+        <v>133.6</v>
       </c>
       <c r="C52" t="n">
-        <v>138.5</v>
+        <v>132.5</v>
       </c>
       <c r="D52" t="n">
-        <v>138.5</v>
+        <v>133.6</v>
       </c>
       <c r="E52" t="n">
-        <v>138.5</v>
+        <v>132.5</v>
       </c>
       <c r="F52" t="n">
-        <v>466.9489</v>
+        <v>4043.1982</v>
       </c>
       <c r="G52" t="n">
-        <v>136.1466666666668</v>
+        <v>33325.14538273383</v>
       </c>
       <c r="H52" t="n">
-        <v>134.915</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>135</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2492,42 +2386,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>138.8</v>
+        <v>133.5</v>
       </c>
       <c r="C53" t="n">
-        <v>137</v>
+        <v>133.5</v>
       </c>
       <c r="D53" t="n">
-        <v>138.8</v>
+        <v>133.5</v>
       </c>
       <c r="E53" t="n">
-        <v>137</v>
+        <v>133.5</v>
       </c>
       <c r="F53" t="n">
-        <v>4234.7532</v>
+        <v>192.3996</v>
       </c>
       <c r="G53" t="n">
-        <v>136.2800000000001</v>
+        <v>33517.54498273383</v>
       </c>
       <c r="H53" t="n">
-        <v>134.9483333333334</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>135</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,42 +2425,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>139.8</v>
+        <v>133.5</v>
       </c>
       <c r="C54" t="n">
-        <v>138.8</v>
+        <v>135</v>
       </c>
       <c r="D54" t="n">
-        <v>139.8</v>
+        <v>135</v>
       </c>
       <c r="E54" t="n">
-        <v>138.8</v>
+        <v>133.5</v>
       </c>
       <c r="F54" t="n">
-        <v>5700.4969</v>
+        <v>6076.1797</v>
       </c>
       <c r="G54" t="n">
-        <v>136.5333333333334</v>
+        <v>39593.72468273383</v>
       </c>
       <c r="H54" t="n">
-        <v>135.0216666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>135</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2580,42 +2464,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C55" t="n">
-        <v>138.8</v>
+        <v>135.1</v>
       </c>
       <c r="D55" t="n">
-        <v>139</v>
+        <v>135.1</v>
       </c>
       <c r="E55" t="n">
-        <v>138.8</v>
+        <v>135</v>
       </c>
       <c r="F55" t="n">
-        <v>2691.2842</v>
+        <v>1277.0985</v>
       </c>
       <c r="G55" t="n">
-        <v>136.8200000000001</v>
+        <v>40870.82318273383</v>
       </c>
       <c r="H55" t="n">
-        <v>135.085</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>135</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2624,42 +2503,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>137.8</v>
+        <v>135.1</v>
       </c>
       <c r="C56" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D56" t="n">
-        <v>143</v>
+        <v>135.1</v>
       </c>
       <c r="E56" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="F56" t="n">
-        <v>17327.6993</v>
+        <v>6004.9808</v>
       </c>
       <c r="G56" t="n">
-        <v>137.1533333333335</v>
+        <v>34865.84238273383</v>
       </c>
       <c r="H56" t="n">
-        <v>135.1516666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>135</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2668,42 +2542,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>140.2</v>
+        <v>136</v>
       </c>
       <c r="C57" t="n">
-        <v>142.2</v>
+        <v>136.6</v>
       </c>
       <c r="D57" t="n">
-        <v>142.2</v>
+        <v>136.6</v>
       </c>
       <c r="E57" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F57" t="n">
-        <v>10093.8232</v>
+        <v>40.2335</v>
       </c>
       <c r="G57" t="n">
-        <v>137.6333333333335</v>
+        <v>34906.07588273384</v>
       </c>
       <c r="H57" t="n">
-        <v>135.2716666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>135</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2712,42 +2581,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>137.2</v>
+        <v>135</v>
       </c>
       <c r="C58" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D58" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E58" t="n">
-        <v>137.2</v>
+        <v>135</v>
       </c>
       <c r="F58" t="n">
-        <v>5749.1417</v>
+        <v>328.4607</v>
       </c>
       <c r="G58" t="n">
-        <v>137.8333333333335</v>
+        <v>34577.61518273383</v>
       </c>
       <c r="H58" t="n">
-        <v>135.3216666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>135</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,42 +2620,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C59" t="n">
-        <v>140</v>
+        <v>136.6</v>
       </c>
       <c r="D59" t="n">
-        <v>140</v>
+        <v>136.6</v>
       </c>
       <c r="E59" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>19.8336</v>
       </c>
       <c r="G59" t="n">
-        <v>138.1666666666668</v>
+        <v>34597.44878273383</v>
       </c>
       <c r="H59" t="n">
-        <v>135.3816666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>135</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2800,42 +2659,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>140</v>
+        <v>136.6</v>
       </c>
       <c r="C60" t="n">
-        <v>140</v>
+        <v>136.6</v>
       </c>
       <c r="D60" t="n">
-        <v>140</v>
+        <v>136.6</v>
       </c>
       <c r="E60" t="n">
-        <v>140</v>
+        <v>136.6</v>
       </c>
       <c r="F60" t="n">
-        <v>1776.9814</v>
+        <v>13.5668</v>
       </c>
       <c r="G60" t="n">
-        <v>138.5000000000001</v>
+        <v>34597.44878273383</v>
       </c>
       <c r="H60" t="n">
-        <v>135.4866666666667</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>136.6</v>
       </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>135</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,42 +2700,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>140</v>
+        <v>136.6</v>
       </c>
       <c r="C61" t="n">
-        <v>141.2</v>
+        <v>135</v>
       </c>
       <c r="D61" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="E61" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F61" t="n">
-        <v>3388.318</v>
+        <v>713.62</v>
       </c>
       <c r="G61" t="n">
-        <v>138.9133333333334</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H61" t="n">
-        <v>135.61</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>135</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,42 +2739,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D62" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E62" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F62" t="n">
-        <v>168.2731</v>
+        <v>727</v>
       </c>
       <c r="G62" t="n">
-        <v>139.0466666666668</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H62" t="n">
-        <v>135.6816666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>135</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,42 +2778,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C63" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D63" t="n">
-        <v>141.2</v>
+        <v>135</v>
       </c>
       <c r="E63" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F63" t="n">
-        <v>424.1089</v>
+        <v>1019.9999</v>
       </c>
       <c r="G63" t="n">
-        <v>139.0133333333334</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H63" t="n">
-        <v>135.765</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>135</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2976,42 +2817,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>141.2</v>
+        <v>135</v>
       </c>
       <c r="C64" t="n">
-        <v>141.2</v>
+        <v>135</v>
       </c>
       <c r="D64" t="n">
-        <v>141.2</v>
+        <v>135</v>
       </c>
       <c r="E64" t="n">
-        <v>141.2</v>
+        <v>135</v>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>3913.3787</v>
       </c>
       <c r="G64" t="n">
-        <v>139.3133333333334</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H64" t="n">
-        <v>135.9016666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>135</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,42 +2856,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C65" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D65" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E65" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F65" t="n">
-        <v>6</v>
+        <v>389.3591</v>
       </c>
       <c r="G65" t="n">
-        <v>139.3133333333334</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H65" t="n">
-        <v>136.055</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>135</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,43 +2895,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>138.2</v>
+        <v>135</v>
       </c>
       <c r="C66" t="n">
-        <v>138.2</v>
+        <v>135</v>
       </c>
       <c r="D66" t="n">
-        <v>138.2</v>
+        <v>135</v>
       </c>
       <c r="E66" t="n">
-        <v>138.2</v>
+        <v>135</v>
       </c>
       <c r="F66" t="n">
-        <v>21435.0691</v>
+        <v>1194.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>139.3933333333334</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H66" t="n">
-        <v>136.1083333333334</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>135</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>1.018703703703704</v>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3108,36 +2936,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="C67" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="D67" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="E67" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="F67" t="n">
-        <v>4704.6138</v>
+        <v>502.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>139.4866666666668</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H67" t="n">
-        <v>136.215</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,36 +2977,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>139.9</v>
+        <v>135.9</v>
       </c>
       <c r="C68" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="D68" t="n">
-        <v>139.9</v>
+        <v>135.9</v>
       </c>
       <c r="E68" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="F68" t="n">
-        <v>20559.1735</v>
+        <v>4264.8339</v>
       </c>
       <c r="G68" t="n">
-        <v>139.6800000000001</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H68" t="n">
-        <v>136.3133333333334</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3184,36 +3018,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>139.9</v>
+        <v>134.5</v>
       </c>
       <c r="C69" t="n">
-        <v>139.9</v>
+        <v>134.5</v>
       </c>
       <c r="D69" t="n">
-        <v>139.9</v>
+        <v>134.5</v>
       </c>
       <c r="E69" t="n">
-        <v>139.9</v>
+        <v>134.5</v>
       </c>
       <c r="F69" t="n">
-        <v>120.265</v>
+        <v>1427.5898</v>
       </c>
       <c r="G69" t="n">
-        <v>139.7533333333334</v>
+        <v>32456.23898273383</v>
       </c>
       <c r="H69" t="n">
-        <v>136.42</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3222,36 +3059,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>139.9</v>
+        <v>134</v>
       </c>
       <c r="C70" t="n">
-        <v>138.2</v>
+        <v>134</v>
       </c>
       <c r="D70" t="n">
-        <v>139.9</v>
+        <v>134</v>
       </c>
       <c r="E70" t="n">
-        <v>138.2</v>
+        <v>134</v>
       </c>
       <c r="F70" t="n">
-        <v>600</v>
+        <v>67</v>
       </c>
       <c r="G70" t="n">
-        <v>139.7133333333334</v>
+        <v>32389.23898273383</v>
       </c>
       <c r="H70" t="n">
-        <v>136.4883333333333</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>134.5</v>
       </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,36 +3100,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C71" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D71" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E71" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F71" t="n">
-        <v>3.6</v>
+        <v>469.6645</v>
       </c>
       <c r="G71" t="n">
-        <v>139.8466666666667</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H71" t="n">
-        <v>136.6283333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,36 +3139,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C72" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D72" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E72" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F72" t="n">
-        <v>694.2381</v>
+        <v>778.1663</v>
       </c>
       <c r="G72" t="n">
-        <v>139.7000000000001</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H72" t="n">
-        <v>136.7366666666667</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,36 +3180,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>142.2</v>
+        <v>135</v>
       </c>
       <c r="C73" t="n">
-        <v>142.2</v>
+        <v>135</v>
       </c>
       <c r="D73" t="n">
-        <v>142.2</v>
+        <v>135</v>
       </c>
       <c r="E73" t="n">
-        <v>142.2</v>
+        <v>135</v>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>1005.9998</v>
       </c>
       <c r="G73" t="n">
-        <v>139.9800000000001</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H73" t="n">
-        <v>136.8783333333334</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,36 +3219,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C74" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D74" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E74" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F74" t="n">
-        <v>32.706</v>
+        <v>241</v>
       </c>
       <c r="G74" t="n">
-        <v>139.9133333333334</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H74" t="n">
-        <v>136.9716666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,36 +3258,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C75" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D75" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E75" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F75" t="n">
-        <v>177.875</v>
+        <v>4073.6893</v>
       </c>
       <c r="G75" t="n">
-        <v>139.8466666666667</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H75" t="n">
-        <v>137.0283333333333</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,36 +3299,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C76" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D76" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E76" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F76" t="n">
-        <v>164.045</v>
+        <v>6549.5881</v>
       </c>
       <c r="G76" t="n">
-        <v>139.7000000000001</v>
+        <v>39408.49158273383</v>
       </c>
       <c r="H76" t="n">
-        <v>137.085</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,36 +3340,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>138.3</v>
+        <v>136</v>
       </c>
       <c r="C77" t="n">
-        <v>137.4</v>
+        <v>138.5</v>
       </c>
       <c r="D77" t="n">
-        <v>138.3</v>
+        <v>138.5</v>
       </c>
       <c r="E77" t="n">
-        <v>137.4</v>
+        <v>136</v>
       </c>
       <c r="F77" t="n">
-        <v>11592.8208</v>
+        <v>25541.5443</v>
       </c>
       <c r="G77" t="n">
-        <v>139.6600000000001</v>
+        <v>64950.03588273383</v>
       </c>
       <c r="H77" t="n">
-        <v>137.1416666666667</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3526,36 +3381,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>141</v>
+        <v>138.5</v>
       </c>
       <c r="C78" t="n">
-        <v>141</v>
+        <v>136.7</v>
       </c>
       <c r="D78" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E78" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>7847.653</v>
       </c>
       <c r="G78" t="n">
-        <v>139.8600000000001</v>
+        <v>57102.38288273383</v>
       </c>
       <c r="H78" t="n">
-        <v>137.275</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,36 +3420,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="C79" t="n">
-        <v>137.4</v>
+        <v>142</v>
       </c>
       <c r="D79" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E79" t="n">
-        <v>137.4</v>
+        <v>136.7</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>824.8200000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>139.6066666666668</v>
+        <v>57927.20288273383</v>
       </c>
       <c r="H79" t="n">
-        <v>137.31</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,36 +3459,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>137.4</v>
+        <v>138</v>
       </c>
       <c r="C80" t="n">
-        <v>137.2</v>
+        <v>137</v>
       </c>
       <c r="D80" t="n">
-        <v>137.4</v>
+        <v>138</v>
       </c>
       <c r="E80" t="n">
-        <v>137.2</v>
+        <v>136.7</v>
       </c>
       <c r="F80" t="n">
-        <v>5692.8916</v>
+        <v>2721.9759</v>
       </c>
       <c r="G80" t="n">
-        <v>139.2866666666668</v>
+        <v>55205.22698273383</v>
       </c>
       <c r="H80" t="n">
-        <v>137.36</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,36 +3498,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>137.2</v>
+        <v>138.5</v>
       </c>
       <c r="C81" t="n">
-        <v>137.2</v>
+        <v>138.5</v>
       </c>
       <c r="D81" t="n">
-        <v>137.2</v>
+        <v>138.5</v>
       </c>
       <c r="E81" t="n">
-        <v>137.2</v>
+        <v>138.5</v>
       </c>
       <c r="F81" t="n">
-        <v>3778.1309</v>
+        <v>466.9489</v>
       </c>
       <c r="G81" t="n">
-        <v>139.2200000000001</v>
+        <v>55672.17588273383</v>
       </c>
       <c r="H81" t="n">
-        <v>137.3966666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,36 +3537,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>137.2</v>
+        <v>138.8</v>
       </c>
       <c r="C82" t="n">
-        <v>137.2</v>
+        <v>137</v>
       </c>
       <c r="D82" t="n">
-        <v>137.2</v>
+        <v>138.8</v>
       </c>
       <c r="E82" t="n">
-        <v>137.2</v>
+        <v>137</v>
       </c>
       <c r="F82" t="n">
-        <v>2886.3769</v>
+        <v>4234.7532</v>
       </c>
       <c r="G82" t="n">
-        <v>139.0400000000001</v>
+        <v>51437.42268273384</v>
       </c>
       <c r="H82" t="n">
-        <v>137.4333333333334</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,36 +3576,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>137.2</v>
+        <v>139.8</v>
       </c>
       <c r="C83" t="n">
-        <v>137.2</v>
+        <v>138.8</v>
       </c>
       <c r="D83" t="n">
-        <v>137.2</v>
+        <v>139.8</v>
       </c>
       <c r="E83" t="n">
-        <v>137.2</v>
+        <v>138.8</v>
       </c>
       <c r="F83" t="n">
-        <v>19.1089</v>
+        <v>5700.4969</v>
       </c>
       <c r="G83" t="n">
-        <v>138.8600000000001</v>
+        <v>57137.91958273383</v>
       </c>
       <c r="H83" t="n">
-        <v>137.5116666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,36 +3615,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>137.5</v>
+        <v>139</v>
       </c>
       <c r="C84" t="n">
-        <v>137.2</v>
+        <v>138.8</v>
       </c>
       <c r="D84" t="n">
-        <v>137.5</v>
+        <v>139</v>
       </c>
       <c r="E84" t="n">
-        <v>137.2</v>
+        <v>138.8</v>
       </c>
       <c r="F84" t="n">
-        <v>5077.6317</v>
+        <v>2691.2842</v>
       </c>
       <c r="G84" t="n">
-        <v>138.68</v>
+        <v>57137.91958273383</v>
       </c>
       <c r="H84" t="n">
-        <v>137.5733333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,36 +3654,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>137</v>
+        <v>137.8</v>
       </c>
       <c r="C85" t="n">
-        <v>135.9</v>
+        <v>139</v>
       </c>
       <c r="D85" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E85" t="n">
-        <v>135.9</v>
+        <v>137.8</v>
       </c>
       <c r="F85" t="n">
-        <v>9485.1289</v>
+        <v>17327.6993</v>
       </c>
       <c r="G85" t="n">
-        <v>138.5266666666667</v>
+        <v>74465.61888273383</v>
       </c>
       <c r="H85" t="n">
-        <v>137.5883333333334</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,36 +3693,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>137.9</v>
+        <v>140.2</v>
       </c>
       <c r="C86" t="n">
-        <v>136.5</v>
+        <v>142.2</v>
       </c>
       <c r="D86" t="n">
-        <v>137.9</v>
+        <v>142.2</v>
       </c>
       <c r="E86" t="n">
-        <v>136.5</v>
+        <v>139</v>
       </c>
       <c r="F86" t="n">
-        <v>1070.3198</v>
+        <v>10093.8232</v>
       </c>
       <c r="G86" t="n">
-        <v>138.2266666666667</v>
+        <v>84559.44208273383</v>
       </c>
       <c r="H86" t="n">
-        <v>137.6116666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,36 +3732,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>138.9</v>
+        <v>137.2</v>
       </c>
       <c r="C87" t="n">
-        <v>138.9</v>
+        <v>138</v>
       </c>
       <c r="D87" t="n">
-        <v>138.9</v>
+        <v>140</v>
       </c>
       <c r="E87" t="n">
-        <v>138.9</v>
+        <v>137.2</v>
       </c>
       <c r="F87" t="n">
-        <v>3.9041</v>
+        <v>5749.1417</v>
       </c>
       <c r="G87" t="n">
-        <v>138.1533333333334</v>
+        <v>78810.30038273384</v>
       </c>
       <c r="H87" t="n">
-        <v>137.6766666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3906,36 +3771,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>137.7</v>
+        <v>140</v>
       </c>
       <c r="C88" t="n">
-        <v>137.7</v>
+        <v>140</v>
       </c>
       <c r="D88" t="n">
-        <v>137.7</v>
+        <v>140</v>
       </c>
       <c r="E88" t="n">
-        <v>137.7</v>
+        <v>140</v>
       </c>
       <c r="F88" t="n">
-        <v>701.2103</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
-        <v>137.8533333333334</v>
+        <v>78815.30038273384</v>
       </c>
       <c r="H88" t="n">
-        <v>137.6950000000001</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3944,36 +3810,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C89" t="n">
-        <v>139.7</v>
+        <v>140</v>
       </c>
       <c r="D89" t="n">
-        <v>139.7</v>
+        <v>140</v>
       </c>
       <c r="E89" t="n">
-        <v>138.9</v>
+        <v>140</v>
       </c>
       <c r="F89" t="n">
-        <v>1726.5207</v>
+        <v>1776.9814</v>
       </c>
       <c r="G89" t="n">
-        <v>137.9000000000001</v>
+        <v>78815.30038273384</v>
       </c>
       <c r="H89" t="n">
-        <v>137.7733333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,36 +3849,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>139.9</v>
+        <v>140</v>
       </c>
       <c r="C90" t="n">
-        <v>138.6</v>
+        <v>141.2</v>
       </c>
       <c r="D90" t="n">
-        <v>140</v>
+        <v>141.2</v>
       </c>
       <c r="E90" t="n">
-        <v>138.6</v>
+        <v>138</v>
       </c>
       <c r="F90" t="n">
-        <v>4530.5569</v>
+        <v>3388.318</v>
       </c>
       <c r="G90" t="n">
-        <v>137.8733333333334</v>
+        <v>82203.61838273384</v>
       </c>
       <c r="H90" t="n">
-        <v>137.8066666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,36 +3888,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>139.6</v>
+        <v>139</v>
       </c>
       <c r="C91" t="n">
-        <v>139.6</v>
+        <v>138</v>
       </c>
       <c r="D91" t="n">
-        <v>140.7</v>
+        <v>139</v>
       </c>
       <c r="E91" t="n">
-        <v>138.7</v>
+        <v>138</v>
       </c>
       <c r="F91" t="n">
-        <v>20518.8403</v>
+        <v>168.2731</v>
       </c>
       <c r="G91" t="n">
-        <v>137.9133333333334</v>
+        <v>82035.34528273383</v>
       </c>
       <c r="H91" t="n">
-        <v>137.8566666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,36 +3927,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>139.8</v>
+        <v>139</v>
       </c>
       <c r="C92" t="n">
-        <v>139.8</v>
+        <v>138</v>
       </c>
       <c r="D92" t="n">
-        <v>139.8</v>
+        <v>141.2</v>
       </c>
       <c r="E92" t="n">
-        <v>139.8</v>
+        <v>138</v>
       </c>
       <c r="F92" t="n">
-        <v>353</v>
+        <v>424.1089</v>
       </c>
       <c r="G92" t="n">
-        <v>138.0733333333334</v>
+        <v>82035.34528273383</v>
       </c>
       <c r="H92" t="n">
-        <v>137.9366666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4096,36 +3966,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>139.8</v>
+        <v>141.2</v>
       </c>
       <c r="C93" t="n">
-        <v>139.8</v>
+        <v>141.2</v>
       </c>
       <c r="D93" t="n">
-        <v>139.8</v>
+        <v>141.2</v>
       </c>
       <c r="E93" t="n">
-        <v>139.8</v>
+        <v>141.2</v>
       </c>
       <c r="F93" t="n">
-        <v>20.36</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>137.9933333333334</v>
+        <v>82039.34528273383</v>
       </c>
       <c r="H93" t="n">
-        <v>138.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,36 +4005,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>140.7</v>
+        <v>142</v>
       </c>
       <c r="C94" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D94" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E94" t="n">
-        <v>140.7</v>
+        <v>142</v>
       </c>
       <c r="F94" t="n">
-        <v>28744.0278</v>
+        <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>138.2333333333334</v>
+        <v>82045.34528273383</v>
       </c>
       <c r="H94" t="n">
-        <v>138.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4172,36 +4044,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>141</v>
+        <v>138.2</v>
       </c>
       <c r="C95" t="n">
-        <v>139.8</v>
+        <v>138.2</v>
       </c>
       <c r="D95" t="n">
-        <v>144</v>
+        <v>138.2</v>
       </c>
       <c r="E95" t="n">
-        <v>139.8</v>
+        <v>138.2</v>
       </c>
       <c r="F95" t="n">
-        <v>28970.0823</v>
+        <v>21435.0691</v>
       </c>
       <c r="G95" t="n">
-        <v>138.4066666666668</v>
+        <v>60610.27618273383</v>
       </c>
       <c r="H95" t="n">
-        <v>138.1966666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,36 +4083,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>139.8</v>
+        <v>139.9</v>
       </c>
       <c r="C96" t="n">
-        <v>139.8</v>
+        <v>139.9</v>
       </c>
       <c r="D96" t="n">
-        <v>139.8</v>
+        <v>139.9</v>
       </c>
       <c r="E96" t="n">
-        <v>139.8</v>
+        <v>139.9</v>
       </c>
       <c r="F96" t="n">
-        <v>150</v>
+        <v>4704.6138</v>
       </c>
       <c r="G96" t="n">
-        <v>138.5800000000001</v>
+        <v>65314.88998273383</v>
       </c>
       <c r="H96" t="n">
-        <v>138.2766666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,36 +4122,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="C97" t="n">
-        <v>142.1</v>
+        <v>139.9</v>
       </c>
       <c r="D97" t="n">
-        <v>142.1</v>
+        <v>139.9</v>
       </c>
       <c r="E97" t="n">
-        <v>139</v>
+        <v>139.9</v>
       </c>
       <c r="F97" t="n">
-        <v>245.3521</v>
+        <v>20559.1735</v>
       </c>
       <c r="G97" t="n">
-        <v>138.9066666666668</v>
+        <v>65314.88998273383</v>
       </c>
       <c r="H97" t="n">
-        <v>138.395</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,36 +4161,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="C98" t="n">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="D98" t="n">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="E98" t="n">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="F98" t="n">
-        <v>92.5515</v>
+        <v>120.265</v>
       </c>
       <c r="G98" t="n">
-        <v>139.1600000000001</v>
+        <v>65314.88998273383</v>
       </c>
       <c r="H98" t="n">
-        <v>138.495</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,36 +4200,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>139</v>
+        <v>139.9</v>
       </c>
       <c r="C99" t="n">
-        <v>139</v>
+        <v>138.2</v>
       </c>
       <c r="D99" t="n">
-        <v>139</v>
+        <v>139.9</v>
       </c>
       <c r="E99" t="n">
-        <v>139</v>
+        <v>138.2</v>
       </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="G99" t="n">
-        <v>139.2800000000001</v>
+        <v>64714.88998273383</v>
       </c>
       <c r="H99" t="n">
-        <v>138.5616666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,36 +4239,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C100" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D100" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E100" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>3.6</v>
       </c>
       <c r="G100" t="n">
-        <v>139.4866666666668</v>
+        <v>64718.48998273383</v>
       </c>
       <c r="H100" t="n">
-        <v>138.6366666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,36 +4278,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>138.2</v>
+        <v>141</v>
       </c>
       <c r="C101" t="n">
-        <v>137.7</v>
+        <v>140</v>
       </c>
       <c r="D101" t="n">
-        <v>138.2</v>
+        <v>141</v>
       </c>
       <c r="E101" t="n">
-        <v>137.7</v>
+        <v>140</v>
       </c>
       <c r="F101" t="n">
-        <v>1847.5964</v>
+        <v>694.2381</v>
       </c>
       <c r="G101" t="n">
-        <v>139.5666666666668</v>
+        <v>64024.25188273383</v>
       </c>
       <c r="H101" t="n">
-        <v>138.6983333333334</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,36 +4317,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>139</v>
+        <v>142.2</v>
       </c>
       <c r="C102" t="n">
-        <v>139</v>
+        <v>142.2</v>
       </c>
       <c r="D102" t="n">
-        <v>139</v>
+        <v>142.2</v>
       </c>
       <c r="E102" t="n">
-        <v>139</v>
+        <v>142.2</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G102" t="n">
-        <v>139.5733333333334</v>
+        <v>64028.25188273383</v>
       </c>
       <c r="H102" t="n">
-        <v>138.765</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,74 +4356,70 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C103" t="n">
         <v>139</v>
       </c>
       <c r="D103" t="n">
+        <v>142</v>
+      </c>
+      <c r="E103" t="n">
         <v>139</v>
       </c>
-      <c r="E103" t="n">
-        <v>136.2</v>
-      </c>
       <c r="F103" t="n">
-        <v>5350.608</v>
+        <v>32.706</v>
       </c>
       <c r="G103" t="n">
-        <v>139.6600000000001</v>
+        <v>63995.54588273383</v>
       </c>
       <c r="H103" t="n">
-        <v>138.8316666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C104" t="n">
-        <v>138.8</v>
+        <v>139</v>
       </c>
       <c r="D104" t="n">
-        <v>138.8</v>
+        <v>139</v>
       </c>
       <c r="E104" t="n">
-        <v>136.2</v>
+        <v>139</v>
       </c>
       <c r="F104" t="n">
-        <v>3150.7088</v>
+        <v>177.875</v>
       </c>
       <c r="G104" t="n">
-        <v>139.6000000000002</v>
+        <v>63995.54588273383</v>
       </c>
       <c r="H104" t="n">
-        <v>138.895</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4552,36 +4428,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>136.4</v>
+        <v>139</v>
       </c>
       <c r="C105" t="n">
-        <v>136.4</v>
+        <v>139</v>
       </c>
       <c r="D105" t="n">
-        <v>136.4</v>
+        <v>139</v>
       </c>
       <c r="E105" t="n">
-        <v>136.4</v>
+        <v>139</v>
       </c>
       <c r="F105" t="n">
-        <v>1335</v>
+        <v>164.045</v>
       </c>
       <c r="G105" t="n">
-        <v>139.4533333333335</v>
+        <v>63995.54588273383</v>
       </c>
       <c r="H105" t="n">
-        <v>138.9183333333334</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4590,36 +4463,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>136.4</v>
+        <v>138.3</v>
       </c>
       <c r="C106" t="n">
-        <v>136.4</v>
+        <v>137.4</v>
       </c>
       <c r="D106" t="n">
-        <v>136.4</v>
+        <v>138.3</v>
       </c>
       <c r="E106" t="n">
-        <v>136.4</v>
+        <v>137.4</v>
       </c>
       <c r="F106" t="n">
-        <v>5577.3215</v>
+        <v>11592.8208</v>
       </c>
       <c r="G106" t="n">
-        <v>139.2400000000002</v>
+        <v>52402.72508273383</v>
       </c>
       <c r="H106" t="n">
-        <v>138.9416666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,36 +4498,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>136.4</v>
+        <v>141</v>
       </c>
       <c r="C107" t="n">
-        <v>136.4</v>
+        <v>141</v>
       </c>
       <c r="D107" t="n">
-        <v>136.4</v>
+        <v>141</v>
       </c>
       <c r="E107" t="n">
-        <v>136.4</v>
+        <v>141</v>
       </c>
       <c r="F107" t="n">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="G107" t="n">
-        <v>139.0133333333335</v>
+        <v>52407.72508273383</v>
       </c>
       <c r="H107" t="n">
-        <v>138.9483333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,36 +4533,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>136.4</v>
+        <v>138</v>
       </c>
       <c r="C108" t="n">
-        <v>137.8</v>
+        <v>137.4</v>
       </c>
       <c r="D108" t="n">
-        <v>137.8</v>
+        <v>138</v>
       </c>
       <c r="E108" t="n">
-        <v>136.4</v>
+        <v>137.4</v>
       </c>
       <c r="F108" t="n">
-        <v>2118.3375</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>138.8800000000002</v>
+        <v>52397.72508273383</v>
       </c>
       <c r="H108" t="n">
-        <v>138.9366666666666</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4704,36 +4568,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>137.8</v>
+        <v>137.4</v>
       </c>
       <c r="C109" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="D109" t="n">
-        <v>137.8</v>
+        <v>137.4</v>
       </c>
       <c r="E109" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="F109" t="n">
-        <v>419.9999</v>
+        <v>5692.8916</v>
       </c>
       <c r="G109" t="n">
-        <v>138.6666666666669</v>
+        <v>46704.83348273383</v>
       </c>
       <c r="H109" t="n">
-        <v>138.955</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,36 +4603,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="C110" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="D110" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="E110" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="F110" t="n">
-        <v>1749.6987</v>
+        <v>3778.1309</v>
       </c>
       <c r="G110" t="n">
-        <v>138.5333333333335</v>
+        <v>46704.83348273383</v>
       </c>
       <c r="H110" t="n">
-        <v>138.8849999999999</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,36 +4638,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>137</v>
+        <v>137.2</v>
       </c>
       <c r="C111" t="n">
-        <v>137</v>
+        <v>137.2</v>
       </c>
       <c r="D111" t="n">
-        <v>137</v>
+        <v>137.2</v>
       </c>
       <c r="E111" t="n">
-        <v>137</v>
+        <v>137.2</v>
       </c>
       <c r="F111" t="n">
-        <v>182.1546</v>
+        <v>2886.3769</v>
       </c>
       <c r="G111" t="n">
-        <v>138.3466666666668</v>
+        <v>46704.83348273383</v>
       </c>
       <c r="H111" t="n">
-        <v>138.8849999999999</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,36 +4673,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="C112" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="D112" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="E112" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="F112" t="n">
-        <v>798.2583454281568</v>
+        <v>19.1089</v>
       </c>
       <c r="G112" t="n">
-        <v>138.0600000000002</v>
+        <v>46704.83348273383</v>
       </c>
       <c r="H112" t="n">
-        <v>138.8733333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,36 +4708,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>137.8</v>
+        <v>137.5</v>
       </c>
       <c r="C113" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="D113" t="n">
-        <v>137.8</v>
+        <v>137.5</v>
       </c>
       <c r="E113" t="n">
-        <v>137.8</v>
+        <v>137.2</v>
       </c>
       <c r="F113" t="n">
-        <v>290.2757619738752</v>
+        <v>5077.6317</v>
       </c>
       <c r="G113" t="n">
-        <v>137.8466666666669</v>
+        <v>46704.83348273383</v>
       </c>
       <c r="H113" t="n">
-        <v>138.8866666666666</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,36 +4743,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>137.8</v>
+        <v>137</v>
       </c>
       <c r="C114" t="n">
-        <v>137.8</v>
+        <v>135.9</v>
       </c>
       <c r="D114" t="n">
-        <v>137.8</v>
+        <v>137</v>
       </c>
       <c r="E114" t="n">
-        <v>137.8</v>
+        <v>135.9</v>
       </c>
       <c r="F114" t="n">
-        <v>124.189</v>
+        <v>9485.1289</v>
       </c>
       <c r="G114" t="n">
-        <v>137.7666666666669</v>
+        <v>37219.70458273383</v>
       </c>
       <c r="H114" t="n">
-        <v>138.8699999999999</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,36 +4778,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>137.8</v>
+        <v>137.9</v>
       </c>
       <c r="C115" t="n">
-        <v>138.1</v>
+        <v>136.5</v>
       </c>
       <c r="D115" t="n">
-        <v>138.1</v>
+        <v>137.9</v>
       </c>
       <c r="E115" t="n">
-        <v>137.8</v>
+        <v>136.5</v>
       </c>
       <c r="F115" t="n">
-        <v>725.5923760881925</v>
+        <v>1070.3198</v>
       </c>
       <c r="G115" t="n">
-        <v>137.7066666666669</v>
+        <v>38290.02438273383</v>
       </c>
       <c r="H115" t="n">
-        <v>138.8583333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,36 +4813,1068 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="C116" t="n">
-        <v>138.8</v>
+        <v>138.9</v>
       </c>
       <c r="D116" t="n">
-        <v>138.8</v>
+        <v>138.9</v>
       </c>
       <c r="E116" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="F116" t="n">
-        <v>723.1616215530032</v>
+        <v>3.9041</v>
       </c>
       <c r="G116" t="n">
-        <v>137.7800000000002</v>
+        <v>38293.92848273383</v>
       </c>
       <c r="H116" t="n">
-        <v>138.8549999999999</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="C117" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="D117" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>701.2103</v>
+      </c>
+      <c r="G117" t="n">
+        <v>37592.71818273383</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>139</v>
+      </c>
+      <c r="C118" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1726.5207</v>
+      </c>
+      <c r="G118" t="n">
+        <v>39319.23888273383</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="C119" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>140</v>
+      </c>
+      <c r="E119" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4530.5569</v>
+      </c>
+      <c r="G119" t="n">
+        <v>34788.68198273383</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>20518.8403</v>
+      </c>
+      <c r="G120" t="n">
+        <v>55307.52228273383</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="C121" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>353</v>
+      </c>
+      <c r="G121" t="n">
+        <v>55660.52228273383</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="G122" t="n">
+        <v>55660.52228273383</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>141</v>
+      </c>
+      <c r="D123" t="n">
+        <v>141</v>
+      </c>
+      <c r="E123" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>28744.0278</v>
+      </c>
+      <c r="G123" t="n">
+        <v>84404.55008273383</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>141</v>
+      </c>
+      <c r="C124" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>144</v>
+      </c>
+      <c r="E124" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>28970.0823</v>
+      </c>
+      <c r="G124" t="n">
+        <v>55434.46778273383</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>150</v>
+      </c>
+      <c r="G125" t="n">
+        <v>55434.46778273383</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>141</v>
+      </c>
+      <c r="C126" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>139</v>
+      </c>
+      <c r="F126" t="n">
+        <v>245.3521</v>
+      </c>
+      <c r="G126" t="n">
+        <v>55679.81988273383</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>141</v>
+      </c>
+      <c r="C127" t="n">
+        <v>141</v>
+      </c>
+      <c r="D127" t="n">
+        <v>141</v>
+      </c>
+      <c r="E127" t="n">
+        <v>141</v>
+      </c>
+      <c r="F127" t="n">
+        <v>92.5515</v>
+      </c>
+      <c r="G127" t="n">
+        <v>55587.26838273383</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>139</v>
+      </c>
+      <c r="C128" t="n">
+        <v>139</v>
+      </c>
+      <c r="D128" t="n">
+        <v>139</v>
+      </c>
+      <c r="E128" t="n">
+        <v>139</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5</v>
+      </c>
+      <c r="G128" t="n">
+        <v>55582.26838273383</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>139</v>
+      </c>
+      <c r="C129" t="n">
+        <v>139</v>
+      </c>
+      <c r="D129" t="n">
+        <v>139</v>
+      </c>
+      <c r="E129" t="n">
+        <v>139</v>
+      </c>
+      <c r="F129" t="n">
+        <v>250</v>
+      </c>
+      <c r="G129" t="n">
+        <v>55582.26838273383</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1847.5964</v>
+      </c>
+      <c r="G130" t="n">
+        <v>53734.67198273382</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>139</v>
+      </c>
+      <c r="C131" t="n">
+        <v>139</v>
+      </c>
+      <c r="D131" t="n">
+        <v>139</v>
+      </c>
+      <c r="E131" t="n">
+        <v>139</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="n">
+        <v>53744.67198273382</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>139</v>
+      </c>
+      <c r="C132" t="n">
+        <v>139</v>
+      </c>
+      <c r="D132" t="n">
+        <v>139</v>
+      </c>
+      <c r="E132" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5350.608</v>
+      </c>
+      <c r="G132" t="n">
+        <v>53744.67198273382</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>137</v>
+      </c>
+      <c r="C133" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3150.7088</v>
+      </c>
+      <c r="G133" t="n">
+        <v>50593.96318273382</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1335</v>
+      </c>
+      <c r="G134" t="n">
+        <v>49258.96318273382</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5577.3215</v>
+      </c>
+      <c r="G135" t="n">
+        <v>49258.96318273382</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D136" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>49258.96318273382</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2118.3375</v>
+      </c>
+      <c r="G137" t="n">
+        <v>51377.30068273382</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>419.9999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>51377.30068273382</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1749.6987</v>
+      </c>
+      <c r="G139" t="n">
+        <v>51377.30068273382</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>137</v>
+      </c>
+      <c r="C140" t="n">
+        <v>137</v>
+      </c>
+      <c r="D140" t="n">
+        <v>137</v>
+      </c>
+      <c r="E140" t="n">
+        <v>137</v>
+      </c>
+      <c r="F140" t="n">
+        <v>182.1546</v>
+      </c>
+      <c r="G140" t="n">
+        <v>51195.14608273382</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>798.2583454281568</v>
+      </c>
+      <c r="G141" t="n">
+        <v>51993.40442816198</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>290.2757619738752</v>
+      </c>
+      <c r="G142" t="n">
+        <v>51993.40442816198</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>124.189</v>
+      </c>
+      <c r="G143" t="n">
+        <v>51993.40442816198</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="K143" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C144" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>725.5923760881925</v>
+      </c>
+      <c r="G144" t="n">
+        <v>52718.99680425017</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="K144" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>723.1616215530032</v>
+      </c>
+      <c r="G145" t="n">
+        <v>53442.15842580317</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest RDN.xlsx
+++ b/BackTest/2020-01-13 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="C2" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="D2" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="E2" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>3.5715</v>
       </c>
       <c r="G2" t="n">
-        <v>157675.0976827338</v>
+        <v>45997.96918273383</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>137.2</v>
+        <v>135.6</v>
       </c>
       <c r="C3" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="D3" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="E3" t="n">
-        <v>137.2</v>
+        <v>135.6</v>
       </c>
       <c r="F3" t="n">
-        <v>148.5283</v>
+        <v>10.9463</v>
       </c>
       <c r="G3" t="n">
-        <v>157675.0976827338</v>
+        <v>45997.96918273383</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>137.2</v>
+        <v>135.6</v>
       </c>
       <c r="C4" t="n">
-        <v>138.9</v>
+        <v>134</v>
       </c>
       <c r="D4" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="E4" t="n">
-        <v>137.2</v>
+        <v>134</v>
       </c>
       <c r="F4" t="n">
-        <v>1836.6092</v>
+        <v>10.5339</v>
       </c>
       <c r="G4" t="n">
-        <v>157675.0976827338</v>
+        <v>45987.43528273383</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>137.2</v>
+        <v>133.5</v>
       </c>
       <c r="C5" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D5" t="n">
-        <v>137.2</v>
+        <v>133.5</v>
       </c>
       <c r="E5" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F5" t="n">
-        <v>55747.2115</v>
+        <v>6366.369</v>
       </c>
       <c r="G5" t="n">
-        <v>101927.8861827338</v>
+        <v>39621.06628273383</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>135.1</v>
+        <v>135.3</v>
       </c>
       <c r="C6" t="n">
-        <v>135</v>
+        <v>135.3</v>
       </c>
       <c r="D6" t="n">
-        <v>135.1</v>
+        <v>135.3</v>
       </c>
       <c r="E6" t="n">
-        <v>134.1</v>
+        <v>135.3</v>
       </c>
       <c r="F6" t="n">
-        <v>16254.5898</v>
+        <v>6637.4609</v>
       </c>
       <c r="G6" t="n">
-        <v>85673.29638273378</v>
+        <v>46258.52718273383</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>135</v>
+        <v>135.3</v>
       </c>
       <c r="C7" t="n">
-        <v>135</v>
+        <v>134.2</v>
       </c>
       <c r="D7" t="n">
-        <v>135</v>
+        <v>135.3</v>
       </c>
       <c r="E7" t="n">
-        <v>135</v>
+        <v>134.2</v>
       </c>
       <c r="F7" t="n">
-        <v>123</v>
+        <v>8929.6867</v>
       </c>
       <c r="G7" t="n">
-        <v>85673.29638273378</v>
+        <v>37328.84048273383</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,168 +647,201 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>134.8</v>
+        <v>135.3</v>
       </c>
       <c r="C8" t="n">
-        <v>134.1</v>
+        <v>135</v>
       </c>
       <c r="D8" t="n">
-        <v>137.9</v>
+        <v>136.6</v>
       </c>
       <c r="E8" t="n">
-        <v>134.1</v>
+        <v>135</v>
       </c>
       <c r="F8" t="n">
-        <v>5401</v>
+        <v>39.5031</v>
       </c>
       <c r="G8" t="n">
-        <v>80272.29638273378</v>
+        <v>37368.34358273383</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135.8</v>
+        <v>135</v>
       </c>
       <c r="C9" t="n">
-        <v>135.8</v>
+        <v>135</v>
       </c>
       <c r="D9" t="n">
-        <v>135.8</v>
+        <v>135</v>
       </c>
       <c r="E9" t="n">
-        <v>135.8</v>
+        <v>135</v>
       </c>
       <c r="F9" t="n">
-        <v>8459.4923</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>88731.78868273378</v>
+        <v>37368.34358273383</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>135</v>
+      </c>
+      <c r="K9" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>136.6</v>
+        <v>133.6</v>
       </c>
       <c r="C10" t="n">
-        <v>135</v>
+        <v>132.5</v>
       </c>
       <c r="D10" t="n">
-        <v>136.6</v>
+        <v>133.6</v>
       </c>
       <c r="E10" t="n">
-        <v>135</v>
+        <v>132.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3376.5466</v>
+        <v>4043.1982</v>
       </c>
       <c r="G10" t="n">
-        <v>85355.24208273378</v>
+        <v>33325.14538273383</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>135</v>
+      </c>
+      <c r="K10" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="C11" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="D11" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="E11" t="n">
-        <v>135</v>
+        <v>133.5</v>
       </c>
       <c r="F11" t="n">
-        <v>12.3305</v>
+        <v>192.3996</v>
       </c>
       <c r="G11" t="n">
-        <v>85355.24208273378</v>
+        <v>33517.54498273383</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133.1</v>
+        <v>133.5</v>
       </c>
       <c r="C12" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D12" t="n">
-        <v>133.1</v>
+        <v>135</v>
       </c>
       <c r="E12" t="n">
-        <v>133</v>
+        <v>133.5</v>
       </c>
       <c r="F12" t="n">
-        <v>3482.2644</v>
+        <v>6076.1797</v>
       </c>
       <c r="G12" t="n">
-        <v>81872.97768273378</v>
+        <v>39593.72468273383</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,85 +850,93 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C13" t="n">
-        <v>135</v>
+        <v>135.1</v>
       </c>
       <c r="D13" t="n">
-        <v>135</v>
+        <v>135.1</v>
       </c>
       <c r="E13" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F13" t="n">
-        <v>3925.6815</v>
+        <v>1277.0985</v>
       </c>
       <c r="G13" t="n">
-        <v>85798.65918273378</v>
+        <v>40870.82318273383</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>133</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133.2</v>
+        <v>135.1</v>
       </c>
       <c r="C14" t="n">
         <v>135</v>
       </c>
       <c r="D14" t="n">
-        <v>135</v>
+        <v>135.1</v>
       </c>
       <c r="E14" t="n">
-        <v>133.2</v>
+        <v>135</v>
       </c>
       <c r="F14" t="n">
-        <v>1081.717</v>
+        <v>6004.9808</v>
       </c>
       <c r="G14" t="n">
-        <v>85798.65918273378</v>
+        <v>34865.84238273383</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>135</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -894,37 +945,42 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="D15" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="E15" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F15" t="n">
-        <v>1988.2682</v>
+        <v>40.2335</v>
       </c>
       <c r="G15" t="n">
-        <v>85798.65918273378</v>
+        <v>34906.07588273384</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>135</v>
+      </c>
+      <c r="K15" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -933,6 +989,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -942,19 +999,19 @@
         <v>135</v>
       </c>
       <c r="C16" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="E16" t="n">
         <v>135</v>
       </c>
       <c r="F16" t="n">
-        <v>4168.6659</v>
+        <v>328.4607</v>
       </c>
       <c r="G16" t="n">
-        <v>89967.32508273379</v>
+        <v>34577.61518273383</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -963,7 +1020,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -972,28 +1031,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>133.5</v>
+        <v>135</v>
       </c>
       <c r="C17" t="n">
-        <v>134.4</v>
+        <v>136.6</v>
       </c>
       <c r="D17" t="n">
-        <v>134.4</v>
+        <v>136.6</v>
       </c>
       <c r="E17" t="n">
-        <v>133.5</v>
+        <v>135</v>
       </c>
       <c r="F17" t="n">
-        <v>1781.6332</v>
+        <v>19.8336</v>
       </c>
       <c r="G17" t="n">
-        <v>88185.69188273379</v>
+        <v>34597.44878273383</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,7 +1062,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1011,28 +1073,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>135.4</v>
+        <v>136.6</v>
       </c>
       <c r="C18" t="n">
-        <v>135.4</v>
+        <v>136.6</v>
       </c>
       <c r="D18" t="n">
-        <v>135.4</v>
+        <v>136.6</v>
       </c>
       <c r="E18" t="n">
-        <v>134.4</v>
+        <v>136.6</v>
       </c>
       <c r="F18" t="n">
-        <v>4876.911</v>
+        <v>13.5668</v>
       </c>
       <c r="G18" t="n">
-        <v>93062.6028827338</v>
+        <v>34597.44878273383</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1041,7 +1104,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1050,28 +1115,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>135.4</v>
+        <v>136.6</v>
       </c>
       <c r="C19" t="n">
-        <v>135.5</v>
+        <v>135</v>
       </c>
       <c r="D19" t="n">
-        <v>135.5</v>
+        <v>136.6</v>
       </c>
       <c r="E19" t="n">
-        <v>135.4</v>
+        <v>135</v>
       </c>
       <c r="F19" t="n">
-        <v>6769.4839</v>
+        <v>713.62</v>
       </c>
       <c r="G19" t="n">
-        <v>99832.08678273381</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1080,7 +1146,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1089,28 +1157,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>135.5</v>
+        <v>135</v>
       </c>
       <c r="C20" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="D20" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="E20" t="n">
-        <v>135.5</v>
+        <v>135</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>727</v>
       </c>
       <c r="G20" t="n">
-        <v>99842.08678273381</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1119,7 +1188,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1128,28 +1199,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>136.5</v>
+        <v>135</v>
       </c>
       <c r="C21" t="n">
-        <v>136.6</v>
+        <v>135</v>
       </c>
       <c r="D21" t="n">
-        <v>136.6</v>
+        <v>135</v>
       </c>
       <c r="E21" t="n">
-        <v>136.5</v>
+        <v>135</v>
       </c>
       <c r="F21" t="n">
-        <v>11288.6263</v>
+        <v>1019.9999</v>
       </c>
       <c r="G21" t="n">
-        <v>88553.4604827338</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,7 +1230,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1167,28 +1241,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" t="n">
         <v>135</v>
       </c>
       <c r="D22" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" t="n">
         <v>135</v>
       </c>
       <c r="F22" t="n">
-        <v>619.5599999999999</v>
+        <v>3913.3787</v>
       </c>
       <c r="G22" t="n">
-        <v>87933.90048273381</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1197,7 +1272,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1206,6 +1283,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1215,19 +1293,19 @@
         <v>135</v>
       </c>
       <c r="C23" t="n">
-        <v>134.4</v>
+        <v>135</v>
       </c>
       <c r="D23" t="n">
         <v>135</v>
       </c>
       <c r="E23" t="n">
-        <v>134.4</v>
+        <v>135</v>
       </c>
       <c r="F23" t="n">
-        <v>4206.8869</v>
+        <v>389.3591</v>
       </c>
       <c r="G23" t="n">
-        <v>83727.01358273381</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1236,7 +1314,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1245,6 +1325,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1263,10 +1344,10 @@
         <v>135</v>
       </c>
       <c r="F24" t="n">
-        <v>66.2641</v>
+        <v>1194.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>83793.27768273381</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1275,7 +1356,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1284,13 +1367,14 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>133.5</v>
+        <v>135</v>
       </c>
       <c r="C25" t="n">
         <v>135</v>
@@ -1299,22 +1383,26 @@
         <v>135</v>
       </c>
       <c r="E25" t="n">
-        <v>133.5</v>
+        <v>135</v>
       </c>
       <c r="F25" t="n">
-        <v>6217.7623</v>
+        <v>502.9999</v>
       </c>
       <c r="G25" t="n">
-        <v>83793.27768273381</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>135</v>
+      </c>
+      <c r="K25" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1323,37 +1411,42 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>135</v>
+        <v>135.9</v>
       </c>
       <c r="C26" t="n">
         <v>135</v>
       </c>
       <c r="D26" t="n">
-        <v>135</v>
+        <v>135.9</v>
       </c>
       <c r="E26" t="n">
         <v>135</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0003</v>
+        <v>4264.8339</v>
       </c>
       <c r="G26" t="n">
-        <v>83793.27768273381</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>135</v>
+      </c>
+      <c r="K26" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1362,37 +1455,42 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>135</v>
+        <v>134.5</v>
       </c>
       <c r="C27" t="n">
-        <v>135</v>
+        <v>134.5</v>
       </c>
       <c r="D27" t="n">
-        <v>135</v>
+        <v>134.5</v>
       </c>
       <c r="E27" t="n">
-        <v>135</v>
+        <v>134.5</v>
       </c>
       <c r="F27" t="n">
-        <v>271.7429</v>
+        <v>1427.5898</v>
       </c>
       <c r="G27" t="n">
-        <v>83793.27768273381</v>
+        <v>32456.23898273383</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>135</v>
+      </c>
+      <c r="K27" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1401,37 +1499,42 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>136.4</v>
+        <v>134</v>
       </c>
       <c r="C28" t="n">
-        <v>136.4</v>
+        <v>134</v>
       </c>
       <c r="D28" t="n">
-        <v>136.4</v>
+        <v>134</v>
       </c>
       <c r="E28" t="n">
-        <v>136.4</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
-        <v>2882.1618</v>
+        <v>67</v>
       </c>
       <c r="G28" t="n">
-        <v>86675.43948273381</v>
+        <v>32389.23898273383</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1440,37 +1543,42 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>133.8</v>
+        <v>135</v>
       </c>
       <c r="C29" t="n">
-        <v>133.7</v>
+        <v>135</v>
       </c>
       <c r="D29" t="n">
-        <v>133.8</v>
+        <v>135</v>
       </c>
       <c r="E29" t="n">
-        <v>133.7</v>
+        <v>135</v>
       </c>
       <c r="F29" t="n">
-        <v>117.5066</v>
+        <v>469.6645</v>
       </c>
       <c r="G29" t="n">
-        <v>86557.93288273382</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>134</v>
+      </c>
+      <c r="K29" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1479,37 +1587,42 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>134.9</v>
+        <v>135</v>
       </c>
       <c r="C30" t="n">
-        <v>133.8</v>
+        <v>135</v>
       </c>
       <c r="D30" t="n">
-        <v>134.9</v>
+        <v>135</v>
       </c>
       <c r="E30" t="n">
-        <v>133.8</v>
+        <v>135</v>
       </c>
       <c r="F30" t="n">
-        <v>2516.028</v>
+        <v>778.1663</v>
       </c>
       <c r="G30" t="n">
-        <v>89073.96088273382</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>135</v>
+      </c>
+      <c r="K30" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1518,37 +1631,42 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>133.8</v>
+        <v>135</v>
       </c>
       <c r="C31" t="n">
-        <v>133.7</v>
+        <v>135</v>
       </c>
       <c r="D31" t="n">
-        <v>133.8</v>
+        <v>135</v>
       </c>
       <c r="E31" t="n">
-        <v>133.7</v>
+        <v>135</v>
       </c>
       <c r="F31" t="n">
-        <v>5190.4834</v>
+        <v>1005.9998</v>
       </c>
       <c r="G31" t="n">
-        <v>83883.47748273383</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>135</v>
+      </c>
+      <c r="K31" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1557,37 +1675,42 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>133.8</v>
+        <v>135</v>
       </c>
       <c r="C32" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D32" t="n">
-        <v>133.8</v>
+        <v>135</v>
       </c>
       <c r="E32" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F32" t="n">
-        <v>15722.2715</v>
+        <v>241</v>
       </c>
       <c r="G32" t="n">
-        <v>68161.20598273382</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>135</v>
+      </c>
+      <c r="K32" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1596,37 +1719,42 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>134.5</v>
+        <v>135</v>
       </c>
       <c r="C33" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D33" t="n">
-        <v>134.5</v>
+        <v>135</v>
       </c>
       <c r="E33" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F33" t="n">
-        <v>9399.4221</v>
+        <v>4073.6893</v>
       </c>
       <c r="G33" t="n">
-        <v>68161.20598273382</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>135</v>
+      </c>
+      <c r="K33" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1635,37 +1763,42 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>133.1</v>
+        <v>136</v>
       </c>
       <c r="C34" t="n">
-        <v>132.8</v>
+        <v>136</v>
       </c>
       <c r="D34" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" t="n">
-        <v>132.8</v>
+        <v>136</v>
       </c>
       <c r="F34" t="n">
-        <v>11971.2</v>
+        <v>6549.5881</v>
       </c>
       <c r="G34" t="n">
-        <v>56190.00598273383</v>
+        <v>39408.49158273383</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>135</v>
+      </c>
+      <c r="K34" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1674,28 +1807,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C35" t="n">
-        <v>135</v>
+        <v>138.5</v>
       </c>
       <c r="D35" t="n">
-        <v>135</v>
+        <v>138.5</v>
       </c>
       <c r="E35" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F35" t="n">
-        <v>177.5103</v>
+        <v>25541.5443</v>
       </c>
       <c r="G35" t="n">
-        <v>56367.51628273383</v>
+        <v>64950.03588273383</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1704,7 +1838,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1713,28 +1849,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>134</v>
+        <v>138.5</v>
       </c>
       <c r="C36" t="n">
-        <v>133.5</v>
+        <v>136.7</v>
       </c>
       <c r="D36" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E36" t="n">
-        <v>132.7</v>
+        <v>136</v>
       </c>
       <c r="F36" t="n">
-        <v>14884.0074</v>
+        <v>7847.653</v>
       </c>
       <c r="G36" t="n">
-        <v>41483.50888273383</v>
+        <v>57102.38288273383</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1743,7 +1880,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1752,28 +1891,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>133.5</v>
+        <v>138.9</v>
       </c>
       <c r="C37" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D37" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E37" t="n">
-        <v>133.5</v>
+        <v>136.7</v>
       </c>
       <c r="F37" t="n">
-        <v>941.9544</v>
+        <v>824.8200000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>42425.46328273383</v>
+        <v>57927.20288273383</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1782,7 +1922,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1791,28 +1933,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>133.5</v>
+        <v>138</v>
       </c>
       <c r="C38" t="n">
-        <v>133.5</v>
+        <v>137</v>
       </c>
       <c r="D38" t="n">
-        <v>133.5</v>
+        <v>138</v>
       </c>
       <c r="E38" t="n">
-        <v>133.5</v>
+        <v>136.7</v>
       </c>
       <c r="F38" t="n">
-        <v>361</v>
+        <v>2721.9759</v>
       </c>
       <c r="G38" t="n">
-        <v>42064.46328273383</v>
+        <v>55205.22698273383</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1821,7 +1964,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1830,28 +1975,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>134.1</v>
+        <v>138.5</v>
       </c>
       <c r="C39" t="n">
-        <v>134.1</v>
+        <v>138.5</v>
       </c>
       <c r="D39" t="n">
-        <v>134.1</v>
+        <v>138.5</v>
       </c>
       <c r="E39" t="n">
-        <v>134.1</v>
+        <v>138.5</v>
       </c>
       <c r="F39" t="n">
-        <v>425.1275</v>
+        <v>466.9489</v>
       </c>
       <c r="G39" t="n">
-        <v>42489.59078273383</v>
+        <v>55672.17588273383</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1860,7 +2006,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1869,28 +2017,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>132.6</v>
+        <v>138.8</v>
       </c>
       <c r="C40" t="n">
-        <v>132.6</v>
+        <v>137</v>
       </c>
       <c r="D40" t="n">
-        <v>132.6</v>
+        <v>138.8</v>
       </c>
       <c r="E40" t="n">
-        <v>132.6</v>
+        <v>137</v>
       </c>
       <c r="F40" t="n">
-        <v>3.8</v>
+        <v>4234.7532</v>
       </c>
       <c r="G40" t="n">
-        <v>42485.79078273383</v>
+        <v>51437.42268273384</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1899,7 +2048,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1908,28 +2059,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>133.8</v>
+        <v>139.8</v>
       </c>
       <c r="C41" t="n">
-        <v>133.5</v>
+        <v>138.8</v>
       </c>
       <c r="D41" t="n">
-        <v>133.8</v>
+        <v>139.8</v>
       </c>
       <c r="E41" t="n">
-        <v>133.5</v>
+        <v>138.8</v>
       </c>
       <c r="F41" t="n">
-        <v>2737.137</v>
+        <v>5700.4969</v>
       </c>
       <c r="G41" t="n">
-        <v>45222.92778273383</v>
+        <v>57137.91958273383</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1938,7 +2090,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1947,28 +2101,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>133.7</v>
+        <v>139</v>
       </c>
       <c r="C42" t="n">
-        <v>133.7</v>
+        <v>138.8</v>
       </c>
       <c r="D42" t="n">
-        <v>133.7</v>
+        <v>139</v>
       </c>
       <c r="E42" t="n">
-        <v>133.7</v>
+        <v>138.8</v>
       </c>
       <c r="F42" t="n">
-        <v>2088</v>
+        <v>2691.2842</v>
       </c>
       <c r="G42" t="n">
-        <v>47310.92778273383</v>
+        <v>57137.91958273383</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1977,7 +2132,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1986,28 +2143,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>133.4</v>
+        <v>137.8</v>
       </c>
       <c r="C43" t="n">
-        <v>133.4</v>
+        <v>139</v>
       </c>
       <c r="D43" t="n">
-        <v>133.4</v>
+        <v>143</v>
       </c>
       <c r="E43" t="n">
-        <v>133.4</v>
+        <v>137.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1316.5301</v>
+        <v>17327.6993</v>
       </c>
       <c r="G43" t="n">
-        <v>45994.39768273383</v>
+        <v>74465.61888273383</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2016,7 +2174,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2025,28 +2185,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>135.6</v>
+        <v>140.2</v>
       </c>
       <c r="C44" t="n">
-        <v>135.6</v>
+        <v>142.2</v>
       </c>
       <c r="D44" t="n">
-        <v>135.6</v>
+        <v>142.2</v>
       </c>
       <c r="E44" t="n">
-        <v>135.6</v>
+        <v>139</v>
       </c>
       <c r="F44" t="n">
-        <v>3.5715</v>
+        <v>10093.8232</v>
       </c>
       <c r="G44" t="n">
-        <v>45997.96918273383</v>
+        <v>84559.44208273383</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2055,7 +2216,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2064,28 +2227,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>135.6</v>
+        <v>137.2</v>
       </c>
       <c r="C45" t="n">
-        <v>135.6</v>
+        <v>138</v>
       </c>
       <c r="D45" t="n">
-        <v>135.6</v>
+        <v>140</v>
       </c>
       <c r="E45" t="n">
-        <v>135.6</v>
+        <v>137.2</v>
       </c>
       <c r="F45" t="n">
-        <v>10.9463</v>
+        <v>5749.1417</v>
       </c>
       <c r="G45" t="n">
-        <v>45997.96918273383</v>
+        <v>78810.30038273384</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2094,7 +2258,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2103,28 +2269,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>135.6</v>
+        <v>140</v>
       </c>
       <c r="C46" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D46" t="n">
-        <v>135.6</v>
+        <v>140</v>
       </c>
       <c r="E46" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F46" t="n">
-        <v>10.5339</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>45987.43528273383</v>
+        <v>78815.30038273384</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2133,7 +2300,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2142,39 +2311,40 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>133.5</v>
+        <v>140</v>
       </c>
       <c r="C47" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D47" t="n">
-        <v>133.5</v>
+        <v>140</v>
       </c>
       <c r="E47" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F47" t="n">
-        <v>6366.369</v>
+        <v>1776.9814</v>
       </c>
       <c r="G47" t="n">
-        <v>39621.06628273383</v>
+        <v>78815.30038273384</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>134</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2183,28 +2353,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>135.3</v>
+        <v>140</v>
       </c>
       <c r="C48" t="n">
-        <v>135.3</v>
+        <v>141.2</v>
       </c>
       <c r="D48" t="n">
-        <v>135.3</v>
+        <v>141.2</v>
       </c>
       <c r="E48" t="n">
-        <v>135.3</v>
+        <v>138</v>
       </c>
       <c r="F48" t="n">
-        <v>6637.4609</v>
+        <v>3388.318</v>
       </c>
       <c r="G48" t="n">
-        <v>46258.52718273383</v>
+        <v>82203.61838273384</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2213,7 +2384,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>134.2</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2222,69 +2395,71 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>135.3</v>
+        <v>139</v>
       </c>
       <c r="C49" t="n">
+        <v>138</v>
+      </c>
+      <c r="D49" t="n">
+        <v>139</v>
+      </c>
+      <c r="E49" t="n">
+        <v>138</v>
+      </c>
+      <c r="F49" t="n">
+        <v>168.2731</v>
+      </c>
+      <c r="G49" t="n">
+        <v>82035.34528273383</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
         <v>134.2</v>
       </c>
-      <c r="D49" t="n">
-        <v>135.3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>8929.6867</v>
-      </c>
-      <c r="G49" t="n">
-        <v>37328.84048273383</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>135.3</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
-      </c>
+        <v>1.023315946348733</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>135.3</v>
+        <v>139</v>
       </c>
       <c r="C50" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D50" t="n">
-        <v>136.6</v>
+        <v>141.2</v>
       </c>
       <c r="E50" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F50" t="n">
-        <v>39.5031</v>
+        <v>424.1089</v>
       </c>
       <c r="G50" t="n">
-        <v>37368.34358273383</v>
+        <v>82035.34528273383</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2294,36 +2469,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>135</v>
+        <v>141.2</v>
       </c>
       <c r="C51" t="n">
-        <v>135</v>
+        <v>141.2</v>
       </c>
       <c r="D51" t="n">
-        <v>135</v>
+        <v>141.2</v>
       </c>
       <c r="E51" t="n">
-        <v>135</v>
+        <v>141.2</v>
       </c>
       <c r="F51" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>37368.34358273383</v>
+        <v>82039.34528273383</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2333,36 +2505,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>133.6</v>
+        <v>142</v>
       </c>
       <c r="C52" t="n">
-        <v>132.5</v>
+        <v>142</v>
       </c>
       <c r="D52" t="n">
-        <v>133.6</v>
+        <v>142</v>
       </c>
       <c r="E52" t="n">
-        <v>132.5</v>
+        <v>142</v>
       </c>
       <c r="F52" t="n">
-        <v>4043.1982</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
-        <v>33325.14538273383</v>
+        <v>82045.34528273383</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2372,36 +2541,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>133.5</v>
+        <v>138.2</v>
       </c>
       <c r="C53" t="n">
-        <v>133.5</v>
+        <v>138.2</v>
       </c>
       <c r="D53" t="n">
-        <v>133.5</v>
+        <v>138.2</v>
       </c>
       <c r="E53" t="n">
-        <v>133.5</v>
+        <v>138.2</v>
       </c>
       <c r="F53" t="n">
-        <v>192.3996</v>
+        <v>21435.0691</v>
       </c>
       <c r="G53" t="n">
-        <v>33517.54498273383</v>
+        <v>60610.27618273383</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2411,36 +2577,33 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>133.5</v>
+        <v>139.9</v>
       </c>
       <c r="C54" t="n">
-        <v>135</v>
+        <v>139.9</v>
       </c>
       <c r="D54" t="n">
-        <v>135</v>
+        <v>139.9</v>
       </c>
       <c r="E54" t="n">
-        <v>133.5</v>
+        <v>139.9</v>
       </c>
       <c r="F54" t="n">
-        <v>6076.1797</v>
+        <v>4704.6138</v>
       </c>
       <c r="G54" t="n">
-        <v>39593.72468273383</v>
+        <v>65314.88998273383</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2450,36 +2613,33 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>135</v>
+        <v>139.9</v>
       </c>
       <c r="C55" t="n">
-        <v>135.1</v>
+        <v>139.9</v>
       </c>
       <c r="D55" t="n">
-        <v>135.1</v>
+        <v>139.9</v>
       </c>
       <c r="E55" t="n">
-        <v>135</v>
+        <v>139.9</v>
       </c>
       <c r="F55" t="n">
-        <v>1277.0985</v>
+        <v>20559.1735</v>
       </c>
       <c r="G55" t="n">
-        <v>40870.82318273383</v>
+        <v>65314.88998273383</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2489,36 +2649,33 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>135.1</v>
+        <v>139.9</v>
       </c>
       <c r="C56" t="n">
-        <v>135</v>
+        <v>139.9</v>
       </c>
       <c r="D56" t="n">
-        <v>135.1</v>
+        <v>139.9</v>
       </c>
       <c r="E56" t="n">
-        <v>135</v>
+        <v>139.9</v>
       </c>
       <c r="F56" t="n">
-        <v>6004.9808</v>
+        <v>120.265</v>
       </c>
       <c r="G56" t="n">
-        <v>34865.84238273383</v>
+        <v>65314.88998273383</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2528,36 +2685,33 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>136</v>
+        <v>139.9</v>
       </c>
       <c r="C57" t="n">
-        <v>136.6</v>
+        <v>138.2</v>
       </c>
       <c r="D57" t="n">
-        <v>136.6</v>
+        <v>139.9</v>
       </c>
       <c r="E57" t="n">
-        <v>136</v>
+        <v>138.2</v>
       </c>
       <c r="F57" t="n">
-        <v>40.2335</v>
+        <v>600</v>
       </c>
       <c r="G57" t="n">
-        <v>34906.07588273384</v>
+        <v>64714.88998273383</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2567,36 +2721,33 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C58" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D58" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E58" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F58" t="n">
-        <v>328.4607</v>
+        <v>3.6</v>
       </c>
       <c r="G58" t="n">
-        <v>34577.61518273383</v>
+        <v>64718.48998273383</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2606,36 +2757,33 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C59" t="n">
-        <v>136.6</v>
+        <v>140</v>
       </c>
       <c r="D59" t="n">
-        <v>136.6</v>
+        <v>141</v>
       </c>
       <c r="E59" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F59" t="n">
-        <v>19.8336</v>
+        <v>694.2381</v>
       </c>
       <c r="G59" t="n">
-        <v>34597.44878273383</v>
+        <v>64024.25188273383</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2645,116 +2793,105 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>136.6</v>
+        <v>142.2</v>
       </c>
       <c r="C60" t="n">
-        <v>136.6</v>
+        <v>142.2</v>
       </c>
       <c r="D60" t="n">
-        <v>136.6</v>
+        <v>142.2</v>
       </c>
       <c r="E60" t="n">
-        <v>136.6</v>
+        <v>142.2</v>
       </c>
       <c r="F60" t="n">
-        <v>13.5668</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>34597.44878273383</v>
+        <v>64028.25188273383</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>136.6</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>136.6</v>
+        <v>142</v>
       </c>
       <c r="C61" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D61" t="n">
-        <v>136.6</v>
+        <v>142</v>
       </c>
       <c r="E61" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F61" t="n">
-        <v>713.62</v>
+        <v>32.706</v>
       </c>
       <c r="G61" t="n">
-        <v>33883.82878273383</v>
+        <v>63995.54588273383</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C62" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D62" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E62" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F62" t="n">
-        <v>727</v>
+        <v>177.875</v>
       </c>
       <c r="G62" t="n">
-        <v>33883.82878273383</v>
+        <v>63995.54588273383</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2764,36 +2901,33 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C63" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D63" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E63" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F63" t="n">
-        <v>1019.9999</v>
+        <v>164.045</v>
       </c>
       <c r="G63" t="n">
-        <v>33883.82878273383</v>
+        <v>63995.54588273383</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2803,36 +2937,33 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>135</v>
+        <v>138.3</v>
       </c>
       <c r="C64" t="n">
-        <v>135</v>
+        <v>137.4</v>
       </c>
       <c r="D64" t="n">
-        <v>135</v>
+        <v>138.3</v>
       </c>
       <c r="E64" t="n">
-        <v>135</v>
+        <v>137.4</v>
       </c>
       <c r="F64" t="n">
-        <v>3913.3787</v>
+        <v>11592.8208</v>
       </c>
       <c r="G64" t="n">
-        <v>33883.82878273383</v>
+        <v>52402.72508273383</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2842,36 +2973,33 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C65" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D65" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E65" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F65" t="n">
-        <v>389.3591</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>33883.82878273383</v>
+        <v>52407.72508273383</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2881,241 +3009,213 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C66" t="n">
-        <v>135</v>
+        <v>137.4</v>
       </c>
       <c r="D66" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E66" t="n">
-        <v>135</v>
+        <v>137.4</v>
       </c>
       <c r="F66" t="n">
-        <v>1194.9999</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>33883.82878273383</v>
+        <v>52397.72508273383</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>135</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>135</v>
+        <v>137.4</v>
       </c>
       <c r="C67" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="D67" t="n">
-        <v>135</v>
+        <v>137.4</v>
       </c>
       <c r="E67" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="F67" t="n">
-        <v>502.9999</v>
+        <v>5692.8916</v>
       </c>
       <c r="G67" t="n">
-        <v>33883.82878273383</v>
+        <v>46704.83348273383</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>135</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>135.9</v>
+        <v>137.2</v>
       </c>
       <c r="C68" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="D68" t="n">
-        <v>135.9</v>
+        <v>137.2</v>
       </c>
       <c r="E68" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="F68" t="n">
-        <v>4264.8339</v>
+        <v>3778.1309</v>
       </c>
       <c r="G68" t="n">
-        <v>33883.82878273383</v>
+        <v>46704.83348273383</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>135</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>134.5</v>
+        <v>137.2</v>
       </c>
       <c r="C69" t="n">
-        <v>134.5</v>
+        <v>137.2</v>
       </c>
       <c r="D69" t="n">
-        <v>134.5</v>
+        <v>137.2</v>
       </c>
       <c r="E69" t="n">
-        <v>134.5</v>
+        <v>137.2</v>
       </c>
       <c r="F69" t="n">
-        <v>1427.5898</v>
+        <v>2886.3769</v>
       </c>
       <c r="G69" t="n">
-        <v>32456.23898273383</v>
+        <v>46704.83348273383</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>135</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>134</v>
+        <v>137.2</v>
       </c>
       <c r="C70" t="n">
-        <v>134</v>
+        <v>137.2</v>
       </c>
       <c r="D70" t="n">
-        <v>134</v>
+        <v>137.2</v>
       </c>
       <c r="E70" t="n">
-        <v>134</v>
+        <v>137.2</v>
       </c>
       <c r="F70" t="n">
-        <v>67</v>
+        <v>19.1089</v>
       </c>
       <c r="G70" t="n">
-        <v>32389.23898273383</v>
+        <v>46704.83348273383</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>134.5</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>135</v>
+        <v>137.5</v>
       </c>
       <c r="C71" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="D71" t="n">
-        <v>135</v>
+        <v>137.5</v>
       </c>
       <c r="E71" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="F71" t="n">
-        <v>469.6645</v>
+        <v>5077.6317</v>
       </c>
       <c r="G71" t="n">
-        <v>32858.90348273383</v>
+        <v>46704.83348273383</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3125,278 +3225,267 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C72" t="n">
-        <v>135</v>
+        <v>135.9</v>
       </c>
       <c r="D72" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E72" t="n">
-        <v>135</v>
+        <v>135.9</v>
       </c>
       <c r="F72" t="n">
-        <v>778.1663</v>
+        <v>9485.1289</v>
       </c>
       <c r="G72" t="n">
-        <v>32858.90348273383</v>
+        <v>37219.70458273383</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>135</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>135</v>
+        <v>137.9</v>
       </c>
       <c r="C73" t="n">
-        <v>135</v>
+        <v>136.5</v>
       </c>
       <c r="D73" t="n">
-        <v>135</v>
+        <v>137.9</v>
       </c>
       <c r="E73" t="n">
-        <v>135</v>
+        <v>136.5</v>
       </c>
       <c r="F73" t="n">
-        <v>1005.9998</v>
+        <v>1070.3198</v>
       </c>
       <c r="G73" t="n">
-        <v>32858.90348273383</v>
+        <v>38290.02438273383</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="K73" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="C74" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="D74" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="E74" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="F74" t="n">
-        <v>241</v>
+        <v>3.9041</v>
       </c>
       <c r="G74" t="n">
-        <v>32858.90348273383</v>
+        <v>38293.92848273383</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>135.9</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>135</v>
+        <v>137.7</v>
       </c>
       <c r="C75" t="n">
-        <v>135</v>
+        <v>137.7</v>
       </c>
       <c r="D75" t="n">
-        <v>135</v>
+        <v>137.7</v>
       </c>
       <c r="E75" t="n">
-        <v>135</v>
+        <v>137.7</v>
       </c>
       <c r="F75" t="n">
-        <v>4073.6893</v>
+        <v>701.2103</v>
       </c>
       <c r="G75" t="n">
-        <v>32858.90348273383</v>
+        <v>37592.71818273383</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>135</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>135.9</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C76" t="n">
-        <v>136</v>
+        <v>139.7</v>
       </c>
       <c r="D76" t="n">
-        <v>136</v>
+        <v>139.7</v>
       </c>
       <c r="E76" t="n">
-        <v>136</v>
+        <v>138.9</v>
       </c>
       <c r="F76" t="n">
-        <v>6549.5881</v>
+        <v>1726.5207</v>
       </c>
       <c r="G76" t="n">
-        <v>39408.49158273383</v>
+        <v>39319.23888273383</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>135</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>136</v>
+        <v>139.9</v>
       </c>
       <c r="C77" t="n">
-        <v>138.5</v>
+        <v>138.6</v>
       </c>
       <c r="D77" t="n">
-        <v>138.5</v>
+        <v>140</v>
       </c>
       <c r="E77" t="n">
-        <v>136</v>
+        <v>138.6</v>
       </c>
       <c r="F77" t="n">
-        <v>25541.5443</v>
+        <v>4530.5569</v>
       </c>
       <c r="G77" t="n">
-        <v>64950.03588273383</v>
+        <v>34788.68198273383</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>136</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>138.5</v>
+        <v>139.6</v>
       </c>
       <c r="C78" t="n">
-        <v>136.7</v>
+        <v>139.6</v>
       </c>
       <c r="D78" t="n">
-        <v>142</v>
+        <v>140.7</v>
       </c>
       <c r="E78" t="n">
-        <v>136</v>
+        <v>138.7</v>
       </c>
       <c r="F78" t="n">
-        <v>7847.653</v>
+        <v>20518.8403</v>
       </c>
       <c r="G78" t="n">
-        <v>57102.38288273383</v>
+        <v>55307.52228273383</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3406,36 +3495,33 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>138.9</v>
+        <v>139.8</v>
       </c>
       <c r="C79" t="n">
-        <v>142</v>
+        <v>139.8</v>
       </c>
       <c r="D79" t="n">
-        <v>142</v>
+        <v>139.8</v>
       </c>
       <c r="E79" t="n">
-        <v>136.7</v>
+        <v>139.8</v>
       </c>
       <c r="F79" t="n">
-        <v>824.8200000000001</v>
+        <v>353</v>
       </c>
       <c r="G79" t="n">
-        <v>57927.20288273383</v>
+        <v>55660.52228273383</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3445,36 +3531,33 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>138</v>
+        <v>139.8</v>
       </c>
       <c r="C80" t="n">
-        <v>137</v>
+        <v>139.8</v>
       </c>
       <c r="D80" t="n">
-        <v>138</v>
+        <v>139.8</v>
       </c>
       <c r="E80" t="n">
-        <v>136.7</v>
+        <v>139.8</v>
       </c>
       <c r="F80" t="n">
-        <v>2721.9759</v>
+        <v>20.36</v>
       </c>
       <c r="G80" t="n">
-        <v>55205.22698273383</v>
+        <v>55660.52228273383</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3484,92 +3567,83 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>138.5</v>
+        <v>140.7</v>
       </c>
       <c r="C81" t="n">
-        <v>138.5</v>
+        <v>141</v>
       </c>
       <c r="D81" t="n">
-        <v>138.5</v>
+        <v>141</v>
       </c>
       <c r="E81" t="n">
-        <v>138.5</v>
+        <v>140.7</v>
       </c>
       <c r="F81" t="n">
-        <v>466.9489</v>
+        <v>28744.0278</v>
       </c>
       <c r="G81" t="n">
-        <v>55672.17588273383</v>
+        <v>84404.55008273383</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>138.8</v>
+        <v>141</v>
       </c>
       <c r="C82" t="n">
-        <v>137</v>
+        <v>139.8</v>
       </c>
       <c r="D82" t="n">
-        <v>138.8</v>
+        <v>144</v>
       </c>
       <c r="E82" t="n">
-        <v>137</v>
+        <v>139.8</v>
       </c>
       <c r="F82" t="n">
-        <v>4234.7532</v>
+        <v>28970.0823</v>
       </c>
       <c r="G82" t="n">
-        <v>51437.42268273384</v>
+        <v>55434.46778273383</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3579,253 +3653,235 @@
         <v>139.8</v>
       </c>
       <c r="C83" t="n">
-        <v>138.8</v>
+        <v>139.8</v>
       </c>
       <c r="D83" t="n">
         <v>139.8</v>
       </c>
       <c r="E83" t="n">
-        <v>138.8</v>
+        <v>139.8</v>
       </c>
       <c r="F83" t="n">
-        <v>5700.4969</v>
+        <v>150</v>
       </c>
       <c r="G83" t="n">
-        <v>57137.91958273383</v>
+        <v>55434.46778273383</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>141</v>
+      </c>
+      <c r="C84" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="E84" t="n">
         <v>139</v>
       </c>
-      <c r="C84" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="D84" t="n">
-        <v>139</v>
-      </c>
-      <c r="E84" t="n">
-        <v>138.8</v>
-      </c>
       <c r="F84" t="n">
-        <v>2691.2842</v>
+        <v>245.3521</v>
       </c>
       <c r="G84" t="n">
-        <v>57137.91958273383</v>
+        <v>55679.81988273383</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>137.8</v>
+        <v>141</v>
       </c>
       <c r="C85" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D85" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E85" t="n">
-        <v>137.8</v>
+        <v>141</v>
       </c>
       <c r="F85" t="n">
-        <v>17327.6993</v>
+        <v>92.5515</v>
       </c>
       <c r="G85" t="n">
-        <v>74465.61888273383</v>
+        <v>55587.26838273383</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>140.2</v>
+        <v>139</v>
       </c>
       <c r="C86" t="n">
-        <v>142.2</v>
+        <v>139</v>
       </c>
       <c r="D86" t="n">
-        <v>142.2</v>
+        <v>139</v>
       </c>
       <c r="E86" t="n">
         <v>139</v>
       </c>
       <c r="F86" t="n">
-        <v>10093.8232</v>
+        <v>5</v>
       </c>
       <c r="G86" t="n">
-        <v>84559.44208273383</v>
+        <v>55582.26838273383</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>137.2</v>
+        <v>139</v>
       </c>
       <c r="C87" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D87" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E87" t="n">
-        <v>137.2</v>
+        <v>139</v>
       </c>
       <c r="F87" t="n">
-        <v>5749.1417</v>
+        <v>250</v>
       </c>
       <c r="G87" t="n">
-        <v>78810.30038273384</v>
+        <v>55582.26838273383</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>140</v>
+        <v>138.2</v>
       </c>
       <c r="C88" t="n">
-        <v>140</v>
+        <v>137.7</v>
       </c>
       <c r="D88" t="n">
-        <v>140</v>
+        <v>138.2</v>
       </c>
       <c r="E88" t="n">
-        <v>140</v>
+        <v>137.7</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>1847.5964</v>
       </c>
       <c r="G88" t="n">
-        <v>78815.30038273384</v>
+        <v>53734.67198273382</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C89" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D89" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E89" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F89" t="n">
-        <v>1776.9814</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>78815.30038273384</v>
+        <v>53744.67198273382</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3835,153 +3891,141 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C90" t="n">
-        <v>141.2</v>
+        <v>139</v>
       </c>
       <c r="D90" t="n">
-        <v>141.2</v>
+        <v>139</v>
       </c>
       <c r="E90" t="n">
-        <v>138</v>
+        <v>136.2</v>
       </c>
       <c r="F90" t="n">
-        <v>3388.318</v>
+        <v>5350.608</v>
       </c>
       <c r="G90" t="n">
-        <v>82203.61838273384</v>
+        <v>53744.67198273382</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C91" t="n">
-        <v>138</v>
+        <v>138.8</v>
       </c>
       <c r="D91" t="n">
-        <v>139</v>
+        <v>138.8</v>
       </c>
       <c r="E91" t="n">
-        <v>138</v>
+        <v>136.2</v>
       </c>
       <c r="F91" t="n">
-        <v>168.2731</v>
+        <v>3150.7088</v>
       </c>
       <c r="G91" t="n">
-        <v>82035.34528273383</v>
+        <v>50593.96318273382</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>139</v>
+        <v>136.4</v>
       </c>
       <c r="C92" t="n">
-        <v>138</v>
+        <v>136.4</v>
       </c>
       <c r="D92" t="n">
-        <v>141.2</v>
+        <v>136.4</v>
       </c>
       <c r="E92" t="n">
-        <v>138</v>
+        <v>136.4</v>
       </c>
       <c r="F92" t="n">
-        <v>424.1089</v>
+        <v>1335</v>
       </c>
       <c r="G92" t="n">
-        <v>82035.34528273383</v>
+        <v>49258.96318273382</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>141.2</v>
+        <v>136.4</v>
       </c>
       <c r="C93" t="n">
-        <v>141.2</v>
+        <v>136.4</v>
       </c>
       <c r="D93" t="n">
-        <v>141.2</v>
+        <v>136.4</v>
       </c>
       <c r="E93" t="n">
-        <v>141.2</v>
+        <v>136.4</v>
       </c>
       <c r="F93" t="n">
-        <v>4</v>
+        <v>5577.3215</v>
       </c>
       <c r="G93" t="n">
-        <v>82039.34528273383</v>
+        <v>49258.96318273382</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3991,36 +4035,33 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>142</v>
+        <v>136.4</v>
       </c>
       <c r="C94" t="n">
-        <v>142</v>
+        <v>136.4</v>
       </c>
       <c r="D94" t="n">
-        <v>142</v>
+        <v>136.4</v>
       </c>
       <c r="E94" t="n">
-        <v>142</v>
+        <v>136.4</v>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>5000</v>
       </c>
       <c r="G94" t="n">
-        <v>82045.34528273383</v>
+        <v>49258.96318273382</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4030,36 +4071,33 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>138.2</v>
+        <v>136.4</v>
       </c>
       <c r="C95" t="n">
-        <v>138.2</v>
+        <v>137.8</v>
       </c>
       <c r="D95" t="n">
-        <v>138.2</v>
+        <v>137.8</v>
       </c>
       <c r="E95" t="n">
-        <v>138.2</v>
+        <v>136.4</v>
       </c>
       <c r="F95" t="n">
-        <v>21435.0691</v>
+        <v>2118.3375</v>
       </c>
       <c r="G95" t="n">
-        <v>60610.27618273383</v>
+        <v>51377.30068273382</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4069,36 +4107,33 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>139.9</v>
+        <v>137.8</v>
       </c>
       <c r="C96" t="n">
-        <v>139.9</v>
+        <v>137.8</v>
       </c>
       <c r="D96" t="n">
-        <v>139.9</v>
+        <v>137.8</v>
       </c>
       <c r="E96" t="n">
-        <v>139.9</v>
+        <v>137.8</v>
       </c>
       <c r="F96" t="n">
-        <v>4704.6138</v>
+        <v>419.9999</v>
       </c>
       <c r="G96" t="n">
-        <v>65314.88998273383</v>
+        <v>51377.30068273382</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4108,36 +4143,33 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>139.9</v>
+        <v>137.8</v>
       </c>
       <c r="C97" t="n">
-        <v>139.9</v>
+        <v>137.8</v>
       </c>
       <c r="D97" t="n">
-        <v>139.9</v>
+        <v>137.8</v>
       </c>
       <c r="E97" t="n">
-        <v>139.9</v>
+        <v>137.8</v>
       </c>
       <c r="F97" t="n">
-        <v>20559.1735</v>
+        <v>1749.6987</v>
       </c>
       <c r="G97" t="n">
-        <v>65314.88998273383</v>
+        <v>51377.30068273382</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4147,36 +4179,33 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>139.9</v>
+        <v>137</v>
       </c>
       <c r="C98" t="n">
-        <v>139.9</v>
+        <v>137</v>
       </c>
       <c r="D98" t="n">
-        <v>139.9</v>
+        <v>137</v>
       </c>
       <c r="E98" t="n">
-        <v>139.9</v>
+        <v>137</v>
       </c>
       <c r="F98" t="n">
-        <v>120.265</v>
+        <v>182.1546</v>
       </c>
       <c r="G98" t="n">
-        <v>65314.88998273383</v>
+        <v>51195.14608273382</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4186,36 +4215,33 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>139.9</v>
+        <v>137.8</v>
       </c>
       <c r="C99" t="n">
-        <v>138.2</v>
+        <v>137.8</v>
       </c>
       <c r="D99" t="n">
-        <v>139.9</v>
+        <v>137.8</v>
       </c>
       <c r="E99" t="n">
-        <v>138.2</v>
+        <v>137.8</v>
       </c>
       <c r="F99" t="n">
-        <v>600</v>
+        <v>798.2583454281568</v>
       </c>
       <c r="G99" t="n">
-        <v>64714.88998273383</v>
+        <v>51993.40442816198</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4225,36 +4251,33 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>141</v>
+        <v>137.8</v>
       </c>
       <c r="C100" t="n">
-        <v>141</v>
+        <v>137.8</v>
       </c>
       <c r="D100" t="n">
-        <v>141</v>
+        <v>137.8</v>
       </c>
       <c r="E100" t="n">
-        <v>141</v>
+        <v>137.8</v>
       </c>
       <c r="F100" t="n">
-        <v>3.6</v>
+        <v>290.2757619738752</v>
       </c>
       <c r="G100" t="n">
-        <v>64718.48998273383</v>
+        <v>51993.40442816198</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4264,36 +4287,33 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>141</v>
+        <v>137.8</v>
       </c>
       <c r="C101" t="n">
-        <v>140</v>
+        <v>137.8</v>
       </c>
       <c r="D101" t="n">
-        <v>141</v>
+        <v>137.8</v>
       </c>
       <c r="E101" t="n">
-        <v>140</v>
+        <v>137.8</v>
       </c>
       <c r="F101" t="n">
-        <v>694.2381</v>
+        <v>124.189</v>
       </c>
       <c r="G101" t="n">
-        <v>64024.25188273383</v>
+        <v>51993.40442816198</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4303,36 +4323,33 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>142.2</v>
+        <v>137.8</v>
       </c>
       <c r="C102" t="n">
-        <v>142.2</v>
+        <v>138.1</v>
       </c>
       <c r="D102" t="n">
-        <v>142.2</v>
+        <v>138.1</v>
       </c>
       <c r="E102" t="n">
-        <v>142.2</v>
+        <v>137.8</v>
       </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>725.5923760881925</v>
       </c>
       <c r="G102" t="n">
-        <v>64028.25188273383</v>
+        <v>52718.99680425017</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4342,1541 +4359,47 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>142</v>
+        <v>138.1</v>
       </c>
       <c r="C103" t="n">
-        <v>139</v>
+        <v>138.8</v>
       </c>
       <c r="D103" t="n">
-        <v>142</v>
+        <v>138.8</v>
       </c>
       <c r="E103" t="n">
-        <v>139</v>
+        <v>138.1</v>
       </c>
       <c r="F103" t="n">
-        <v>32.706</v>
+        <v>723.1616215530032</v>
       </c>
       <c r="G103" t="n">
-        <v>63995.54588273383</v>
+        <v>53442.15842580317</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>139</v>
-      </c>
-      <c r="C104" t="n">
-        <v>139</v>
-      </c>
-      <c r="D104" t="n">
-        <v>139</v>
-      </c>
-      <c r="E104" t="n">
-        <v>139</v>
-      </c>
-      <c r="F104" t="n">
-        <v>177.875</v>
-      </c>
-      <c r="G104" t="n">
-        <v>63995.54588273383</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>139</v>
-      </c>
-      <c r="C105" t="n">
-        <v>139</v>
-      </c>
-      <c r="D105" t="n">
-        <v>139</v>
-      </c>
-      <c r="E105" t="n">
-        <v>139</v>
-      </c>
-      <c r="F105" t="n">
-        <v>164.045</v>
-      </c>
-      <c r="G105" t="n">
-        <v>63995.54588273383</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="C106" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="D106" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="E106" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>11592.8208</v>
-      </c>
-      <c r="G106" t="n">
-        <v>52402.72508273383</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>141</v>
-      </c>
-      <c r="C107" t="n">
-        <v>141</v>
-      </c>
-      <c r="D107" t="n">
-        <v>141</v>
-      </c>
-      <c r="E107" t="n">
-        <v>141</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5</v>
-      </c>
-      <c r="G107" t="n">
-        <v>52407.72508273383</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>138</v>
-      </c>
-      <c r="C108" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="D108" t="n">
-        <v>138</v>
-      </c>
-      <c r="E108" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="F108" t="n">
-        <v>10</v>
-      </c>
-      <c r="G108" t="n">
-        <v>52397.72508273383</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="C109" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="E109" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="F109" t="n">
-        <v>5692.8916</v>
-      </c>
-      <c r="G109" t="n">
-        <v>46704.83348273383</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="F110" t="n">
-        <v>3778.1309</v>
-      </c>
-      <c r="G110" t="n">
-        <v>46704.83348273383</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2886.3769</v>
-      </c>
-      <c r="G111" t="n">
-        <v>46704.83348273383</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>19.1089</v>
-      </c>
-      <c r="G112" t="n">
-        <v>46704.83348273383</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>137.5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>137.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>5077.6317</v>
-      </c>
-      <c r="G113" t="n">
-        <v>46704.83348273383</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>137</v>
-      </c>
-      <c r="C114" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="D114" t="n">
-        <v>137</v>
-      </c>
-      <c r="E114" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="F114" t="n">
-        <v>9485.1289</v>
-      </c>
-      <c r="G114" t="n">
-        <v>37219.70458273383</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>137.9</v>
-      </c>
-      <c r="C115" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>137.9</v>
-      </c>
-      <c r="E115" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1070.3198</v>
-      </c>
-      <c r="G115" t="n">
-        <v>38290.02438273383</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="C116" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="D116" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="E116" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3.9041</v>
-      </c>
-      <c r="G116" t="n">
-        <v>38293.92848273383</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>137.7</v>
-      </c>
-      <c r="C117" t="n">
-        <v>137.7</v>
-      </c>
-      <c r="D117" t="n">
-        <v>137.7</v>
-      </c>
-      <c r="E117" t="n">
-        <v>137.7</v>
-      </c>
-      <c r="F117" t="n">
-        <v>701.2103</v>
-      </c>
-      <c r="G117" t="n">
-        <v>37592.71818273383</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>139</v>
-      </c>
-      <c r="C118" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1726.5207</v>
-      </c>
-      <c r="G118" t="n">
-        <v>39319.23888273383</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="C119" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="D119" t="n">
-        <v>140</v>
-      </c>
-      <c r="E119" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="F119" t="n">
-        <v>4530.5569</v>
-      </c>
-      <c r="G119" t="n">
-        <v>34788.68198273383</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="C120" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="D120" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="E120" t="n">
-        <v>138.7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>20518.8403</v>
-      </c>
-      <c r="G120" t="n">
-        <v>55307.52228273383</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="C121" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="D121" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="E121" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F121" t="n">
-        <v>353</v>
-      </c>
-      <c r="G121" t="n">
-        <v>55660.52228273383</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="C122" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="D122" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="E122" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F122" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="G122" t="n">
-        <v>55660.52228273383</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="C123" t="n">
-        <v>141</v>
-      </c>
-      <c r="D123" t="n">
-        <v>141</v>
-      </c>
-      <c r="E123" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="F123" t="n">
-        <v>28744.0278</v>
-      </c>
-      <c r="G123" t="n">
-        <v>84404.55008273383</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>141</v>
-      </c>
-      <c r="C124" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>144</v>
-      </c>
-      <c r="E124" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>28970.0823</v>
-      </c>
-      <c r="G124" t="n">
-        <v>55434.46778273383</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="D125" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="E125" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>150</v>
-      </c>
-      <c r="G125" t="n">
-        <v>55434.46778273383</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>141</v>
-      </c>
-      <c r="C126" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>139</v>
-      </c>
-      <c r="F126" t="n">
-        <v>245.3521</v>
-      </c>
-      <c r="G126" t="n">
-        <v>55679.81988273383</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>141</v>
-      </c>
-      <c r="C127" t="n">
-        <v>141</v>
-      </c>
-      <c r="D127" t="n">
-        <v>141</v>
-      </c>
-      <c r="E127" t="n">
-        <v>141</v>
-      </c>
-      <c r="F127" t="n">
-        <v>92.5515</v>
-      </c>
-      <c r="G127" t="n">
-        <v>55587.26838273383</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>139</v>
-      </c>
-      <c r="C128" t="n">
-        <v>139</v>
-      </c>
-      <c r="D128" t="n">
-        <v>139</v>
-      </c>
-      <c r="E128" t="n">
-        <v>139</v>
-      </c>
-      <c r="F128" t="n">
-        <v>5</v>
-      </c>
-      <c r="G128" t="n">
-        <v>55582.26838273383</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>139</v>
-      </c>
-      <c r="C129" t="n">
-        <v>139</v>
-      </c>
-      <c r="D129" t="n">
-        <v>139</v>
-      </c>
-      <c r="E129" t="n">
-        <v>139</v>
-      </c>
-      <c r="F129" t="n">
-        <v>250</v>
-      </c>
-      <c r="G129" t="n">
-        <v>55582.26838273383</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="C130" t="n">
-        <v>137.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="E130" t="n">
-        <v>137.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1847.5964</v>
-      </c>
-      <c r="G130" t="n">
-        <v>53734.67198273382</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>139</v>
-      </c>
-      <c r="C131" t="n">
-        <v>139</v>
-      </c>
-      <c r="D131" t="n">
-        <v>139</v>
-      </c>
-      <c r="E131" t="n">
-        <v>139</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10</v>
-      </c>
-      <c r="G131" t="n">
-        <v>53744.67198273382</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>139</v>
-      </c>
-      <c r="C132" t="n">
-        <v>139</v>
-      </c>
-      <c r="D132" t="n">
-        <v>139</v>
-      </c>
-      <c r="E132" t="n">
-        <v>136.2</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5350.608</v>
-      </c>
-      <c r="G132" t="n">
-        <v>53744.67198273382</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>137</v>
-      </c>
-      <c r="C133" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>136.2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>3150.7088</v>
-      </c>
-      <c r="G133" t="n">
-        <v>50593.96318273382</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="C134" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="D134" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="E134" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1335</v>
-      </c>
-      <c r="G134" t="n">
-        <v>49258.96318273382</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="C135" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="D135" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="E135" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="F135" t="n">
-        <v>5577.3215</v>
-      </c>
-      <c r="G135" t="n">
-        <v>49258.96318273382</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="C136" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="D136" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="E136" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="F136" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G136" t="n">
-        <v>49258.96318273382</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="C137" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2118.3375</v>
-      </c>
-      <c r="G137" t="n">
-        <v>51377.30068273382</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="C138" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="D138" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="E138" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="F138" t="n">
-        <v>419.9999</v>
-      </c>
-      <c r="G138" t="n">
-        <v>51377.30068273382</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1749.6987</v>
-      </c>
-      <c r="G139" t="n">
-        <v>51377.30068273382</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>137</v>
-      </c>
-      <c r="C140" t="n">
-        <v>137</v>
-      </c>
-      <c r="D140" t="n">
-        <v>137</v>
-      </c>
-      <c r="E140" t="n">
-        <v>137</v>
-      </c>
-      <c r="F140" t="n">
-        <v>182.1546</v>
-      </c>
-      <c r="G140" t="n">
-        <v>51195.14608273382</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="C141" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="F141" t="n">
-        <v>798.2583454281568</v>
-      </c>
-      <c r="G141" t="n">
-        <v>51993.40442816198</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="D142" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="E142" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>290.2757619738752</v>
-      </c>
-      <c r="G142" t="n">
-        <v>51993.40442816198</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>124.189</v>
-      </c>
-      <c r="G143" t="n">
-        <v>51993.40442816198</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="K143" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="E144" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>725.5923760881925</v>
-      </c>
-      <c r="G144" t="n">
-        <v>52718.99680425017</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="K144" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="C145" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="D145" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="E145" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="F145" t="n">
-        <v>723.1616215530032</v>
-      </c>
-      <c r="G145" t="n">
-        <v>53442.15842580317</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="K145" t="n">
-        <v>137.8</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest RDN.xlsx
+++ b/BackTest/2020-01-13 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>135.6</v>
+        <v>137.1</v>
       </c>
       <c r="C2" t="n">
-        <v>135.6</v>
+        <v>139</v>
       </c>
       <c r="D2" t="n">
-        <v>135.6</v>
+        <v>139</v>
       </c>
       <c r="E2" t="n">
-        <v>135.6</v>
+        <v>137</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5715</v>
+        <v>17467.52008273381</v>
       </c>
       <c r="G2" t="n">
-        <v>45997.96918273383</v>
+        <v>129827.9187827338</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>135.6</v>
+        <v>137</v>
       </c>
       <c r="C3" t="n">
-        <v>135.6</v>
+        <v>139</v>
       </c>
       <c r="D3" t="n">
-        <v>135.6</v>
+        <v>139</v>
       </c>
       <c r="E3" t="n">
-        <v>135.6</v>
+        <v>137</v>
       </c>
       <c r="F3" t="n">
-        <v>10.9463</v>
+        <v>8673.3446</v>
       </c>
       <c r="G3" t="n">
-        <v>45997.96918273383</v>
+        <v>129827.9187827338</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>135.6</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D4" t="n">
-        <v>135.6</v>
+        <v>139</v>
       </c>
       <c r="E4" t="n">
-        <v>134</v>
+        <v>135.5</v>
       </c>
       <c r="F4" t="n">
-        <v>10.5339</v>
+        <v>27277.9594</v>
       </c>
       <c r="G4" t="n">
-        <v>45987.43528273383</v>
+        <v>129827.9187827338</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>133.5</v>
+        <v>137</v>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
-        <v>133.5</v>
+        <v>139</v>
       </c>
       <c r="E5" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F5" t="n">
-        <v>6366.369</v>
+        <v>317</v>
       </c>
       <c r="G5" t="n">
-        <v>39621.06628273383</v>
+        <v>129827.9187827338</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>135.3</v>
+        <v>137.6</v>
       </c>
       <c r="C6" t="n">
-        <v>135.3</v>
+        <v>135.4</v>
       </c>
       <c r="D6" t="n">
-        <v>135.3</v>
+        <v>137.6</v>
       </c>
       <c r="E6" t="n">
-        <v>135.3</v>
+        <v>135.4</v>
       </c>
       <c r="F6" t="n">
-        <v>6637.4609</v>
+        <v>17644.8079</v>
       </c>
       <c r="G6" t="n">
-        <v>46258.52718273383</v>
+        <v>112183.1108827338</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>135.3</v>
+        <v>138</v>
       </c>
       <c r="C7" t="n">
-        <v>134.2</v>
+        <v>135.9</v>
       </c>
       <c r="D7" t="n">
-        <v>135.3</v>
+        <v>138</v>
       </c>
       <c r="E7" t="n">
-        <v>134.2</v>
+        <v>135.4</v>
       </c>
       <c r="F7" t="n">
-        <v>8929.6867</v>
+        <v>1995.5307</v>
       </c>
       <c r="G7" t="n">
-        <v>37328.84048273383</v>
+        <v>114178.6415827338</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,35 +654,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>135.3</v>
+        <v>135.9</v>
       </c>
       <c r="C8" t="n">
-        <v>135</v>
+        <v>136.9</v>
       </c>
       <c r="D8" t="n">
-        <v>136.6</v>
+        <v>136.9</v>
       </c>
       <c r="E8" t="n">
-        <v>135</v>
+        <v>133.6</v>
       </c>
       <c r="F8" t="n">
-        <v>39.5031</v>
+        <v>12986.4702</v>
       </c>
       <c r="G8" t="n">
-        <v>37368.34358273383</v>
+        <v>127165.1117827338</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>134.2</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -694,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135</v>
+        <v>135.8</v>
       </c>
       <c r="C9" t="n">
-        <v>135</v>
+        <v>135.8</v>
       </c>
       <c r="D9" t="n">
-        <v>135</v>
+        <v>135.8</v>
       </c>
       <c r="E9" t="n">
-        <v>135</v>
+        <v>135.8</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>622</v>
       </c>
       <c r="G9" t="n">
-        <v>37368.34358273383</v>
+        <v>126543.1117827338</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>135</v>
-      </c>
-      <c r="K9" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -738,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>133.6</v>
+        <v>135.1</v>
       </c>
       <c r="C10" t="n">
-        <v>132.5</v>
+        <v>141.8</v>
       </c>
       <c r="D10" t="n">
-        <v>133.6</v>
+        <v>141.8</v>
       </c>
       <c r="E10" t="n">
-        <v>132.5</v>
+        <v>135.1</v>
       </c>
       <c r="F10" t="n">
-        <v>4043.1982</v>
+        <v>19029.6622</v>
       </c>
       <c r="G10" t="n">
-        <v>33325.14538273383</v>
+        <v>145572.7739827338</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>135</v>
-      </c>
-      <c r="K10" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -782,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133.5</v>
+        <v>139</v>
       </c>
       <c r="C11" t="n">
-        <v>133.5</v>
+        <v>140.7</v>
       </c>
       <c r="D11" t="n">
-        <v>133.5</v>
+        <v>141.8</v>
       </c>
       <c r="E11" t="n">
-        <v>133.5</v>
+        <v>137</v>
       </c>
       <c r="F11" t="n">
-        <v>192.3996</v>
+        <v>36700.6223</v>
       </c>
       <c r="G11" t="n">
-        <v>33517.54498273383</v>
+        <v>108872.1516827338</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -826,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133.5</v>
+        <v>138</v>
       </c>
       <c r="C12" t="n">
-        <v>135</v>
+        <v>141.8</v>
       </c>
       <c r="D12" t="n">
-        <v>135</v>
+        <v>142.8</v>
       </c>
       <c r="E12" t="n">
-        <v>133.5</v>
+        <v>138</v>
       </c>
       <c r="F12" t="n">
-        <v>6076.1797</v>
+        <v>42831.4166</v>
       </c>
       <c r="G12" t="n">
-        <v>39593.72468273383</v>
+        <v>151703.5682827338</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -850,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -868,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135</v>
+        <v>139.1</v>
       </c>
       <c r="C13" t="n">
-        <v>135.1</v>
+        <v>139</v>
       </c>
       <c r="D13" t="n">
-        <v>135.1</v>
+        <v>143.9</v>
       </c>
       <c r="E13" t="n">
-        <v>135</v>
+        <v>138.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1277.0985</v>
+        <v>3412</v>
       </c>
       <c r="G13" t="n">
-        <v>40870.82318273383</v>
+        <v>148291.5682827338</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -892,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -910,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>135.1</v>
+        <v>142.9</v>
       </c>
       <c r="C14" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D14" t="n">
-        <v>135.1</v>
+        <v>142.9</v>
       </c>
       <c r="E14" t="n">
-        <v>135</v>
+        <v>137.9</v>
       </c>
       <c r="F14" t="n">
-        <v>6004.9808</v>
+        <v>11426.4055</v>
       </c>
       <c r="G14" t="n">
-        <v>34865.84238273383</v>
+        <v>159717.9737827338</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -934,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -952,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C15" t="n">
-        <v>136.6</v>
+        <v>140</v>
       </c>
       <c r="D15" t="n">
-        <v>136.6</v>
+        <v>144</v>
       </c>
       <c r="E15" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F15" t="n">
-        <v>40.2335</v>
+        <v>52946.5195</v>
       </c>
       <c r="G15" t="n">
-        <v>34906.07588273384</v>
+        <v>159717.9737827338</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>135</v>
-      </c>
-      <c r="K15" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -996,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C16" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D16" t="n">
-        <v>135</v>
+        <v>141.9</v>
       </c>
       <c r="E16" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F16" t="n">
-        <v>328.4607</v>
+        <v>29327.135</v>
       </c>
       <c r="G16" t="n">
-        <v>34577.61518273383</v>
+        <v>130390.8387827338</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1020,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1038,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C17" t="n">
-        <v>136.6</v>
+        <v>141.7</v>
       </c>
       <c r="D17" t="n">
-        <v>136.6</v>
+        <v>141.7</v>
       </c>
       <c r="E17" t="n">
-        <v>135</v>
+        <v>137.1</v>
       </c>
       <c r="F17" t="n">
-        <v>19.8336</v>
+        <v>17424.7032</v>
       </c>
       <c r="G17" t="n">
-        <v>34597.44878273383</v>
+        <v>147815.5419827338</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1062,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1080,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>136.6</v>
+        <v>140.7</v>
       </c>
       <c r="C18" t="n">
-        <v>136.6</v>
+        <v>140</v>
       </c>
       <c r="D18" t="n">
-        <v>136.6</v>
+        <v>140.7</v>
       </c>
       <c r="E18" t="n">
-        <v>136.6</v>
+        <v>137.1</v>
       </c>
       <c r="F18" t="n">
-        <v>13.5668</v>
+        <v>14273.3014</v>
       </c>
       <c r="G18" t="n">
-        <v>34597.44878273383</v>
+        <v>133542.2405827338</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1104,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>136.6</v>
+        <v>140.7</v>
       </c>
       <c r="C19" t="n">
-        <v>135</v>
+        <v>141.7</v>
       </c>
       <c r="D19" t="n">
-        <v>136.6</v>
+        <v>141.7</v>
       </c>
       <c r="E19" t="n">
-        <v>135</v>
+        <v>140.7</v>
       </c>
       <c r="F19" t="n">
-        <v>713.62</v>
+        <v>423</v>
       </c>
       <c r="G19" t="n">
-        <v>33883.82878273383</v>
+        <v>133965.2405827338</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1146,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1164,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>135</v>
+        <v>139.1</v>
       </c>
       <c r="C20" t="n">
-        <v>135</v>
+        <v>139.1</v>
       </c>
       <c r="D20" t="n">
-        <v>135</v>
+        <v>139.1</v>
       </c>
       <c r="E20" t="n">
-        <v>135</v>
+        <v>139.1</v>
       </c>
       <c r="F20" t="n">
-        <v>727</v>
+        <v>229</v>
       </c>
       <c r="G20" t="n">
-        <v>33883.82878273383</v>
+        <v>133736.2405827338</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1188,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1206,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>135</v>
+        <v>138.1</v>
       </c>
       <c r="C21" t="n">
-        <v>135</v>
+        <v>141.8</v>
       </c>
       <c r="D21" t="n">
-        <v>135</v>
+        <v>141.8</v>
       </c>
       <c r="E21" t="n">
-        <v>135</v>
+        <v>138.1</v>
       </c>
       <c r="F21" t="n">
-        <v>1019.9999</v>
+        <v>3899.179</v>
       </c>
       <c r="G21" t="n">
-        <v>33883.82878273383</v>
+        <v>137635.4195827338</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1230,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1248,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C22" t="n">
-        <v>135</v>
+        <v>141.8</v>
       </c>
       <c r="D22" t="n">
-        <v>135</v>
+        <v>141.8</v>
       </c>
       <c r="E22" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F22" t="n">
-        <v>3913.3787</v>
+        <v>3287.8123</v>
       </c>
       <c r="G22" t="n">
-        <v>33883.82878273383</v>
+        <v>137635.4195827338</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1272,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1290,38 +1194,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>135</v>
+        <v>139.1</v>
       </c>
       <c r="C23" t="n">
-        <v>135</v>
+        <v>139.2</v>
       </c>
       <c r="D23" t="n">
-        <v>135</v>
+        <v>141.8</v>
       </c>
       <c r="E23" t="n">
-        <v>135</v>
+        <v>139.1</v>
       </c>
       <c r="F23" t="n">
-        <v>389.3591</v>
+        <v>1683.41</v>
       </c>
       <c r="G23" t="n">
-        <v>33883.82878273383</v>
+        <v>135952.0095827338</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1332,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C24" t="n">
-        <v>135</v>
+        <v>139.1</v>
       </c>
       <c r="D24" t="n">
-        <v>135</v>
+        <v>141.8</v>
       </c>
       <c r="E24" t="n">
-        <v>135</v>
+        <v>139.1</v>
       </c>
       <c r="F24" t="n">
-        <v>1194.9999</v>
+        <v>6648.1148</v>
       </c>
       <c r="G24" t="n">
-        <v>33883.82878273383</v>
+        <v>129303.8947827338</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1356,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1374,40 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>135</v>
+        <v>138.1</v>
       </c>
       <c r="C25" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D25" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E25" t="n">
-        <v>135</v>
+        <v>137.7</v>
       </c>
       <c r="F25" t="n">
-        <v>502.9999</v>
+        <v>10075.1566</v>
       </c>
       <c r="G25" t="n">
-        <v>33883.82878273383</v>
+        <v>139379.0513827338</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>135</v>
-      </c>
-      <c r="K25" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1418,40 +1302,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>135.9</v>
+        <v>140</v>
       </c>
       <c r="C26" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D26" t="n">
-        <v>135.9</v>
+        <v>140.7</v>
       </c>
       <c r="E26" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F26" t="n">
-        <v>4264.8339</v>
+        <v>72.32989999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>33883.82878273383</v>
+        <v>139379.0513827338</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>135</v>
-      </c>
-      <c r="K26" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1462,40 +1338,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>134.5</v>
+        <v>139.8</v>
       </c>
       <c r="C27" t="n">
-        <v>134.5</v>
+        <v>139</v>
       </c>
       <c r="D27" t="n">
-        <v>134.5</v>
+        <v>139.8</v>
       </c>
       <c r="E27" t="n">
-        <v>134.5</v>
+        <v>139</v>
       </c>
       <c r="F27" t="n">
-        <v>1427.5898</v>
+        <v>281.8359</v>
       </c>
       <c r="G27" t="n">
-        <v>32456.23898273383</v>
+        <v>139097.2154827338</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>135</v>
-      </c>
-      <c r="K27" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1506,40 +1374,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C28" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D28" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E28" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F28" t="n">
-        <v>67</v>
+        <v>143.1641</v>
       </c>
       <c r="G28" t="n">
-        <v>32389.23898273383</v>
+        <v>139097.2154827338</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1550,40 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="C29" t="n">
-        <v>135</v>
+        <v>136.5</v>
       </c>
       <c r="D29" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="E29" t="n">
-        <v>135</v>
+        <v>136.5</v>
       </c>
       <c r="F29" t="n">
-        <v>469.6645</v>
+        <v>6817.7376</v>
       </c>
       <c r="G29" t="n">
-        <v>32858.90348273383</v>
+        <v>132279.4778827338</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>134</v>
-      </c>
-      <c r="K29" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1594,40 +1446,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="C30" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="D30" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="E30" t="n">
-        <v>135</v>
+        <v>136.5</v>
       </c>
       <c r="F30" t="n">
-        <v>778.1663</v>
+        <v>25395.6198</v>
       </c>
       <c r="G30" t="n">
-        <v>32858.90348273383</v>
+        <v>157675.0976827338</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>135</v>
-      </c>
-      <c r="K30" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1638,40 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="C31" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="D31" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="E31" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="F31" t="n">
-        <v>1005.9998</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>32858.90348273383</v>
+        <v>157675.0976827338</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>135</v>
-      </c>
-      <c r="K31" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1682,40 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="C32" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="D32" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="E32" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="F32" t="n">
-        <v>241</v>
+        <v>148.5283</v>
       </c>
       <c r="G32" t="n">
-        <v>32858.90348273383</v>
+        <v>157675.0976827338</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>135</v>
-      </c>
-      <c r="K32" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1726,40 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="C33" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="D33" t="n">
-        <v>135</v>
+        <v>138.9</v>
       </c>
       <c r="E33" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="F33" t="n">
-        <v>4073.6893</v>
+        <v>1836.6092</v>
       </c>
       <c r="G33" t="n">
-        <v>32858.90348273383</v>
+        <v>157675.0976827338</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>135</v>
-      </c>
-      <c r="K33" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1770,40 +1590,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>136</v>
+        <v>137.2</v>
       </c>
       <c r="C34" t="n">
         <v>136</v>
       </c>
       <c r="D34" t="n">
-        <v>136</v>
+        <v>137.2</v>
       </c>
       <c r="E34" t="n">
         <v>136</v>
       </c>
       <c r="F34" t="n">
-        <v>6549.5881</v>
+        <v>55747.2115</v>
       </c>
       <c r="G34" t="n">
-        <v>39408.49158273383</v>
+        <v>101927.8861827338</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>135</v>
-      </c>
-      <c r="K34" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1814,38 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>136</v>
+        <v>135.1</v>
       </c>
       <c r="C35" t="n">
-        <v>138.5</v>
+        <v>135</v>
       </c>
       <c r="D35" t="n">
-        <v>138.5</v>
+        <v>135.1</v>
       </c>
       <c r="E35" t="n">
-        <v>136</v>
+        <v>134.1</v>
       </c>
       <c r="F35" t="n">
-        <v>25541.5443</v>
+        <v>16254.5898</v>
       </c>
       <c r="G35" t="n">
-        <v>64950.03588273383</v>
+        <v>85673.29638273378</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1856,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>138.5</v>
+        <v>135</v>
       </c>
       <c r="C36" t="n">
-        <v>136.7</v>
+        <v>135</v>
       </c>
       <c r="D36" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E36" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F36" t="n">
-        <v>7847.653</v>
+        <v>123</v>
       </c>
       <c r="G36" t="n">
-        <v>57102.38288273383</v>
+        <v>85673.29638273378</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1880,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1898,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>138.9</v>
+        <v>134.8</v>
       </c>
       <c r="C37" t="n">
-        <v>142</v>
+        <v>134.1</v>
       </c>
       <c r="D37" t="n">
-        <v>142</v>
+        <v>137.9</v>
       </c>
       <c r="E37" t="n">
-        <v>136.7</v>
+        <v>134.1</v>
       </c>
       <c r="F37" t="n">
-        <v>824.8200000000001</v>
+        <v>5401</v>
       </c>
       <c r="G37" t="n">
-        <v>57927.20288273383</v>
+        <v>80272.29638273378</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1922,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1940,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>138</v>
+        <v>135.8</v>
       </c>
       <c r="C38" t="n">
-        <v>137</v>
+        <v>135.8</v>
       </c>
       <c r="D38" t="n">
-        <v>138</v>
+        <v>135.8</v>
       </c>
       <c r="E38" t="n">
-        <v>136.7</v>
+        <v>135.8</v>
       </c>
       <c r="F38" t="n">
-        <v>2721.9759</v>
+        <v>8459.4923</v>
       </c>
       <c r="G38" t="n">
-        <v>55205.22698273383</v>
+        <v>88731.78868273378</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1964,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1982,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>138.5</v>
+        <v>136.6</v>
       </c>
       <c r="C39" t="n">
-        <v>138.5</v>
+        <v>135</v>
       </c>
       <c r="D39" t="n">
-        <v>138.5</v>
+        <v>136.6</v>
       </c>
       <c r="E39" t="n">
-        <v>138.5</v>
+        <v>135</v>
       </c>
       <c r="F39" t="n">
-        <v>466.9489</v>
+        <v>3376.5466</v>
       </c>
       <c r="G39" t="n">
-        <v>55672.17588273383</v>
+        <v>85355.24208273378</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2006,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2024,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>138.8</v>
+        <v>135</v>
       </c>
       <c r="C40" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40" t="n">
-        <v>138.8</v>
+        <v>135</v>
       </c>
       <c r="E40" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F40" t="n">
-        <v>4234.7532</v>
+        <v>12.3305</v>
       </c>
       <c r="G40" t="n">
-        <v>51437.42268273384</v>
+        <v>85355.24208273378</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2048,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2066,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>139.8</v>
+        <v>133.1</v>
       </c>
       <c r="C41" t="n">
-        <v>138.8</v>
+        <v>133</v>
       </c>
       <c r="D41" t="n">
-        <v>139.8</v>
+        <v>133.1</v>
       </c>
       <c r="E41" t="n">
-        <v>138.8</v>
+        <v>133</v>
       </c>
       <c r="F41" t="n">
-        <v>5700.4969</v>
+        <v>3482.2644</v>
       </c>
       <c r="G41" t="n">
-        <v>57137.91958273383</v>
+        <v>81872.97768273378</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2090,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2108,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C42" t="n">
-        <v>138.8</v>
+        <v>135</v>
       </c>
       <c r="D42" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E42" t="n">
-        <v>138.8</v>
+        <v>133</v>
       </c>
       <c r="F42" t="n">
-        <v>2691.2842</v>
+        <v>3925.6815</v>
       </c>
       <c r="G42" t="n">
-        <v>57137.91958273383</v>
+        <v>85798.65918273378</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2132,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2150,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>137.8</v>
+        <v>133.2</v>
       </c>
       <c r="C43" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D43" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E43" t="n">
-        <v>137.8</v>
+        <v>133.2</v>
       </c>
       <c r="F43" t="n">
-        <v>17327.6993</v>
+        <v>1081.717</v>
       </c>
       <c r="G43" t="n">
-        <v>74465.61888273383</v>
+        <v>85798.65918273378</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2174,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2192,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>140.2</v>
+        <v>135</v>
       </c>
       <c r="C44" t="n">
-        <v>142.2</v>
+        <v>135</v>
       </c>
       <c r="D44" t="n">
-        <v>142.2</v>
+        <v>135</v>
       </c>
       <c r="E44" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F44" t="n">
-        <v>10093.8232</v>
+        <v>1988.2682</v>
       </c>
       <c r="G44" t="n">
-        <v>84559.44208273383</v>
+        <v>85798.65918273378</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2216,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2234,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>137.2</v>
+        <v>135</v>
       </c>
       <c r="C45" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" t="n">
-        <v>140</v>
+        <v>137.8</v>
       </c>
       <c r="E45" t="n">
-        <v>137.2</v>
+        <v>135</v>
       </c>
       <c r="F45" t="n">
-        <v>5749.1417</v>
+        <v>4168.6659</v>
       </c>
       <c r="G45" t="n">
-        <v>78810.30038273384</v>
+        <v>89967.32508273379</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2258,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2276,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>140</v>
+        <v>133.5</v>
       </c>
       <c r="C46" t="n">
-        <v>140</v>
+        <v>134.4</v>
       </c>
       <c r="D46" t="n">
-        <v>140</v>
+        <v>134.4</v>
       </c>
       <c r="E46" t="n">
-        <v>140</v>
+        <v>133.5</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>1781.6332</v>
       </c>
       <c r="G46" t="n">
-        <v>78815.30038273384</v>
+        <v>88185.69188273379</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2300,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2318,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>140</v>
+        <v>135.4</v>
       </c>
       <c r="C47" t="n">
-        <v>140</v>
+        <v>135.4</v>
       </c>
       <c r="D47" t="n">
-        <v>140</v>
+        <v>135.4</v>
       </c>
       <c r="E47" t="n">
-        <v>140</v>
+        <v>134.4</v>
       </c>
       <c r="F47" t="n">
-        <v>1776.9814</v>
+        <v>4876.911</v>
       </c>
       <c r="G47" t="n">
-        <v>78815.30038273384</v>
+        <v>93062.6028827338</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2342,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2360,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>140</v>
+        <v>135.4</v>
       </c>
       <c r="C48" t="n">
-        <v>141.2</v>
+        <v>135.5</v>
       </c>
       <c r="D48" t="n">
-        <v>141.2</v>
+        <v>135.5</v>
       </c>
       <c r="E48" t="n">
-        <v>138</v>
+        <v>135.4</v>
       </c>
       <c r="F48" t="n">
-        <v>3388.318</v>
+        <v>6769.4839</v>
       </c>
       <c r="G48" t="n">
-        <v>82203.61838273384</v>
+        <v>99832.08678273381</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2384,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2402,40 +2130,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>139</v>
+        <v>135.5</v>
       </c>
       <c r="C49" t="n">
-        <v>138</v>
+        <v>137.8</v>
       </c>
       <c r="D49" t="n">
-        <v>139</v>
+        <v>137.8</v>
       </c>
       <c r="E49" t="n">
-        <v>138</v>
+        <v>135.5</v>
       </c>
       <c r="F49" t="n">
-        <v>168.2731</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>82035.34528273383</v>
+        <v>99842.08678273381</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>1.023315946348733</v>
+        <v>1</v>
       </c>
       <c r="N49" t="inlineStr"/>
     </row>
@@ -2444,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>139</v>
+        <v>136.5</v>
       </c>
       <c r="C50" t="n">
-        <v>138</v>
+        <v>136.6</v>
       </c>
       <c r="D50" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="E50" t="n">
-        <v>138</v>
+        <v>136.5</v>
       </c>
       <c r="F50" t="n">
-        <v>424.1089</v>
+        <v>11288.6263</v>
       </c>
       <c r="G50" t="n">
-        <v>82035.34528273383</v>
+        <v>88553.4604827338</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2480,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>141.2</v>
+        <v>136</v>
       </c>
       <c r="C51" t="n">
-        <v>141.2</v>
+        <v>135</v>
       </c>
       <c r="D51" t="n">
-        <v>141.2</v>
+        <v>136</v>
       </c>
       <c r="E51" t="n">
-        <v>141.2</v>
+        <v>135</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>619.5599999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>82039.34528273383</v>
+        <v>87933.90048273381</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2516,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C52" t="n">
-        <v>142</v>
+        <v>134.4</v>
       </c>
       <c r="D52" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E52" t="n">
-        <v>142</v>
+        <v>134.4</v>
       </c>
       <c r="F52" t="n">
-        <v>6</v>
+        <v>4206.8869</v>
       </c>
       <c r="G52" t="n">
-        <v>82045.34528273383</v>
+        <v>83727.01358273381</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2552,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>138.2</v>
+        <v>135</v>
       </c>
       <c r="C53" t="n">
-        <v>138.2</v>
+        <v>135</v>
       </c>
       <c r="D53" t="n">
-        <v>138.2</v>
+        <v>135</v>
       </c>
       <c r="E53" t="n">
-        <v>138.2</v>
+        <v>135</v>
       </c>
       <c r="F53" t="n">
-        <v>21435.0691</v>
+        <v>66.2641</v>
       </c>
       <c r="G53" t="n">
-        <v>60610.27618273383</v>
+        <v>83793.27768273381</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2588,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>139.9</v>
+        <v>133.5</v>
       </c>
       <c r="C54" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="D54" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="E54" t="n">
-        <v>139.9</v>
+        <v>133.5</v>
       </c>
       <c r="F54" t="n">
-        <v>4704.6138</v>
+        <v>6217.7623</v>
       </c>
       <c r="G54" t="n">
-        <v>65314.88998273383</v>
+        <v>83793.27768273381</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2624,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="C55" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="D55" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="E55" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="F55" t="n">
-        <v>20559.1735</v>
+        <v>0.0003</v>
       </c>
       <c r="G55" t="n">
-        <v>65314.88998273383</v>
+        <v>83793.27768273381</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2660,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="C56" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="D56" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="E56" t="n">
-        <v>139.9</v>
+        <v>135</v>
       </c>
       <c r="F56" t="n">
-        <v>120.265</v>
+        <v>271.7429</v>
       </c>
       <c r="G56" t="n">
-        <v>65314.88998273383</v>
+        <v>83793.27768273381</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2696,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>139.9</v>
+        <v>136.4</v>
       </c>
       <c r="C57" t="n">
-        <v>138.2</v>
+        <v>136.4</v>
       </c>
       <c r="D57" t="n">
-        <v>139.9</v>
+        <v>136.4</v>
       </c>
       <c r="E57" t="n">
-        <v>138.2</v>
+        <v>136.4</v>
       </c>
       <c r="F57" t="n">
-        <v>600</v>
+        <v>2882.1618</v>
       </c>
       <c r="G57" t="n">
-        <v>64714.88998273383</v>
+        <v>86675.43948273381</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2732,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>141</v>
+        <v>133.8</v>
       </c>
       <c r="C58" t="n">
-        <v>141</v>
+        <v>133.7</v>
       </c>
       <c r="D58" t="n">
-        <v>141</v>
+        <v>133.8</v>
       </c>
       <c r="E58" t="n">
-        <v>141</v>
+        <v>133.7</v>
       </c>
       <c r="F58" t="n">
-        <v>3.6</v>
+        <v>117.5066</v>
       </c>
       <c r="G58" t="n">
-        <v>64718.48998273383</v>
+        <v>86557.93288273382</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2768,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>141</v>
+        <v>134.9</v>
       </c>
       <c r="C59" t="n">
-        <v>140</v>
+        <v>133.8</v>
       </c>
       <c r="D59" t="n">
-        <v>141</v>
+        <v>134.9</v>
       </c>
       <c r="E59" t="n">
-        <v>140</v>
+        <v>133.8</v>
       </c>
       <c r="F59" t="n">
-        <v>694.2381</v>
+        <v>2516.028</v>
       </c>
       <c r="G59" t="n">
-        <v>64024.25188273383</v>
+        <v>89073.96088273382</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2804,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>142.2</v>
+        <v>133.8</v>
       </c>
       <c r="C60" t="n">
-        <v>142.2</v>
+        <v>133.7</v>
       </c>
       <c r="D60" t="n">
-        <v>142.2</v>
+        <v>133.8</v>
       </c>
       <c r="E60" t="n">
-        <v>142.2</v>
+        <v>133.7</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>5190.4834</v>
       </c>
       <c r="G60" t="n">
-        <v>64028.25188273383</v>
+        <v>83883.47748273383</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2840,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>142</v>
+        <v>133.8</v>
       </c>
       <c r="C61" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D61" t="n">
-        <v>142</v>
+        <v>133.8</v>
       </c>
       <c r="E61" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F61" t="n">
-        <v>32.706</v>
+        <v>15722.2715</v>
       </c>
       <c r="G61" t="n">
-        <v>63995.54588273383</v>
+        <v>68161.20598273382</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2876,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>139</v>
+        <v>134.5</v>
       </c>
       <c r="C62" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D62" t="n">
-        <v>139</v>
+        <v>134.5</v>
       </c>
       <c r="E62" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F62" t="n">
-        <v>177.875</v>
+        <v>9399.4221</v>
       </c>
       <c r="G62" t="n">
-        <v>63995.54588273383</v>
+        <v>68161.20598273382</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2912,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>139</v>
+        <v>133.1</v>
       </c>
       <c r="C63" t="n">
-        <v>139</v>
+        <v>132.8</v>
       </c>
       <c r="D63" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E63" t="n">
-        <v>139</v>
+        <v>132.8</v>
       </c>
       <c r="F63" t="n">
-        <v>164.045</v>
+        <v>11971.2</v>
       </c>
       <c r="G63" t="n">
-        <v>63995.54588273383</v>
+        <v>56190.00598273383</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2948,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>138.3</v>
+        <v>134</v>
       </c>
       <c r="C64" t="n">
-        <v>137.4</v>
+        <v>135</v>
       </c>
       <c r="D64" t="n">
-        <v>138.3</v>
+        <v>135</v>
       </c>
       <c r="E64" t="n">
-        <v>137.4</v>
+        <v>134</v>
       </c>
       <c r="F64" t="n">
-        <v>11592.8208</v>
+        <v>177.5103</v>
       </c>
       <c r="G64" t="n">
-        <v>52402.72508273383</v>
+        <v>56367.51628273383</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2984,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C65" t="n">
-        <v>141</v>
+        <v>133.5</v>
       </c>
       <c r="D65" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E65" t="n">
-        <v>141</v>
+        <v>132.7</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>14884.0074</v>
       </c>
       <c r="G65" t="n">
-        <v>52407.72508273383</v>
+        <v>41483.50888273383</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3020,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>138</v>
+        <v>133.5</v>
       </c>
       <c r="C66" t="n">
-        <v>137.4</v>
+        <v>134</v>
       </c>
       <c r="D66" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E66" t="n">
-        <v>137.4</v>
+        <v>133.5</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>941.9544</v>
       </c>
       <c r="G66" t="n">
-        <v>52397.72508273383</v>
+        <v>42425.46328273383</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3056,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>137.4</v>
+        <v>133.5</v>
       </c>
       <c r="C67" t="n">
-        <v>137.2</v>
+        <v>133.5</v>
       </c>
       <c r="D67" t="n">
-        <v>137.4</v>
+        <v>133.5</v>
       </c>
       <c r="E67" t="n">
-        <v>137.2</v>
+        <v>133.5</v>
       </c>
       <c r="F67" t="n">
-        <v>5692.8916</v>
+        <v>361</v>
       </c>
       <c r="G67" t="n">
-        <v>46704.83348273383</v>
+        <v>42064.46328273383</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3092,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>137.2</v>
+        <v>134.1</v>
       </c>
       <c r="C68" t="n">
-        <v>137.2</v>
+        <v>134.1</v>
       </c>
       <c r="D68" t="n">
-        <v>137.2</v>
+        <v>134.1</v>
       </c>
       <c r="E68" t="n">
-        <v>137.2</v>
+        <v>134.1</v>
       </c>
       <c r="F68" t="n">
-        <v>3778.1309</v>
+        <v>425.1275</v>
       </c>
       <c r="G68" t="n">
-        <v>46704.83348273383</v>
+        <v>42489.59078273383</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3128,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>137.2</v>
+        <v>132.6</v>
       </c>
       <c r="C69" t="n">
-        <v>137.2</v>
+        <v>132.6</v>
       </c>
       <c r="D69" t="n">
-        <v>137.2</v>
+        <v>132.6</v>
       </c>
       <c r="E69" t="n">
-        <v>137.2</v>
+        <v>132.6</v>
       </c>
       <c r="F69" t="n">
-        <v>2886.3769</v>
+        <v>3.8</v>
       </c>
       <c r="G69" t="n">
-        <v>46704.83348273383</v>
+        <v>42485.79078273383</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3164,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>137.2</v>
+        <v>133.8</v>
       </c>
       <c r="C70" t="n">
-        <v>137.2</v>
+        <v>133.5</v>
       </c>
       <c r="D70" t="n">
-        <v>137.2</v>
+        <v>133.8</v>
       </c>
       <c r="E70" t="n">
-        <v>137.2</v>
+        <v>133.5</v>
       </c>
       <c r="F70" t="n">
-        <v>19.1089</v>
+        <v>2737.137</v>
       </c>
       <c r="G70" t="n">
-        <v>46704.83348273383</v>
+        <v>45222.92778273383</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3200,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>137.5</v>
+        <v>133.7</v>
       </c>
       <c r="C71" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="D71" t="n">
-        <v>137.5</v>
+        <v>133.7</v>
       </c>
       <c r="E71" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="F71" t="n">
-        <v>5077.6317</v>
+        <v>2088</v>
       </c>
       <c r="G71" t="n">
-        <v>46704.83348273383</v>
+        <v>47310.92778273383</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3236,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>137</v>
+        <v>133.4</v>
       </c>
       <c r="C72" t="n">
-        <v>135.9</v>
+        <v>133.4</v>
       </c>
       <c r="D72" t="n">
-        <v>137</v>
+        <v>133.4</v>
       </c>
       <c r="E72" t="n">
-        <v>135.9</v>
+        <v>133.4</v>
       </c>
       <c r="F72" t="n">
-        <v>9485.1289</v>
+        <v>1316.5301</v>
       </c>
       <c r="G72" t="n">
-        <v>37219.70458273383</v>
+        <v>45994.39768273383</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3272,35 +2994,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>137.9</v>
+        <v>135.6</v>
       </c>
       <c r="C73" t="n">
-        <v>136.5</v>
+        <v>135.6</v>
       </c>
       <c r="D73" t="n">
-        <v>137.9</v>
+        <v>135.6</v>
       </c>
       <c r="E73" t="n">
-        <v>136.5</v>
+        <v>135.6</v>
       </c>
       <c r="F73" t="n">
-        <v>1070.3198</v>
+        <v>3.5715</v>
       </c>
       <c r="G73" t="n">
-        <v>38290.02438273383</v>
+        <v>45997.96918273383</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="K73" t="n">
-        <v>135.9</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
@@ -3312,40 +3030,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="C74" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="D74" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="E74" t="n">
-        <v>138.9</v>
+        <v>135.6</v>
       </c>
       <c r="F74" t="n">
-        <v>3.9041</v>
+        <v>10.9463</v>
       </c>
       <c r="G74" t="n">
-        <v>38293.92848273383</v>
+        <v>45997.96918273383</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="K74" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3356,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>137.7</v>
+        <v>135.6</v>
       </c>
       <c r="C75" t="n">
-        <v>137.7</v>
+        <v>134</v>
       </c>
       <c r="D75" t="n">
-        <v>137.7</v>
+        <v>135.6</v>
       </c>
       <c r="E75" t="n">
-        <v>137.7</v>
+        <v>134</v>
       </c>
       <c r="F75" t="n">
-        <v>701.2103</v>
+        <v>10.5339</v>
       </c>
       <c r="G75" t="n">
-        <v>37592.71818273383</v>
+        <v>45987.43528273383</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3380,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3398,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>139</v>
+        <v>133.5</v>
       </c>
       <c r="C76" t="n">
-        <v>139.7</v>
+        <v>133</v>
       </c>
       <c r="D76" t="n">
-        <v>139.7</v>
+        <v>133.5</v>
       </c>
       <c r="E76" t="n">
-        <v>138.9</v>
+        <v>133</v>
       </c>
       <c r="F76" t="n">
-        <v>1726.5207</v>
+        <v>6366.369</v>
       </c>
       <c r="G76" t="n">
-        <v>39319.23888273383</v>
+        <v>39621.06628273383</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3434,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>139.9</v>
+        <v>135.3</v>
       </c>
       <c r="C77" t="n">
-        <v>138.6</v>
+        <v>135.3</v>
       </c>
       <c r="D77" t="n">
-        <v>140</v>
+        <v>135.3</v>
       </c>
       <c r="E77" t="n">
-        <v>138.6</v>
+        <v>135.3</v>
       </c>
       <c r="F77" t="n">
-        <v>4530.5569</v>
+        <v>6637.4609</v>
       </c>
       <c r="G77" t="n">
-        <v>34788.68198273383</v>
+        <v>46258.52718273383</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3470,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>139.6</v>
+        <v>135.3</v>
       </c>
       <c r="C78" t="n">
-        <v>139.6</v>
+        <v>134.2</v>
       </c>
       <c r="D78" t="n">
-        <v>140.7</v>
+        <v>135.3</v>
       </c>
       <c r="E78" t="n">
-        <v>138.7</v>
+        <v>134.2</v>
       </c>
       <c r="F78" t="n">
-        <v>20518.8403</v>
+        <v>8929.6867</v>
       </c>
       <c r="G78" t="n">
-        <v>55307.52228273383</v>
+        <v>37328.84048273383</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3506,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>139.8</v>
+        <v>135.3</v>
       </c>
       <c r="C79" t="n">
-        <v>139.8</v>
+        <v>135</v>
       </c>
       <c r="D79" t="n">
-        <v>139.8</v>
+        <v>136.6</v>
       </c>
       <c r="E79" t="n">
-        <v>139.8</v>
+        <v>135</v>
       </c>
       <c r="F79" t="n">
-        <v>353</v>
+        <v>39.5031</v>
       </c>
       <c r="G79" t="n">
-        <v>55660.52228273383</v>
+        <v>37368.34358273383</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3542,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>139.8</v>
+        <v>135</v>
       </c>
       <c r="C80" t="n">
-        <v>139.8</v>
+        <v>135</v>
       </c>
       <c r="D80" t="n">
-        <v>139.8</v>
+        <v>135</v>
       </c>
       <c r="E80" t="n">
-        <v>139.8</v>
+        <v>135</v>
       </c>
       <c r="F80" t="n">
-        <v>20.36</v>
+        <v>15</v>
       </c>
       <c r="G80" t="n">
-        <v>55660.52228273383</v>
+        <v>37368.34358273383</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3578,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>140.7</v>
+        <v>133.6</v>
       </c>
       <c r="C81" t="n">
-        <v>141</v>
+        <v>132.5</v>
       </c>
       <c r="D81" t="n">
-        <v>141</v>
+        <v>133.6</v>
       </c>
       <c r="E81" t="n">
-        <v>140.7</v>
+        <v>132.5</v>
       </c>
       <c r="F81" t="n">
-        <v>28744.0278</v>
+        <v>4043.1982</v>
       </c>
       <c r="G81" t="n">
-        <v>84404.55008273383</v>
+        <v>33325.14538273383</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3614,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>141</v>
+        <v>133.5</v>
       </c>
       <c r="C82" t="n">
-        <v>139.8</v>
+        <v>133.5</v>
       </c>
       <c r="D82" t="n">
-        <v>144</v>
+        <v>133.5</v>
       </c>
       <c r="E82" t="n">
-        <v>139.8</v>
+        <v>133.5</v>
       </c>
       <c r="F82" t="n">
-        <v>28970.0823</v>
+        <v>192.3996</v>
       </c>
       <c r="G82" t="n">
-        <v>55434.46778273383</v>
+        <v>33517.54498273383</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3650,28 +3354,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>139.8</v>
+        <v>133.5</v>
       </c>
       <c r="C83" t="n">
-        <v>139.8</v>
+        <v>135</v>
       </c>
       <c r="D83" t="n">
-        <v>139.8</v>
+        <v>135</v>
       </c>
       <c r="E83" t="n">
-        <v>139.8</v>
+        <v>133.5</v>
       </c>
       <c r="F83" t="n">
-        <v>150</v>
+        <v>6076.1797</v>
       </c>
       <c r="G83" t="n">
-        <v>55434.46778273383</v>
+        <v>39593.72468273383</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3686,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C84" t="n">
-        <v>142.1</v>
+        <v>135.1</v>
       </c>
       <c r="D84" t="n">
-        <v>142.1</v>
+        <v>135.1</v>
       </c>
       <c r="E84" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F84" t="n">
-        <v>245.3521</v>
+        <v>1277.0985</v>
       </c>
       <c r="G84" t="n">
-        <v>55679.81988273383</v>
+        <v>40870.82318273383</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3722,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>141</v>
+        <v>135.1</v>
       </c>
       <c r="C85" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D85" t="n">
-        <v>141</v>
+        <v>135.1</v>
       </c>
       <c r="E85" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F85" t="n">
-        <v>92.5515</v>
+        <v>6004.9808</v>
       </c>
       <c r="G85" t="n">
-        <v>55587.26838273383</v>
+        <v>34865.84238273383</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3758,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C86" t="n">
-        <v>139</v>
+        <v>136.6</v>
       </c>
       <c r="D86" t="n">
-        <v>139</v>
+        <v>136.6</v>
       </c>
       <c r="E86" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>40.2335</v>
       </c>
       <c r="G86" t="n">
-        <v>55582.26838273383</v>
+        <v>34906.07588273384</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3794,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C87" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D87" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E87" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>328.4607</v>
       </c>
       <c r="G87" t="n">
-        <v>55582.26838273383</v>
+        <v>34577.61518273383</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3830,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>138.2</v>
+        <v>135</v>
       </c>
       <c r="C88" t="n">
-        <v>137.7</v>
+        <v>136.6</v>
       </c>
       <c r="D88" t="n">
-        <v>138.2</v>
+        <v>136.6</v>
       </c>
       <c r="E88" t="n">
-        <v>137.7</v>
+        <v>135</v>
       </c>
       <c r="F88" t="n">
-        <v>1847.5964</v>
+        <v>19.8336</v>
       </c>
       <c r="G88" t="n">
-        <v>53734.67198273382</v>
+        <v>34597.44878273383</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3866,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>139</v>
+        <v>136.6</v>
       </c>
       <c r="C89" t="n">
-        <v>139</v>
+        <v>136.6</v>
       </c>
       <c r="D89" t="n">
-        <v>139</v>
+        <v>136.6</v>
       </c>
       <c r="E89" t="n">
-        <v>139</v>
+        <v>136.6</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>13.5668</v>
       </c>
       <c r="G89" t="n">
-        <v>53744.67198273382</v>
+        <v>34597.44878273383</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3902,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>139</v>
+        <v>136.6</v>
       </c>
       <c r="C90" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D90" t="n">
-        <v>139</v>
+        <v>136.6</v>
       </c>
       <c r="E90" t="n">
-        <v>136.2</v>
+        <v>135</v>
       </c>
       <c r="F90" t="n">
-        <v>5350.608</v>
+        <v>713.62</v>
       </c>
       <c r="G90" t="n">
-        <v>53744.67198273382</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3938,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C91" t="n">
-        <v>138.8</v>
+        <v>135</v>
       </c>
       <c r="D91" t="n">
-        <v>138.8</v>
+        <v>135</v>
       </c>
       <c r="E91" t="n">
-        <v>136.2</v>
+        <v>135</v>
       </c>
       <c r="F91" t="n">
-        <v>3150.7088</v>
+        <v>727</v>
       </c>
       <c r="G91" t="n">
-        <v>50593.96318273382</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3974,28 +3678,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="C92" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="D92" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="E92" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="F92" t="n">
-        <v>1335</v>
+        <v>1019.9999</v>
       </c>
       <c r="G92" t="n">
-        <v>49258.96318273382</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4010,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="C93" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="D93" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="E93" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="F93" t="n">
-        <v>5577.3215</v>
+        <v>3913.3787</v>
       </c>
       <c r="G93" t="n">
-        <v>49258.96318273382</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4046,31 +3750,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="C94" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="D94" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="E94" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="F94" t="n">
-        <v>5000</v>
+        <v>389.3591</v>
       </c>
       <c r="G94" t="n">
-        <v>49258.96318273382</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>135</v>
+      </c>
+      <c r="K94" t="n">
+        <v>135</v>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
@@ -4082,32 +3790,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="C95" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="D95" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="E95" t="n">
-        <v>136.4</v>
+        <v>135</v>
       </c>
       <c r="F95" t="n">
-        <v>2118.3375</v>
+        <v>1194.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>51377.30068273382</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>135</v>
+      </c>
+      <c r="K95" t="n">
+        <v>135</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4118,32 +3834,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="C96" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="D96" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="E96" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="F96" t="n">
-        <v>419.9999</v>
+        <v>502.9999</v>
       </c>
       <c r="G96" t="n">
-        <v>51377.30068273382</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>135</v>
+      </c>
+      <c r="K96" t="n">
+        <v>135</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4154,32 +3878,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>137.8</v>
+        <v>135.9</v>
       </c>
       <c r="C97" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="D97" t="n">
-        <v>137.8</v>
+        <v>135.9</v>
       </c>
       <c r="E97" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="F97" t="n">
-        <v>1749.6987</v>
+        <v>4264.8339</v>
       </c>
       <c r="G97" t="n">
-        <v>51377.30068273382</v>
+        <v>33883.82878273383</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>135</v>
+      </c>
+      <c r="K97" t="n">
+        <v>135</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4190,32 +3922,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>137</v>
+        <v>134.5</v>
       </c>
       <c r="C98" t="n">
-        <v>137</v>
+        <v>134.5</v>
       </c>
       <c r="D98" t="n">
-        <v>137</v>
+        <v>134.5</v>
       </c>
       <c r="E98" t="n">
-        <v>137</v>
+        <v>134.5</v>
       </c>
       <c r="F98" t="n">
-        <v>182.1546</v>
+        <v>1427.5898</v>
       </c>
       <c r="G98" t="n">
-        <v>51195.14608273382</v>
+        <v>32456.23898273383</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>135</v>
+      </c>
+      <c r="K98" t="n">
+        <v>135</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4226,32 +3966,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>137.8</v>
+        <v>134</v>
       </c>
       <c r="C99" t="n">
-        <v>137.8</v>
+        <v>134</v>
       </c>
       <c r="D99" t="n">
-        <v>137.8</v>
+        <v>134</v>
       </c>
       <c r="E99" t="n">
-        <v>137.8</v>
+        <v>134</v>
       </c>
       <c r="F99" t="n">
-        <v>798.2583454281568</v>
+        <v>67</v>
       </c>
       <c r="G99" t="n">
-        <v>51993.40442816198</v>
+        <v>32389.23898273383</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>135</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4262,32 +4010,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="C100" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="D100" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="E100" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="F100" t="n">
-        <v>290.2757619738752</v>
+        <v>469.6645</v>
       </c>
       <c r="G100" t="n">
-        <v>51993.40442816198</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>134</v>
+      </c>
+      <c r="K100" t="n">
+        <v>135</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4298,32 +4054,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="C101" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="D101" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="E101" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="F101" t="n">
-        <v>124.189</v>
+        <v>778.1663</v>
       </c>
       <c r="G101" t="n">
-        <v>51993.40442816198</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>135</v>
+      </c>
+      <c r="K101" t="n">
+        <v>135</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4334,32 +4098,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="C102" t="n">
-        <v>138.1</v>
+        <v>135</v>
       </c>
       <c r="D102" t="n">
-        <v>138.1</v>
+        <v>135</v>
       </c>
       <c r="E102" t="n">
-        <v>137.8</v>
+        <v>135</v>
       </c>
       <c r="F102" t="n">
-        <v>725.5923760881925</v>
+        <v>1005.9998</v>
       </c>
       <c r="G102" t="n">
-        <v>52718.99680425017</v>
+        <v>32858.90348273383</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>135</v>
+      </c>
+      <c r="K102" t="n">
+        <v>135</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4370,36 +4142,2678 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>135</v>
+      </c>
+      <c r="C103" t="n">
+        <v>135</v>
+      </c>
+      <c r="D103" t="n">
+        <v>135</v>
+      </c>
+      <c r="E103" t="n">
+        <v>135</v>
+      </c>
+      <c r="F103" t="n">
+        <v>241</v>
+      </c>
+      <c r="G103" t="n">
+        <v>32858.90348273383</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>135</v>
+      </c>
+      <c r="K103" t="n">
+        <v>135</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>135</v>
+      </c>
+      <c r="C104" t="n">
+        <v>135</v>
+      </c>
+      <c r="D104" t="n">
+        <v>135</v>
+      </c>
+      <c r="E104" t="n">
+        <v>135</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4073.6893</v>
+      </c>
+      <c r="G104" t="n">
+        <v>32858.90348273383</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>135</v>
+      </c>
+      <c r="K104" t="n">
+        <v>135</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>136</v>
+      </c>
+      <c r="C105" t="n">
+        <v>136</v>
+      </c>
+      <c r="D105" t="n">
+        <v>136</v>
+      </c>
+      <c r="E105" t="n">
+        <v>136</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6549.5881</v>
+      </c>
+      <c r="G105" t="n">
+        <v>39408.49158273383</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>135</v>
+      </c>
+      <c r="K105" t="n">
+        <v>135</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>136</v>
+      </c>
+      <c r="C106" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>136</v>
+      </c>
+      <c r="F106" t="n">
+        <v>25541.5443</v>
+      </c>
+      <c r="G106" t="n">
+        <v>64950.03588273383</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>136</v>
+      </c>
+      <c r="K106" t="n">
+        <v>135</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>142</v>
+      </c>
+      <c r="E107" t="n">
+        <v>136</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7847.653</v>
+      </c>
+      <c r="G107" t="n">
+        <v>57102.38288273383</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>135</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="C108" t="n">
+        <v>142</v>
+      </c>
+      <c r="D108" t="n">
+        <v>142</v>
+      </c>
+      <c r="E108" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>824.8200000000001</v>
+      </c>
+      <c r="G108" t="n">
+        <v>57927.20288273383</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>135</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>138</v>
+      </c>
+      <c r="C109" t="n">
+        <v>137</v>
+      </c>
+      <c r="D109" t="n">
+        <v>138</v>
+      </c>
+      <c r="E109" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2721.9759</v>
+      </c>
+      <c r="G109" t="n">
+        <v>55205.22698273383</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>135</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>466.9489</v>
+      </c>
+      <c r="G110" t="n">
+        <v>55672.17588273383</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>135</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="C111" t="n">
+        <v>137</v>
+      </c>
+      <c r="D111" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="E111" t="n">
+        <v>137</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4234.7532</v>
+      </c>
+      <c r="G111" t="n">
+        <v>51437.42268273384</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>135</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5700.4969</v>
+      </c>
+      <c r="G112" t="n">
+        <v>57137.91958273383</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>135</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>139</v>
+      </c>
+      <c r="C113" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>139</v>
+      </c>
+      <c r="E113" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2691.2842</v>
+      </c>
+      <c r="G113" t="n">
+        <v>57137.91958273383</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>135</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>139</v>
+      </c>
+      <c r="D114" t="n">
+        <v>143</v>
+      </c>
+      <c r="E114" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>17327.6993</v>
+      </c>
+      <c r="G114" t="n">
+        <v>74465.61888273383</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>135</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>139</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10093.8232</v>
+      </c>
+      <c r="G115" t="n">
+        <v>84559.44208273383</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>135</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1.048333333333333</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>138</v>
+      </c>
+      <c r="D116" t="n">
+        <v>140</v>
+      </c>
+      <c r="E116" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5749.1417</v>
+      </c>
+      <c r="G116" t="n">
+        <v>78810.30038273384</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>140</v>
+      </c>
+      <c r="C117" t="n">
+        <v>140</v>
+      </c>
+      <c r="D117" t="n">
+        <v>140</v>
+      </c>
+      <c r="E117" t="n">
+        <v>140</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>78815.30038273384</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>140</v>
+      </c>
+      <c r="C118" t="n">
+        <v>140</v>
+      </c>
+      <c r="D118" t="n">
+        <v>140</v>
+      </c>
+      <c r="E118" t="n">
+        <v>140</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1776.9814</v>
+      </c>
+      <c r="G118" t="n">
+        <v>78815.30038273384</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>140</v>
+      </c>
+      <c r="C119" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>138</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3388.318</v>
+      </c>
+      <c r="G119" t="n">
+        <v>82203.61838273384</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>139</v>
+      </c>
+      <c r="C120" t="n">
+        <v>138</v>
+      </c>
+      <c r="D120" t="n">
+        <v>139</v>
+      </c>
+      <c r="E120" t="n">
+        <v>138</v>
+      </c>
+      <c r="F120" t="n">
+        <v>168.2731</v>
+      </c>
+      <c r="G120" t="n">
+        <v>82035.34528273383</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>139</v>
+      </c>
+      <c r="C121" t="n">
+        <v>138</v>
+      </c>
+      <c r="D121" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>138</v>
+      </c>
+      <c r="F121" t="n">
+        <v>424.1089</v>
+      </c>
+      <c r="G121" t="n">
+        <v>82035.34528273383</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4</v>
+      </c>
+      <c r="G122" t="n">
+        <v>82039.34528273383</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>142</v>
+      </c>
+      <c r="C123" t="n">
+        <v>142</v>
+      </c>
+      <c r="D123" t="n">
+        <v>142</v>
+      </c>
+      <c r="E123" t="n">
+        <v>142</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6</v>
+      </c>
+      <c r="G123" t="n">
+        <v>82045.34528273383</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>21435.0691</v>
+      </c>
+      <c r="G124" t="n">
+        <v>60610.27618273383</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="C125" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4704.6138</v>
+      </c>
+      <c r="G125" t="n">
+        <v>65314.88998273383</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>20559.1735</v>
+      </c>
+      <c r="G126" t="n">
+        <v>65314.88998273383</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>120.265</v>
+      </c>
+      <c r="G127" t="n">
+        <v>65314.88998273383</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>600</v>
+      </c>
+      <c r="G128" t="n">
+        <v>64714.88998273383</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>141</v>
+      </c>
+      <c r="C129" t="n">
+        <v>141</v>
+      </c>
+      <c r="D129" t="n">
+        <v>141</v>
+      </c>
+      <c r="E129" t="n">
+        <v>141</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G129" t="n">
+        <v>64718.48998273383</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>141</v>
+      </c>
+      <c r="C130" t="n">
+        <v>140</v>
+      </c>
+      <c r="D130" t="n">
+        <v>141</v>
+      </c>
+      <c r="E130" t="n">
+        <v>140</v>
+      </c>
+      <c r="F130" t="n">
+        <v>694.2381</v>
+      </c>
+      <c r="G130" t="n">
+        <v>64024.25188273383</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4</v>
+      </c>
+      <c r="G131" t="n">
+        <v>64028.25188273383</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>142</v>
+      </c>
+      <c r="C132" t="n">
+        <v>139</v>
+      </c>
+      <c r="D132" t="n">
+        <v>142</v>
+      </c>
+      <c r="E132" t="n">
+        <v>139</v>
+      </c>
+      <c r="F132" t="n">
+        <v>32.706</v>
+      </c>
+      <c r="G132" t="n">
+        <v>63995.54588273383</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>139</v>
+      </c>
+      <c r="C133" t="n">
+        <v>139</v>
+      </c>
+      <c r="D133" t="n">
+        <v>139</v>
+      </c>
+      <c r="E133" t="n">
+        <v>139</v>
+      </c>
+      <c r="F133" t="n">
+        <v>177.875</v>
+      </c>
+      <c r="G133" t="n">
+        <v>63995.54588273383</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>139</v>
+      </c>
+      <c r="C134" t="n">
+        <v>139</v>
+      </c>
+      <c r="D134" t="n">
+        <v>139</v>
+      </c>
+      <c r="E134" t="n">
+        <v>139</v>
+      </c>
+      <c r="F134" t="n">
+        <v>164.045</v>
+      </c>
+      <c r="G134" t="n">
+        <v>63995.54588273383</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>11592.8208</v>
+      </c>
+      <c r="G135" t="n">
+        <v>52402.72508273383</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>141</v>
+      </c>
+      <c r="C136" t="n">
+        <v>141</v>
+      </c>
+      <c r="D136" t="n">
+        <v>141</v>
+      </c>
+      <c r="E136" t="n">
+        <v>141</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5</v>
+      </c>
+      <c r="G136" t="n">
+        <v>52407.72508273383</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>138</v>
+      </c>
+      <c r="C137" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>138</v>
+      </c>
+      <c r="E137" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>52397.72508273383</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5692.8916</v>
+      </c>
+      <c r="G138" t="n">
+        <v>46704.83348273383</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3778.1309</v>
+      </c>
+      <c r="G139" t="n">
+        <v>46704.83348273383</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2886.3769</v>
+      </c>
+      <c r="G140" t="n">
+        <v>46704.83348273383</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>19.1089</v>
+      </c>
+      <c r="G141" t="n">
+        <v>46704.83348273383</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5077.6317</v>
+      </c>
+      <c r="G142" t="n">
+        <v>46704.83348273383</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>137</v>
+      </c>
+      <c r="C143" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>137</v>
+      </c>
+      <c r="E143" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9485.1289</v>
+      </c>
+      <c r="G143" t="n">
+        <v>37219.70458273383</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1070.3198</v>
+      </c>
+      <c r="G144" t="n">
+        <v>38290.02438273383</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3.9041</v>
+      </c>
+      <c r="G145" t="n">
+        <v>38293.92848273383</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>701.2103</v>
+      </c>
+      <c r="G146" t="n">
+        <v>37592.71818273383</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>139</v>
+      </c>
+      <c r="C147" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1726.5207</v>
+      </c>
+      <c r="G147" t="n">
+        <v>39319.23888273383</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>140</v>
+      </c>
+      <c r="E148" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4530.5569</v>
+      </c>
+      <c r="G148" t="n">
+        <v>34788.68198273383</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>20518.8403</v>
+      </c>
+      <c r="G149" t="n">
+        <v>55307.52228273383</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>353</v>
+      </c>
+      <c r="G150" t="n">
+        <v>55660.52228273383</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="G151" t="n">
+        <v>55660.52228273383</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>141</v>
+      </c>
+      <c r="D152" t="n">
+        <v>141</v>
+      </c>
+      <c r="E152" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>28744.0278</v>
+      </c>
+      <c r="G152" t="n">
+        <v>84404.55008273383</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>141</v>
+      </c>
+      <c r="C153" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>144</v>
+      </c>
+      <c r="E153" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>28970.0823</v>
+      </c>
+      <c r="G153" t="n">
+        <v>55434.46778273383</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>150</v>
+      </c>
+      <c r="G154" t="n">
+        <v>55434.46778273383</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>141</v>
+      </c>
+      <c r="C155" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>139</v>
+      </c>
+      <c r="F155" t="n">
+        <v>245.3521</v>
+      </c>
+      <c r="G155" t="n">
+        <v>55679.81988273383</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>141</v>
+      </c>
+      <c r="C156" t="n">
+        <v>141</v>
+      </c>
+      <c r="D156" t="n">
+        <v>141</v>
+      </c>
+      <c r="E156" t="n">
+        <v>141</v>
+      </c>
+      <c r="F156" t="n">
+        <v>92.5515</v>
+      </c>
+      <c r="G156" t="n">
+        <v>55587.26838273383</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>139</v>
+      </c>
+      <c r="C157" t="n">
+        <v>139</v>
+      </c>
+      <c r="D157" t="n">
+        <v>139</v>
+      </c>
+      <c r="E157" t="n">
+        <v>139</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5</v>
+      </c>
+      <c r="G157" t="n">
+        <v>55582.26838273383</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>139</v>
+      </c>
+      <c r="C158" t="n">
+        <v>139</v>
+      </c>
+      <c r="D158" t="n">
+        <v>139</v>
+      </c>
+      <c r="E158" t="n">
+        <v>139</v>
+      </c>
+      <c r="F158" t="n">
+        <v>250</v>
+      </c>
+      <c r="G158" t="n">
+        <v>55582.26838273383</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1847.5964</v>
+      </c>
+      <c r="G159" t="n">
+        <v>53734.67198273382</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>139</v>
+      </c>
+      <c r="C160" t="n">
+        <v>139</v>
+      </c>
+      <c r="D160" t="n">
+        <v>139</v>
+      </c>
+      <c r="E160" t="n">
+        <v>139</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>53744.67198273382</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>139</v>
+      </c>
+      <c r="C161" t="n">
+        <v>139</v>
+      </c>
+      <c r="D161" t="n">
+        <v>139</v>
+      </c>
+      <c r="E161" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5350.608</v>
+      </c>
+      <c r="G161" t="n">
+        <v>53744.67198273382</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>137</v>
+      </c>
+      <c r="C162" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3150.7088</v>
+      </c>
+      <c r="G162" t="n">
+        <v>50593.96318273382</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1335</v>
+      </c>
+      <c r="G163" t="n">
+        <v>49258.96318273382</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C164" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5577.3215</v>
+      </c>
+      <c r="G164" t="n">
+        <v>49258.96318273382</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>49258.96318273382</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C166" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2118.3375</v>
+      </c>
+      <c r="G166" t="n">
+        <v>51377.30068273382</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>419.9999</v>
+      </c>
+      <c r="G167" t="n">
+        <v>51377.30068273382</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E168" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1749.6987</v>
+      </c>
+      <c r="G168" t="n">
+        <v>51377.30068273382</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>137</v>
+      </c>
+      <c r="C169" t="n">
+        <v>137</v>
+      </c>
+      <c r="D169" t="n">
+        <v>137</v>
+      </c>
+      <c r="E169" t="n">
+        <v>137</v>
+      </c>
+      <c r="F169" t="n">
+        <v>182.1546</v>
+      </c>
+      <c r="G169" t="n">
+        <v>51195.14608273382</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>798.2583454281568</v>
+      </c>
+      <c r="G170" t="n">
+        <v>51993.40442816198</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>290.2757619738752</v>
+      </c>
+      <c r="G171" t="n">
+        <v>51993.40442816198</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>124.189</v>
+      </c>
+      <c r="G172" t="n">
+        <v>51993.40442816198</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C173" t="n">
         <v>138.1</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D173" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>725.5923760881925</v>
+      </c>
+      <c r="G173" t="n">
+        <v>52718.99680425017</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="C174" t="n">
         <v>138.8</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D174" t="n">
         <v>138.8</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E174" t="n">
         <v>138.1</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F174" t="n">
         <v>723.1616215530032</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G174" t="n">
         <v>53442.15842580317</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest RDN.xlsx
+++ b/BackTest/2020-01-13 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>45222.92778273383</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>45997.96918273383</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,21 @@
         <v>39593.72468273383</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>133.5</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3165,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3202,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3237,21 @@
         <v>34906.07588273384</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3278,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3315,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3350,19 @@
         <v>34597.44878273383</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3387,19 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3426,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3463,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3500,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,20 +3537,17 @@
       <c r="H94" t="n">
         <v>1</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>135</v>
-      </c>
-      <c r="K94" t="n">
-        <v>135</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3808,26 +3572,21 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>135</v>
-      </c>
-      <c r="K95" t="n">
-        <v>135</v>
-      </c>
-      <c r="L95" t="inlineStr">
+        <v>135</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3854,24 +3613,17 @@
       <c r="H96" t="n">
         <v>1</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>135</v>
-      </c>
-      <c r="K96" t="n">
-        <v>135</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3898,24 +3650,17 @@
       <c r="H97" t="n">
         <v>1</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>135</v>
-      </c>
-      <c r="K97" t="n">
-        <v>135</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3942,24 +3687,17 @@
       <c r="H98" t="n">
         <v>1</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>135</v>
-      </c>
-      <c r="K98" t="n">
-        <v>135</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3986,24 +3724,17 @@
       <c r="H99" t="n">
         <v>1</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>135</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4030,24 +3761,17 @@
       <c r="H100" t="n">
         <v>1</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>134</v>
-      </c>
-      <c r="K100" t="n">
-        <v>135</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4074,24 +3798,17 @@
       <c r="H101" t="n">
         <v>1</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>135</v>
-      </c>
-      <c r="K101" t="n">
-        <v>135</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4118,24 +3835,17 @@
       <c r="H102" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>135</v>
-      </c>
-      <c r="K102" t="n">
-        <v>135</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4160,26 +3870,21 @@
         <v>32858.90348273383</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>135</v>
-      </c>
-      <c r="K103" t="n">
-        <v>135</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>135</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4206,24 +3911,17 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>135</v>
-      </c>
-      <c r="K104" t="n">
-        <v>135</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4248,26 +3946,21 @@
         <v>39408.49158273383</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>135</v>
-      </c>
-      <c r="K105" t="n">
-        <v>135</v>
-      </c>
-      <c r="L105" t="inlineStr">
+        <v>135</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4294,24 +3987,17 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>136</v>
-      </c>
-      <c r="K106" t="n">
-        <v>135</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4336,24 +4022,21 @@
         <v>57102.38288273383</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>138.5</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>135</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4378,24 +4061,19 @@
         <v>57927.20288273383</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>135</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4420,24 +4098,19 @@
         <v>55205.22698273383</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>135</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4464,22 +4137,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>135</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4504,24 +4172,17 @@
         <v>51437.42268273384</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>135</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4546,24 +4207,15 @@
         <v>57137.91958273383</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>135</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4588,24 +4240,15 @@
         <v>57137.91958273383</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>135</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4630,24 +4273,15 @@
         <v>74465.61888273383</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>135</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4672,24 +4306,15 @@
         <v>84559.44208273383</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>135</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1.048333333333333</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4714,18 +4339,15 @@
         <v>78810.30038273384</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4752,16 +4374,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4788,16 +4407,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4824,16 +4440,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4858,18 +4471,15 @@
         <v>82035.34528273383</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4894,18 +4504,15 @@
         <v>82035.34528273383</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4930,18 +4537,15 @@
         <v>82039.34528273383</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4966,18 +4570,15 @@
         <v>82045.34528273383</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5002,18 +4603,15 @@
         <v>60610.27618273383</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5038,18 +4636,15 @@
         <v>65314.88998273383</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5074,18 +4669,15 @@
         <v>65314.88998273383</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5110,18 +4702,15 @@
         <v>65314.88998273383</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5146,18 +4735,15 @@
         <v>64714.88998273383</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5182,18 +4768,15 @@
         <v>64718.48998273383</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5218,18 +4801,15 @@
         <v>64024.25188273383</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5254,18 +4834,15 @@
         <v>64028.25188273383</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5290,18 +4867,15 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5326,18 +4900,15 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5362,18 +4933,15 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5400,16 +4968,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5436,16 +5001,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5472,16 +5034,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5508,16 +5067,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5544,16 +5100,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5580,16 +5133,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5616,16 +5166,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5652,16 +5199,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5688,16 +5232,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5724,16 +5265,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5760,16 +5298,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5796,16 +5331,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5832,16 +5364,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5868,16 +5397,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5904,16 +5430,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5940,16 +5463,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5976,16 +5496,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6012,16 +5529,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6048,16 +5562,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6084,16 +5595,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6120,16 +5628,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6156,16 +5661,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6192,16 +5694,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6228,16 +5727,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6264,16 +5760,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6300,16 +5793,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6336,16 +5826,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6372,16 +5859,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6408,16 +5892,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6444,16 +5925,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6480,16 +5958,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6516,16 +5991,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6552,16 +6024,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6588,16 +6057,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6624,16 +6090,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6660,16 +6123,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6696,16 +6156,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6732,16 +6189,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6768,16 +6222,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6804,18 +6255,15 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest RDN.xlsx
+++ b/BackTest/2020-01-13 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>129827.9187827338</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>129827.9187827338</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>139</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>129827.9187827338</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>139</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +566,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +603,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +640,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +677,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +714,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +751,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +788,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +825,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +862,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +899,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +936,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +973,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1010,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1047,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,14 +1080,16 @@
         <v>133965.2405827338</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1078,7 +1148,7 @@
         <v>137635.4195827338</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1181,7 @@
         <v>137635.4195827338</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1214,7 @@
         <v>135952.0095827338</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1247,7 @@
         <v>129303.8947827338</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1280,7 @@
         <v>139379.0513827338</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1313,7 @@
         <v>139379.0513827338</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1346,7 @@
         <v>139097.2154827338</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1379,7 @@
         <v>139097.2154827338</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1412,7 @@
         <v>132279.4778827338</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1445,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1478,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1511,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1544,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1577,7 @@
         <v>101927.8861827338</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1610,7 @@
         <v>85673.29638273378</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1643,7 @@
         <v>85673.29638273378</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1676,7 @@
         <v>80272.29638273378</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1709,7 @@
         <v>88731.78868273378</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1742,7 @@
         <v>85355.24208273378</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1775,7 @@
         <v>85355.24208273378</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1808,7 @@
         <v>81872.97768273378</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1841,7 @@
         <v>85798.65918273378</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1874,7 @@
         <v>85798.65918273378</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1907,7 @@
         <v>85798.65918273378</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1940,7 @@
         <v>89967.32508273379</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1973,7 @@
         <v>88185.69188273379</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2006,7 @@
         <v>93062.6028827338</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2039,7 @@
         <v>99832.08678273381</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2072,7 @@
         <v>99842.08678273381</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2105,7 @@
         <v>88553.4604827338</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2138,7 @@
         <v>87933.90048273381</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2171,7 @@
         <v>83727.01358273381</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2204,7 @@
         <v>83793.27768273381</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2237,7 @@
         <v>83793.27768273381</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2270,7 @@
         <v>83793.27768273381</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2303,7 @@
         <v>83793.27768273381</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2336,7 @@
         <v>86675.43948273381</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2369,7 @@
         <v>86557.93288273382</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2402,7 @@
         <v>89073.96088273382</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2435,7 @@
         <v>83883.47748273383</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2468,7 @@
         <v>68161.20598273382</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2501,7 @@
         <v>68161.20598273382</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2534,7 @@
         <v>56190.00598273383</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2567,7 @@
         <v>56367.51628273383</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2695,7 +2765,7 @@
         <v>45222.92778273383</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2827,7 +2897,7 @@
         <v>45997.96918273383</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3124,17 +3194,11 @@
         <v>39593.72468273383</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>133.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3167,11 +3231,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3204,11 +3264,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3237,17 +3293,11 @@
         <v>34906.07588273384</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3280,11 +3330,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3317,11 +3363,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3350,15 +3392,11 @@
         <v>34597.44878273383</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3387,15 +3425,11 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3428,11 +3462,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3465,11 +3495,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3502,11 +3528,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3535,15 +3557,11 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3572,17 +3590,11 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3613,13 +3625,13 @@
       <c r="H96" t="n">
         <v>1</v>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I96" t="n">
+        <v>135</v>
+      </c>
+      <c r="J96" t="n">
+        <v>135</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3648,13 +3660,15 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>135</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3685,10 +3699,12 @@
         <v>32456.23898273383</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>135</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3722,10 +3738,12 @@
         <v>32389.23898273383</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3761,8 +3779,12 @@
       <c r="H100" t="n">
         <v>1</v>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>134</v>
+      </c>
+      <c r="J100" t="n">
+        <v>135</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,8 +3820,12 @@
       <c r="H101" t="n">
         <v>1</v>
       </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>135</v>
+      </c>
+      <c r="J101" t="n">
+        <v>135</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,8 +3861,12 @@
       <c r="H102" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>135</v>
+      </c>
+      <c r="J102" t="n">
+        <v>135</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,12 +3900,14 @@
         <v>32858.90348273383</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>135</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>135</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3911,8 +3943,12 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>135</v>
+      </c>
+      <c r="J104" t="n">
+        <v>135</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3946,12 +3982,14 @@
         <v>39408.49158273383</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>135</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>135</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,8 +4025,12 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>136</v>
+      </c>
+      <c r="J106" t="n">
+        <v>135</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4022,12 +4064,14 @@
         <v>57102.38288273383</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>138.5</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>135</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,8 +4107,12 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="J108" t="n">
+        <v>135</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,10 +4146,12 @@
         <v>55205.22698273383</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>135</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,7 +4188,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>135</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,16 +4224,20 @@
         <v>51437.42268273384</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>135</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
       <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -4209,9 +4265,17 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>137</v>
+      </c>
+      <c r="J112" t="n">
+        <v>135</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4240,11 +4304,17 @@
         <v>57137.91958273383</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>135</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4273,11 +4343,17 @@
         <v>74465.61888273383</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>135</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4306,11 +4382,17 @@
         <v>84559.44208273383</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>135</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4339,11 +4421,17 @@
         <v>78810.30038273384</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>135</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4375,8 +4463,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>135</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4408,8 +4502,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>135</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4441,8 +4541,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>135</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4471,11 +4577,17 @@
         <v>82035.34528273383</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>135</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4504,11 +4616,17 @@
         <v>82035.34528273383</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>135</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4537,11 +4655,17 @@
         <v>82039.34528273383</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>135</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4570,11 +4694,17 @@
         <v>82045.34528273383</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>135</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4603,11 +4733,17 @@
         <v>60610.27618273383</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>135</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4636,11 +4772,17 @@
         <v>65314.88998273383</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>135</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4669,11 +4811,17 @@
         <v>65314.88998273383</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>135</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4702,11 +4850,17 @@
         <v>65314.88998273383</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>135</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4735,11 +4889,17 @@
         <v>64714.88998273383</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>135</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4768,11 +4928,17 @@
         <v>64718.48998273383</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>135</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4801,11 +4967,17 @@
         <v>64024.25188273383</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>135</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4834,11 +5006,17 @@
         <v>64028.25188273383</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>135</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4867,11 +5045,17 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>135</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4900,11 +5084,17 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>135</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4933,11 +5123,17 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>135</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4969,8 +5165,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>135</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5002,8 +5204,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>135</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5035,8 +5243,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>135</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5068,8 +5282,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>135</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5101,8 +5321,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>135</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5134,8 +5360,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>135</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5167,8 +5399,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>135</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5200,8 +5438,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>135</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5233,8 +5477,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>135</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5266,8 +5516,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>135</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5299,8 +5555,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>135</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5332,8 +5594,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>135</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5365,8 +5633,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>135</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5398,8 +5672,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>135</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5431,8 +5711,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>135</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +5750,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>135</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +5789,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>135</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5530,8 +5828,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>135</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5563,8 +5867,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>135</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5596,8 +5906,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>135</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5629,8 +5945,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>135</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5662,8 +5984,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>135</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5695,8 +6023,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>135</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5728,8 +6062,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>135</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5761,8 +6101,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>135</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5794,8 +6140,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>135</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5827,8 +6179,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>135</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5860,8 +6218,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>135</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5893,8 +6257,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>135</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5926,8 +6296,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>135</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5959,8 +6335,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>135</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5992,8 +6374,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>135</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6025,8 +6413,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>135</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6058,8 +6452,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>135</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6091,8 +6491,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>135</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6124,8 +6530,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>135</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6157,8 +6569,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>135</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6190,8 +6608,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>135</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6223,8 +6647,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>135</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6256,14 +6686,20 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>135</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
       <c r="M174" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest RDN.xlsx
+++ b/BackTest/2020-01-13 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>129827.9187827338</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>129827.9187827338</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>129827.9187827338</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,15 +550,11 @@
         <v>129827.9187827338</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -599,15 +583,11 @@
         <v>112183.1108827338</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -751,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -788,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -825,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -862,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -899,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -936,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -973,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1010,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1080,16 +1012,14 @@
         <v>133965.2405827338</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1148,7 +1078,7 @@
         <v>137635.4195827338</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1181,7 +1111,7 @@
         <v>137635.4195827338</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1214,7 +1144,7 @@
         <v>135952.0095827338</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1379,7 +1309,7 @@
         <v>139097.2154827338</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1412,7 +1342,7 @@
         <v>132279.4778827338</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1445,7 +1375,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1478,7 +1408,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1511,7 +1441,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1544,7 +1474,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1577,7 +1507,7 @@
         <v>101927.8861827338</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1610,7 +1540,7 @@
         <v>85673.29638273378</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1643,7 +1573,7 @@
         <v>85673.29638273378</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1676,7 +1606,7 @@
         <v>80272.29638273378</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1709,7 +1639,7 @@
         <v>88731.78868273378</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1742,7 +1672,7 @@
         <v>85355.24208273378</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1775,7 +1705,7 @@
         <v>85355.24208273378</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1808,7 +1738,7 @@
         <v>81872.97768273378</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1841,7 +1771,7 @@
         <v>85798.65918273378</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1874,7 +1804,7 @@
         <v>85798.65918273378</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1907,7 +1837,7 @@
         <v>85798.65918273378</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1940,7 +1870,7 @@
         <v>89967.32508273379</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1973,7 +1903,7 @@
         <v>88185.69188273379</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2006,7 +1936,7 @@
         <v>93062.6028827338</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2039,7 +1969,7 @@
         <v>99832.08678273381</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2072,7 +2002,7 @@
         <v>99842.08678273381</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2105,7 +2035,7 @@
         <v>88553.4604827338</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2138,7 +2068,7 @@
         <v>87933.90048273381</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2171,7 +2101,7 @@
         <v>83727.01358273381</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2204,7 +2134,7 @@
         <v>83793.27768273381</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2237,7 +2167,7 @@
         <v>83793.27768273381</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2270,7 +2200,7 @@
         <v>83793.27768273381</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2303,7 +2233,7 @@
         <v>83793.27768273381</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2336,7 +2266,7 @@
         <v>86675.43948273381</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2369,7 +2299,7 @@
         <v>86557.93288273382</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2402,7 +2332,7 @@
         <v>89073.96088273382</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2435,7 +2365,7 @@
         <v>83883.47748273383</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2468,7 +2398,7 @@
         <v>68161.20598273382</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2501,7 +2431,7 @@
         <v>68161.20598273382</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2534,7 +2464,7 @@
         <v>56190.00598273383</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2567,7 +2497,7 @@
         <v>56367.51628273383</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2765,7 +2695,7 @@
         <v>45222.92778273383</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3738,9 +3668,11 @@
         <v>32389.23898273383</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>134.5</v>
+      </c>
       <c r="J99" t="n">
         <v>135</v>
       </c>
@@ -4064,11 +3996,9 @@
         <v>57102.38288273383</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>138.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>135</v>
       </c>
@@ -4105,11 +4035,9 @@
         <v>57927.20288273383</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>136.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>135</v>
       </c>
@@ -4263,11 +4191,9 @@
         <v>57137.91958273383</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>135</v>
       </c>
@@ -6700,6 +6626,6 @@
       <c r="M174" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest RDN.xlsx
+++ b/BackTest/2020-01-13 BackTest RDN.xlsx
@@ -550,7 +550,7 @@
         <v>129827.9187827338</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>112183.1108827338</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>159717.9737827338</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>130390.8387827338</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>129303.8947827338</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>139379.0513827338</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>139379.0513827338</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>139097.2154827338</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>132279.4778827338</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>157675.0976827338</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -3487,10 +3487,14 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>135</v>
+      </c>
+      <c r="J94" t="n">
+        <v>135</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3520,11 +3524,19 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>135</v>
+      </c>
+      <c r="J95" t="n">
+        <v>135</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3561,7 +3573,11 @@
       <c r="J96" t="n">
         <v>135</v>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,9 +3606,11 @@
         <v>33883.82878273383</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>135</v>
+      </c>
       <c r="J97" t="n">
         <v>135</v>
       </c>
@@ -3629,9 +3647,11 @@
         <v>32456.23898273383</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>135</v>
+      </c>
       <c r="J98" t="n">
         <v>135</v>
       </c>
@@ -3996,9 +4016,11 @@
         <v>57102.38288273383</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>138.5</v>
+      </c>
       <c r="J107" t="n">
         <v>135</v>
       </c>
@@ -4035,9 +4057,11 @@
         <v>57927.20288273383</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>136.7</v>
+      </c>
       <c r="J108" t="n">
         <v>135</v>
       </c>
@@ -4113,9 +4137,11 @@
         <v>55672.17588273383</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>137</v>
+      </c>
       <c r="J110" t="n">
         <v>135</v>
       </c>
@@ -4191,9 +4217,11 @@
         <v>57137.91958273383</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>137</v>
+      </c>
       <c r="J112" t="n">
         <v>135</v>
       </c>
@@ -4347,7 +4375,7 @@
         <v>78810.30038273384</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
@@ -4355,11 +4383,11 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>1.017222222222222</v>
       </c>
       <c r="M116" t="inlineStr"/>
     </row>
@@ -4389,14 +4417,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>135</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4428,14 +4450,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>135</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4464,17 +4480,11 @@
         <v>82203.61838273384</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>135</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4503,17 +4513,11 @@
         <v>82035.34528273383</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>135</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4545,14 +4549,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>135</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4584,14 +4582,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>135</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4620,17 +4612,11 @@
         <v>82045.34528273383</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>135</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4659,17 +4645,11 @@
         <v>60610.27618273383</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>135</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4701,14 +4681,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>135</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4740,14 +4714,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>135</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4779,14 +4747,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>135</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4815,17 +4777,11 @@
         <v>64714.88998273383</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>135</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4857,14 +4813,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>135</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4893,17 +4843,11 @@
         <v>64024.25188273383</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>135</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4932,17 +4876,11 @@
         <v>64028.25188273383</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>135</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4971,17 +4909,11 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>135</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5013,14 +4945,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>135</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5049,17 +4975,11 @@
         <v>63995.54588273383</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>135</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5091,14 +5011,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>135</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5130,14 +5044,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>135</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5169,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>135</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5205,17 +5107,11 @@
         <v>46704.83348273383</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>135</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5247,14 +5143,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>135</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5286,14 +5176,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>135</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5325,14 +5209,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>135</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5364,14 +5242,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>135</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5403,14 +5275,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>135</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5442,14 +5308,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>135</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5481,14 +5341,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>135</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5520,14 +5374,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>135</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5559,14 +5407,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>135</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5598,14 +5440,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>135</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5637,14 +5473,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>135</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5676,14 +5506,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>135</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5715,14 +5539,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>135</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5754,14 +5572,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>135</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5790,17 +5602,11 @@
         <v>55434.46778273383</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>135</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5829,17 +5635,11 @@
         <v>55434.46778273383</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>135</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5871,14 +5671,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>135</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5910,14 +5704,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>135</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5949,14 +5737,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>135</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5988,14 +5770,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>135</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6027,14 +5803,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>135</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6066,14 +5836,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>135</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6105,14 +5869,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>135</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6144,14 +5902,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>135</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6183,14 +5935,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>135</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6222,14 +5968,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>135</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6261,14 +6001,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>135</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6300,14 +6034,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>135</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6339,14 +6067,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>135</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6378,14 +6100,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>135</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6417,14 +6133,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>135</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6456,14 +6166,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>135</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6495,14 +6199,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>135</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6534,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>135</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6573,14 +6265,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>135</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6612,14 +6298,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>135</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest RDN.xlsx
+++ b/BackTest/2020-01-13 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>17467.52008273381</v>
       </c>
       <c r="G2" t="n">
-        <v>129827.9187827338</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>8673.3446</v>
       </c>
       <c r="G3" t="n">
-        <v>129827.9187827338</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>27277.9594</v>
       </c>
       <c r="G4" t="n">
-        <v>129827.9187827338</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>317</v>
       </c>
       <c r="G5" t="n">
-        <v>129827.9187827338</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>17644.8079</v>
       </c>
       <c r="G6" t="n">
-        <v>112183.1108827338</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1995.5307</v>
       </c>
       <c r="G7" t="n">
-        <v>114178.6415827338</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>12986.4702</v>
       </c>
       <c r="G8" t="n">
-        <v>127165.1117827338</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>622</v>
       </c>
       <c r="G9" t="n">
-        <v>126543.1117827338</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>19029.6622</v>
       </c>
       <c r="G10" t="n">
-        <v>145572.7739827338</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>36700.6223</v>
       </c>
       <c r="G11" t="n">
-        <v>108872.1516827338</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>42831.4166</v>
       </c>
       <c r="G12" t="n">
-        <v>151703.5682827338</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>3412</v>
       </c>
       <c r="G13" t="n">
-        <v>148291.5682827338</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>11426.4055</v>
       </c>
       <c r="G14" t="n">
-        <v>159717.9737827338</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>52946.5195</v>
       </c>
       <c r="G15" t="n">
-        <v>159717.9737827338</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>29327.135</v>
       </c>
       <c r="G16" t="n">
-        <v>130390.8387827338</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>17424.7032</v>
       </c>
       <c r="G17" t="n">
-        <v>147815.5419827338</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>14273.3014</v>
       </c>
       <c r="G18" t="n">
-        <v>133542.2405827338</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>423</v>
       </c>
       <c r="G19" t="n">
-        <v>133965.2405827338</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>229</v>
       </c>
       <c r="G20" t="n">
-        <v>133736.2405827338</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3899.179</v>
       </c>
       <c r="G21" t="n">
-        <v>137635.4195827338</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3287.8123</v>
       </c>
       <c r="G22" t="n">
-        <v>137635.4195827338</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1683.41</v>
       </c>
       <c r="G23" t="n">
-        <v>135952.0095827338</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>6648.1148</v>
       </c>
       <c r="G24" t="n">
-        <v>129303.8947827338</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>10075.1566</v>
       </c>
       <c r="G25" t="n">
-        <v>139379.0513827338</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>72.32989999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>139379.0513827338</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>281.8359</v>
       </c>
       <c r="G27" t="n">
-        <v>139097.2154827338</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>143.1641</v>
       </c>
       <c r="G28" t="n">
-        <v>139097.2154827338</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>6817.7376</v>
       </c>
       <c r="G29" t="n">
-        <v>132279.4778827338</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>25395.6198</v>
       </c>
       <c r="G30" t="n">
-        <v>157675.0976827338</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>157675.0976827338</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>148.5283</v>
       </c>
       <c r="G32" t="n">
-        <v>157675.0976827338</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1836.6092</v>
       </c>
       <c r="G33" t="n">
-        <v>157675.0976827338</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>55747.2115</v>
       </c>
       <c r="G34" t="n">
-        <v>101927.8861827338</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>16254.5898</v>
       </c>
       <c r="G35" t="n">
-        <v>85673.29638273378</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>123</v>
       </c>
       <c r="G36" t="n">
-        <v>85673.29638273378</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>5401</v>
       </c>
       <c r="G37" t="n">
-        <v>80272.29638273378</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>8459.4923</v>
       </c>
       <c r="G38" t="n">
-        <v>88731.78868273378</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>3376.5466</v>
       </c>
       <c r="G39" t="n">
-        <v>85355.24208273378</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>12.3305</v>
       </c>
       <c r="G40" t="n">
-        <v>85355.24208273378</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>3482.2644</v>
       </c>
       <c r="G41" t="n">
-        <v>81872.97768273378</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3925.6815</v>
       </c>
       <c r="G42" t="n">
-        <v>85798.65918273378</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1081.717</v>
       </c>
       <c r="G43" t="n">
-        <v>85798.65918273378</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1988.2682</v>
       </c>
       <c r="G44" t="n">
-        <v>85798.65918273378</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>4168.6659</v>
       </c>
       <c r="G45" t="n">
-        <v>89967.32508273379</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1781.6332</v>
       </c>
       <c r="G46" t="n">
-        <v>88185.69188273379</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>4876.911</v>
       </c>
       <c r="G47" t="n">
-        <v>93062.6028827338</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>6769.4839</v>
       </c>
       <c r="G48" t="n">
-        <v>99832.08678273381</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>99842.08678273381</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>11288.6263</v>
       </c>
       <c r="G50" t="n">
-        <v>88553.4604827338</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>619.5599999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>87933.90048273381</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>4206.8869</v>
       </c>
       <c r="G52" t="n">
-        <v>83727.01358273381</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,19 @@
         <v>66.2641</v>
       </c>
       <c r="G53" t="n">
-        <v>83793.27768273381</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>134.4</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2007,21 @@
         <v>6217.7623</v>
       </c>
       <c r="G54" t="n">
-        <v>83793.27768273381</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2043,21 @@
         <v>0.0003</v>
       </c>
       <c r="G55" t="n">
-        <v>83793.27768273381</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2079,21 @@
         <v>271.7429</v>
       </c>
       <c r="G56" t="n">
-        <v>83793.27768273381</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2115,21 @@
         <v>2882.1618</v>
       </c>
       <c r="G57" t="n">
-        <v>86675.43948273381</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2151,21 @@
         <v>117.5066</v>
       </c>
       <c r="G58" t="n">
-        <v>86557.93288273382</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2187,21 @@
         <v>2516.028</v>
       </c>
       <c r="G59" t="n">
-        <v>89073.96088273382</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2223,21 @@
         <v>5190.4834</v>
       </c>
       <c r="G60" t="n">
-        <v>83883.47748273383</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2259,21 @@
         <v>15722.2715</v>
       </c>
       <c r="G61" t="n">
-        <v>68161.20598273382</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2295,21 @@
         <v>9399.4221</v>
       </c>
       <c r="G62" t="n">
-        <v>68161.20598273382</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2331,21 @@
         <v>11971.2</v>
       </c>
       <c r="G63" t="n">
-        <v>56190.00598273383</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2367,21 @@
         <v>177.5103</v>
       </c>
       <c r="G64" t="n">
-        <v>56367.51628273383</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2403,21 @@
         <v>14884.0074</v>
       </c>
       <c r="G65" t="n">
-        <v>41483.50888273383</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2439,21 @@
         <v>941.9544</v>
       </c>
       <c r="G66" t="n">
-        <v>42425.46328273383</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2475,21 @@
         <v>361</v>
       </c>
       <c r="G67" t="n">
-        <v>42064.46328273383</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2511,21 @@
         <v>425.1275</v>
       </c>
       <c r="G68" t="n">
-        <v>42489.59078273383</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2547,23 @@
         <v>3.8</v>
       </c>
       <c r="G69" t="n">
-        <v>42485.79078273383</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>134.1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2585,23 @@
         <v>2737.137</v>
       </c>
       <c r="G70" t="n">
-        <v>45222.92778273383</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>132.6</v>
+      </c>
+      <c r="I70" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2623,23 @@
         <v>2088</v>
       </c>
       <c r="G71" t="n">
-        <v>47310.92778273383</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>133.5</v>
+      </c>
+      <c r="I71" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2661,23 @@
         <v>1316.5301</v>
       </c>
       <c r="G72" t="n">
-        <v>45994.39768273383</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>133.7</v>
+      </c>
+      <c r="I72" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2699,23 @@
         <v>3.5715</v>
       </c>
       <c r="G73" t="n">
-        <v>45997.96918273383</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>133.4</v>
+      </c>
+      <c r="I73" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2737,23 @@
         <v>10.9463</v>
       </c>
       <c r="G74" t="n">
-        <v>45997.96918273383</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>135.6</v>
+      </c>
+      <c r="I74" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2775,21 @@
         <v>10.5339</v>
       </c>
       <c r="G75" t="n">
-        <v>45987.43528273383</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2811,21 @@
         <v>6366.369</v>
       </c>
       <c r="G76" t="n">
-        <v>39621.06628273383</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2847,23 @@
         <v>6637.4609</v>
       </c>
       <c r="G77" t="n">
-        <v>46258.52718273383</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>133</v>
+      </c>
+      <c r="I77" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2885,23 @@
         <v>8929.6867</v>
       </c>
       <c r="G78" t="n">
-        <v>37328.84048273383</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>135.3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2923,21 @@
         <v>39.5031</v>
       </c>
       <c r="G79" t="n">
-        <v>37368.34358273383</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2959,23 @@
         <v>15</v>
       </c>
       <c r="G80" t="n">
-        <v>37368.34358273383</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>135</v>
+      </c>
+      <c r="I80" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2997,21 @@
         <v>4043.1982</v>
       </c>
       <c r="G81" t="n">
-        <v>33325.14538273383</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3033,21 @@
         <v>192.3996</v>
       </c>
       <c r="G82" t="n">
-        <v>33517.54498273383</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3069,21 @@
         <v>6076.1797</v>
       </c>
       <c r="G83" t="n">
-        <v>39593.72468273383</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3105,21 @@
         <v>1277.0985</v>
       </c>
       <c r="G84" t="n">
-        <v>40870.82318273383</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3141,21 @@
         <v>6004.9808</v>
       </c>
       <c r="G85" t="n">
-        <v>34865.84238273383</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3177,21 @@
         <v>40.2335</v>
       </c>
       <c r="G86" t="n">
-        <v>34906.07588273384</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3213,21 @@
         <v>328.4607</v>
       </c>
       <c r="G87" t="n">
-        <v>34577.61518273383</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3249,21 @@
         <v>19.8336</v>
       </c>
       <c r="G88" t="n">
-        <v>34597.44878273383</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3285,21 @@
         <v>13.5668</v>
       </c>
       <c r="G89" t="n">
-        <v>34597.44878273383</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3321,21 @@
         <v>713.62</v>
       </c>
       <c r="G90" t="n">
-        <v>33883.82878273383</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3357,21 @@
         <v>727</v>
       </c>
       <c r="G91" t="n">
-        <v>33883.82878273383</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3393,21 @@
         <v>1019.9999</v>
       </c>
       <c r="G92" t="n">
-        <v>33883.82878273383</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3429,21 @@
         <v>3913.3787</v>
       </c>
       <c r="G93" t="n">
-        <v>33883.82878273383</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,22 +3465,21 @@
         <v>389.3591</v>
       </c>
       <c r="G94" t="n">
-        <v>33883.82878273383</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>135</v>
-      </c>
-      <c r="J94" t="n">
-        <v>135</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3521,26 +3501,21 @@
         <v>1194.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>33883.82878273383</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>135</v>
-      </c>
-      <c r="J95" t="n">
-        <v>135</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3562,26 +3537,21 @@
         <v>502.9999</v>
       </c>
       <c r="G96" t="n">
-        <v>33883.82878273383</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>135</v>
-      </c>
-      <c r="J96" t="n">
-        <v>135</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3603,26 +3573,21 @@
         <v>4264.8339</v>
       </c>
       <c r="G97" t="n">
-        <v>33883.82878273383</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>135</v>
-      </c>
-      <c r="J97" t="n">
-        <v>135</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3644,26 +3609,21 @@
         <v>1427.5898</v>
       </c>
       <c r="G98" t="n">
-        <v>32456.23898273383</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>135</v>
-      </c>
-      <c r="J98" t="n">
-        <v>135</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3685,26 +3645,21 @@
         <v>67</v>
       </c>
       <c r="G99" t="n">
-        <v>32389.23898273383</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>135</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3726,26 +3681,23 @@
         <v>469.6645</v>
       </c>
       <c r="G100" t="n">
-        <v>32858.90348273383</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="I100" t="n">
-        <v>134</v>
-      </c>
-      <c r="J100" t="n">
-        <v>135</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3767,26 +3719,23 @@
         <v>778.1663</v>
       </c>
       <c r="G101" t="n">
-        <v>32858.90348273383</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="I101" t="n">
-        <v>135</v>
-      </c>
-      <c r="J101" t="n">
-        <v>135</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3808,26 +3757,23 @@
         <v>1005.9998</v>
       </c>
       <c r="G102" t="n">
-        <v>32858.90348273383</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="I102" t="n">
-        <v>135</v>
-      </c>
-      <c r="J102" t="n">
-        <v>135</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3849,26 +3795,21 @@
         <v>241</v>
       </c>
       <c r="G103" t="n">
-        <v>32858.90348273383</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>135</v>
-      </c>
-      <c r="J103" t="n">
-        <v>135</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3890,26 +3831,21 @@
         <v>4073.6893</v>
       </c>
       <c r="G104" t="n">
-        <v>32858.90348273383</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>135</v>
-      </c>
-      <c r="J104" t="n">
-        <v>135</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3931,26 +3867,21 @@
         <v>6549.5881</v>
       </c>
       <c r="G105" t="n">
-        <v>39408.49158273383</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>135</v>
-      </c>
-      <c r="J105" t="n">
-        <v>135</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3972,26 +3903,21 @@
         <v>25541.5443</v>
       </c>
       <c r="G106" t="n">
-        <v>64950.03588273383</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>136</v>
-      </c>
-      <c r="J106" t="n">
-        <v>135</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4013,26 +3939,21 @@
         <v>7847.653</v>
       </c>
       <c r="G107" t="n">
-        <v>57102.38288273383</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>135</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4054,26 +3975,21 @@
         <v>824.8200000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>57927.20288273383</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="J108" t="n">
-        <v>135</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4095,24 +4011,21 @@
         <v>2721.9759</v>
       </c>
       <c r="G109" t="n">
-        <v>55205.22698273383</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>135</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4134,26 +4047,21 @@
         <v>466.9489</v>
       </c>
       <c r="G110" t="n">
-        <v>55672.17588273383</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>137</v>
-      </c>
-      <c r="J110" t="n">
-        <v>135</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4175,24 +4083,21 @@
         <v>4234.7532</v>
       </c>
       <c r="G111" t="n">
-        <v>51437.42268273384</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>135</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4214,26 +4119,21 @@
         <v>5700.4969</v>
       </c>
       <c r="G112" t="n">
-        <v>57137.91958273383</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>137</v>
-      </c>
-      <c r="J112" t="n">
-        <v>135</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>134.4</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4255,24 +4155,21 @@
         <v>2691.2842</v>
       </c>
       <c r="G113" t="n">
-        <v>57137.91958273383</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>135</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4294,24 +4191,21 @@
         <v>17327.6993</v>
       </c>
       <c r="G114" t="n">
-        <v>74465.61888273383</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>135</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4333,24 +4227,21 @@
         <v>10093.8232</v>
       </c>
       <c r="G115" t="n">
-        <v>84559.44208273383</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>135</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4372,24 +4263,21 @@
         <v>5749.1417</v>
       </c>
       <c r="G116" t="n">
-        <v>78810.30038273384</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>135</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1.017222222222222</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4411,18 +4299,21 @@
         <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>78815.30038273384</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4444,18 +4335,21 @@
         <v>1776.9814</v>
       </c>
       <c r="G118" t="n">
-        <v>78815.30038273384</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4477,18 +4371,21 @@
         <v>3388.318</v>
       </c>
       <c r="G119" t="n">
-        <v>82203.61838273384</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4510,18 +4407,21 @@
         <v>168.2731</v>
       </c>
       <c r="G120" t="n">
-        <v>82035.34528273383</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4543,18 +4443,21 @@
         <v>424.1089</v>
       </c>
       <c r="G121" t="n">
-        <v>82035.34528273383</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4576,18 +4479,21 @@
         <v>4</v>
       </c>
       <c r="G122" t="n">
-        <v>82039.34528273383</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4609,18 +4515,21 @@
         <v>6</v>
       </c>
       <c r="G123" t="n">
-        <v>82045.34528273383</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4642,18 +4551,21 @@
         <v>21435.0691</v>
       </c>
       <c r="G124" t="n">
-        <v>60610.27618273383</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4675,18 +4587,21 @@
         <v>4704.6138</v>
       </c>
       <c r="G125" t="n">
-        <v>65314.88998273383</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4708,18 +4623,21 @@
         <v>20559.1735</v>
       </c>
       <c r="G126" t="n">
-        <v>65314.88998273383</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4741,18 +4659,21 @@
         <v>120.265</v>
       </c>
       <c r="G127" t="n">
-        <v>65314.88998273383</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4774,18 +4695,21 @@
         <v>600</v>
       </c>
       <c r="G128" t="n">
-        <v>64714.88998273383</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4807,18 +4731,21 @@
         <v>3.6</v>
       </c>
       <c r="G129" t="n">
-        <v>64718.48998273383</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4840,18 +4767,21 @@
         <v>694.2381</v>
       </c>
       <c r="G130" t="n">
-        <v>64024.25188273383</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4873,18 +4803,21 @@
         <v>4</v>
       </c>
       <c r="G131" t="n">
-        <v>64028.25188273383</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4906,18 +4839,21 @@
         <v>32.706</v>
       </c>
       <c r="G132" t="n">
-        <v>63995.54588273383</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4939,18 +4875,21 @@
         <v>177.875</v>
       </c>
       <c r="G133" t="n">
-        <v>63995.54588273383</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4972,18 +4911,21 @@
         <v>164.045</v>
       </c>
       <c r="G134" t="n">
-        <v>63995.54588273383</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5005,18 +4947,21 @@
         <v>11592.8208</v>
       </c>
       <c r="G135" t="n">
-        <v>52402.72508273383</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5038,18 +4983,21 @@
         <v>5</v>
       </c>
       <c r="G136" t="n">
-        <v>52407.72508273383</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5071,18 +5019,21 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>52397.72508273383</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5104,18 +5055,21 @@
         <v>5692.8916</v>
       </c>
       <c r="G138" t="n">
-        <v>46704.83348273383</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5137,18 +5091,21 @@
         <v>3778.1309</v>
       </c>
       <c r="G139" t="n">
-        <v>46704.83348273383</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5170,18 +5127,21 @@
         <v>2886.3769</v>
       </c>
       <c r="G140" t="n">
-        <v>46704.83348273383</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5203,18 +5163,21 @@
         <v>19.1089</v>
       </c>
       <c r="G141" t="n">
-        <v>46704.83348273383</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5236,18 +5199,21 @@
         <v>5077.6317</v>
       </c>
       <c r="G142" t="n">
-        <v>46704.83348273383</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5269,18 +5235,21 @@
         <v>9485.1289</v>
       </c>
       <c r="G143" t="n">
-        <v>37219.70458273383</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5302,18 +5271,21 @@
         <v>1070.3198</v>
       </c>
       <c r="G144" t="n">
-        <v>38290.02438273383</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5335,18 +5307,21 @@
         <v>3.9041</v>
       </c>
       <c r="G145" t="n">
-        <v>38293.92848273383</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5368,18 +5343,21 @@
         <v>701.2103</v>
       </c>
       <c r="G146" t="n">
-        <v>37592.71818273383</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5401,18 +5379,21 @@
         <v>1726.5207</v>
       </c>
       <c r="G147" t="n">
-        <v>39319.23888273383</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5434,18 +5415,21 @@
         <v>4530.5569</v>
       </c>
       <c r="G148" t="n">
-        <v>34788.68198273383</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5467,18 +5451,21 @@
         <v>20518.8403</v>
       </c>
       <c r="G149" t="n">
-        <v>55307.52228273383</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5500,18 +5487,21 @@
         <v>353</v>
       </c>
       <c r="G150" t="n">
-        <v>55660.52228273383</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5533,18 +5523,21 @@
         <v>20.36</v>
       </c>
       <c r="G151" t="n">
-        <v>55660.52228273383</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5566,18 +5559,21 @@
         <v>28744.0278</v>
       </c>
       <c r="G152" t="n">
-        <v>84404.55008273383</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5599,18 +5595,21 @@
         <v>28970.0823</v>
       </c>
       <c r="G153" t="n">
-        <v>55434.46778273383</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5632,18 +5631,21 @@
         <v>150</v>
       </c>
       <c r="G154" t="n">
-        <v>55434.46778273383</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5665,18 +5667,21 @@
         <v>245.3521</v>
       </c>
       <c r="G155" t="n">
-        <v>55679.81988273383</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5698,18 +5703,21 @@
         <v>92.5515</v>
       </c>
       <c r="G156" t="n">
-        <v>55587.26838273383</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5731,18 +5739,21 @@
         <v>5</v>
       </c>
       <c r="G157" t="n">
-        <v>55582.26838273383</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5764,18 +5775,21 @@
         <v>250</v>
       </c>
       <c r="G158" t="n">
-        <v>55582.26838273383</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5797,18 +5811,21 @@
         <v>1847.5964</v>
       </c>
       <c r="G159" t="n">
-        <v>53734.67198273382</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5830,18 +5847,21 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>53744.67198273382</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5863,18 +5883,21 @@
         <v>5350.608</v>
       </c>
       <c r="G161" t="n">
-        <v>53744.67198273382</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5896,18 +5919,21 @@
         <v>3150.7088</v>
       </c>
       <c r="G162" t="n">
-        <v>50593.96318273382</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5929,18 +5955,21 @@
         <v>1335</v>
       </c>
       <c r="G163" t="n">
-        <v>49258.96318273382</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5962,18 +5991,21 @@
         <v>5577.3215</v>
       </c>
       <c r="G164" t="n">
-        <v>49258.96318273382</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5995,18 +6027,21 @@
         <v>5000</v>
       </c>
       <c r="G165" t="n">
-        <v>49258.96318273382</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6028,18 +6063,21 @@
         <v>2118.3375</v>
       </c>
       <c r="G166" t="n">
-        <v>51377.30068273382</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6061,18 +6099,21 @@
         <v>419.9999</v>
       </c>
       <c r="G167" t="n">
-        <v>51377.30068273382</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6094,18 +6135,21 @@
         <v>1749.6987</v>
       </c>
       <c r="G168" t="n">
-        <v>51377.30068273382</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6127,18 +6171,21 @@
         <v>182.1546</v>
       </c>
       <c r="G169" t="n">
-        <v>51195.14608273382</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6160,18 +6207,21 @@
         <v>798.2583454281568</v>
       </c>
       <c r="G170" t="n">
-        <v>51993.40442816198</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6193,18 +6243,21 @@
         <v>290.2757619738752</v>
       </c>
       <c r="G171" t="n">
-        <v>51993.40442816198</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6226,18 +6279,21 @@
         <v>124.189</v>
       </c>
       <c r="G172" t="n">
-        <v>51993.40442816198</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6259,18 +6315,21 @@
         <v>725.5923760881925</v>
       </c>
       <c r="G173" t="n">
-        <v>52718.99680425017</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6292,18 +6351,21 @@
         <v>723.1616215530032</v>
       </c>
       <c r="G174" t="n">
-        <v>53442.15842580317</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
